--- a/Test Case/TestCase_LibraryManagementProject.xlsx
+++ b/Test Case/TestCase_LibraryManagementProject.xlsx
@@ -213,26 +213,6 @@
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Đến "Sign In"
-3: Kiểm tra các thành phần có giống với thiết kế
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Đến "Sign In"
-3: Nhập dữ liệu vào textbox "Họ Tên"
-4: Nhấn button "SIGN UP"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Đến "Sign In"
-3: Chọn combobox "Giới Tính"
-4: Nhấn button "SIGN UP"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Đến "Sign In"
 3:  Nhập liệu / chọn date picker "Ngày Sinh "
 4: Nhấn button "SIGN UP"
 </t>
@@ -508,9 +488,30 @@
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Đến "Sign In"
-3: Nhập dữ liệu vào textbox "Mã Độc Giả"
-4: Nhấn button "SIGN UP"
+2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login -&gt; Nhấn button "Sign Up"
+3: Đến form SignUp -&gt; Kiểm tra các thành phần có giống với thiết kế
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login -&gt; Nhấn button "Sign Up"
+4: Đến form SignUp -&gt; Nhập dữ liệu vào textbox "Họ và Tên" -&gt; Nhấn button "SIGN UP"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login -&gt; Nhấn button "Sign Up"
+4: Đến form SignUp -&gt; Nhập dữ liệu vào textbox "Mã độc giả" -&gt; Nhấn button "SIGN UP"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login -&gt; Nhấn button "Sign Up"
+4: Đến form SignUp -&gt; Chọn combobox "Giới tính" -&gt; Nhấn button "SIGN UP"
 </t>
   </si>
 </sst>
@@ -801,6 +802,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -812,39 +846,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1121,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1137,48 +1138,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="26.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="19.95" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="28.05" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -1222,10 +1223,10 @@
       <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
@@ -1238,16 +1239,16 @@
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:9" ht="43.2">
       <c r="A11" t="s">
@@ -1259,15 +1260,15 @@
       <c r="C11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="25"/>
       <c r="G11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="57.6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="100.8">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1275,14 +1276,14 @@
         <v>23</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" ht="72">
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" ht="100.8">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1290,15 +1291,15 @@
         <v>26</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:9" ht="72">
+    <row r="14" spans="1:9" ht="100.8">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1306,15 +1307,15 @@
         <v>26</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:9" ht="72">
+    <row r="15" spans="1:9" ht="100.8">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1322,12 +1323,12 @@
         <v>26</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:9" ht="72">
@@ -1338,12 +1339,12 @@
         <v>26</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="72">
@@ -1354,12 +1355,12 @@
         <v>26</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="72">
@@ -1370,12 +1371,12 @@
         <v>26</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="72">
@@ -1386,12 +1387,12 @@
         <v>26</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="72">
@@ -1402,12 +1403,12 @@
         <v>26</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="86.4">
@@ -1418,12 +1419,12 @@
         <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="19"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="100.8">
       <c r="A22" t="s">
@@ -1433,12 +1434,12 @@
         <v>40</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="20"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:6" ht="100.8">
       <c r="A23" t="s">
@@ -1448,12 +1449,12 @@
         <v>40</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="20"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:6" ht="144" customHeight="1">
       <c r="A24" t="s">
@@ -1463,142 +1464,155 @@
         <v>44</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:6" ht="230.4" customHeight="1">
       <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:6" ht="164.4" customHeight="1">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="20"/>
+        <v>64</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:6" ht="187.2">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="20"/>
+        <v>70</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:6" ht="144">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="20"/>
+        <v>71</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:6" ht="216">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:6" ht="216">
       <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="29"/>
+      <c r="D30" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" spans="1:6" ht="129.6">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="29"/>
+      <c r="D31" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="158.4">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="29"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5" ht="58.2" customHeight="1">
       <c r="A33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
+        <v>84</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
@@ -1615,19 +1629,6 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:H10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test Case/TestCase_LibraryManagementProject.xlsx
+++ b/Test Case/TestCase_LibraryManagementProject.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18276" windowHeight="7116"/>
+    <workbookView windowWidth="19200" windowHeight="8110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -115,14 +115,30 @@
     <t>Trang chủ</t>
   </si>
   <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Kiểm tra các thành phần có giống với thiết kế
+</t>
+  </si>
+  <si>
     <t>_ Mở được trang chủ
 _ Giống bản thiết kế</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>TC_02</t>
   </si>
   <si>
     <t>Tạo tài khoản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login -&gt; Nhấn button "Sign Up"
+3: Đến form SignUp
+4: Kiểm tra các thành phần có giống với thiết kế
+</t>
   </si>
   <si>
     <t>_ Mở được trang chủ
@@ -137,6 +153,13 @@
 Kiểm tra ràng buộc </t>
   </si>
   <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login -&gt; Nhấn button "Sign Up"
+4: Đến form SignUp -&gt; Nhập dữ liệu vào textbox "Mã độc giả" -&gt; Nhấn button "SIGN UP"
+</t>
+  </si>
+  <si>
     <t>_ Mở được trang chủ
 _ Đến được form SignUp
 _ Không hiện thông báo lỗi</t>
@@ -145,19 +168,61 @@
     <t>TC_04</t>
   </si>
   <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login -&gt; Nhấn button "Sign Up"
+4: Đến form SignUp -&gt; Nhập dữ liệu vào textbox "Họ và Tên" -&gt; Nhấn button "SIGN UP"
+</t>
+  </si>
+  <si>
     <t>TC_05</t>
   </si>
   <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login -&gt; Nhấn button "Sign Up"
+4: Đến form SignUp -&gt; Chọn combobox "Giới tính" -&gt; Nhấn button "SIGN UP"
+</t>
+  </si>
+  <si>
     <t>TC_06</t>
   </si>
   <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login -&gt; Nhấn button "Sign Up"
+4: Đến form SignUp -&gt; Chọn / nhập dữ liệu vào date picker "Ngày Sinh " -&gt; Nhấn button "SIGN UP"
+</t>
+  </si>
+  <si>
     <t>TC_07</t>
   </si>
   <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login -&gt; Nhấn button "Sign Up"
+4: Đến form SignUp -&gt; Chọn combobox "Đối Tượng" -&gt; Nhấn button "SIGN UP"
+</t>
+  </si>
+  <si>
     <t>TC_08</t>
   </si>
   <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login -&gt; Nhấn button "Sign Up"
+4: Đến form SignUp -&gt; Chọn combobox "Bộ Phận" -&gt; Nhấn button "SIGN UP"
+</t>
+  </si>
+  <si>
     <t>TC_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login -&gt; Nhấn button "Sign Up"
+4: Đến form SignUp -&gt; Nhập dữ liệu vào textbox "Điện thoại" -&gt; Nhấn button "SIGN UP"
+</t>
   </si>
   <si>
     <t>_ Mở được trang chủ
@@ -166,16 +231,33 @@
 _ Ràng buộc được đúng số điện thoại</t>
   </si>
   <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login -&gt; Nhấn button "Sign Up"
+4: Đến form SignUp -&gt; Nhập dữ liệu vào textbox "Email" -&gt; Nhấn button "SIGN UP"
+</t>
+  </si>
+  <si>
     <t>_ Mở được trang chủ
 _ Đến được form SignUp
 _ Không hiện thông báo lỗi
 _ Ràng buộc được đúng địa chỉ email</t>
   </si>
   <si>
-    <t>TC_10</t>
+    <t>TC_11</t>
   </si>
   <si>
     <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login
+4: Kiểm tra thành phần có giống với thiết kế
+</t>
   </si>
   <si>
     <t>_ Mở được trang chủ
@@ -183,11 +265,17 @@
 _ Giống bản thiết kế</t>
   </si>
   <si>
-    <t>TC_11</t>
+    <t>TC_12</t>
   </si>
   <si>
     <t xml:space="preserve">Đăng nhập -
 Kiểm tra ràng buộc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" -&gt; Nhấn button "Sign In"
+</t>
   </si>
   <si>
     <t xml:space="preserve">_ Mở được trang chủ
@@ -196,97 +284,31 @@
 </t>
   </si>
   <si>
-    <t>TC_12</t>
-  </si>
-  <si>
     <t>TC_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login -&gt; Nhập dữ liệu vào textbox "Password" -&gt; Nhấn button "Sign In"
+</t>
+  </si>
+  <si>
+    <t>2. Kiểm tra giao diện người dùng - Sinh viên / Giảng Viên</t>
+  </si>
+  <si>
+    <t>TC_14</t>
   </si>
   <si>
     <t>Mượn sách - Thông
 tin khách</t>
   </si>
   <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Kiểm tra các thành phần có giống với thiết kế
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Đến "Sign In"
-3:  Nhập liệu / chọn date picker "Ngày Sinh "
-4: Nhấn button "SIGN UP"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Đến "Sign In"
-3:  Chọn combobox "Đối Tượng"
-4: Nhấn button "SIGN UP"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Đến "Sign In"
-3: Chọn combobox "Bộ Phận"
-4: Nhấn button "SIGN UP"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Đến "Sign In"
-3: Nhập liệu textbox "Điện Thoại"
-4: Nhấn button "SIGN UP"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Đến "Sign In"
-3: Nhập liệu textbox "Email"
-4: Nhấn button "SIGN UP"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối Tượng"
-3: Nhấn button "Đăng nhập"
-4: Đến form "Login"
-5: Kiểm tra thành phần có giống với thiết kế
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối Tượng"
-3: Nhấn button "Đăng nhập"
-4: Đến form "Login"
-5: Nhập liệu textbox "User Name"
-6: Nhấn button "Sign In"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối Tượng"
-3: Nhấn button "Đăng nhập"
-4: Đến form "Login"
-5: Nhập liệu textbox "Password"
-6: Nhấn button "Sign In"
-</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối Tượng"
-3: Nhấn button "Đăng nhập"
-4: Đến form "Login"
-5: Nhập liệu textbox "User Name" &amp; "Password"
-6: Nhấn button "Sign In"
-7: Đến form "Mượn sách"
-8: Kiểm tra các thành phần có giống với thiết kế
-</t>
-  </si>
-  <si>
-    <t>TC_14</t>
+    <t xml:space="preserve">1:  Mở hệ thống "Quản lý thư viện"
+2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors
+5:   Kiểm tra các thành phần có giống với thiết kế
+</t>
   </si>
   <si>
     <t xml:space="preserve">_ Mở được trang chủ
@@ -297,8 +319,70 @@
 </t>
   </si>
   <si>
+    <t>TC_15</t>
+  </si>
+  <si>
     <t>Mượn sách - Thông
 tin khách - Kiểm tra ràng buộc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "Họ và tên" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "Mã độc giả" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "Số điện thoại" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Chọn ComboBox "Đối tượng" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt;  Nhấn tăng Spinner "Số lượng sách" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Chọn / Nhập dữ liệu vào Date Picker "Ngày mượn" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Chọn / Nhập dữ liệu vào Date Picker "Ngày trả" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "Họ và tên", "Mã độc giả", "Số điện thoại". Chọn ComboBox "Đối tượng", tăng Spinner "Số lượng sách". Chọn / Nhập dữ liệu vào Date Picker "Ngày mượn" &amp; "Ngày trả" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
+</t>
   </si>
   <si>
     <t xml:space="preserve">_ Mở được trang chủ
@@ -309,65 +393,32 @@
 </t>
   </si>
   <si>
-    <t>TC_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối Tượng"
-3: Nhấn button "Đăng nhập"
-4: Đến form "Login"
-5: Nhập liệu textbox "User Name" &amp; "Password"
-6: Nhấn button "Sign In"
-7: Đến Tab "Mượn sách"
-8: Nhấn titledPane "Thông tin khách hàng"
-9: Nhập liệu textbox "Họ và tên", "Mã độc giả", "Số điện thoại". Chọn combobox "Đối tượng", spinner "Số lượng sách". Nhập/chọn date picker "Ngày mượn" và "Ngày trả"
-10: Nhấn titledPane"Thông tin sách" 
-11: Nhập textbox "Mã sách để mượn" 
-12: Nhấn button "Xác nhận"
-</t>
-  </si>
-  <si>
-    <t>TC_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_ Mở được trang chủ
-_ Đến được form Login
-_ Đăng nhập thành công
-_ Đến được form Mượn trả sách
-_ Không hiện thông báo lỗi
-</t>
-  </si>
-  <si>
-    <t>1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối Tượng"
-3: Nhấn button "Đăng nhập"
-4: Đến form "Login"
-5: Nhập liệu textbox "User Name" &amp; "Password"
-6: Nhấn button "Sign In"
-7: Đến form "Mượn sách"
-8: Nhấn titledPane "Thông tin khách hàng"
-9: Đến Rectangle "BOOK 'S STATE" nhập liệu textbox "TÊN SÁCH" 
-10: Nhấn button "KIỂM TRA"</t>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "Họ và tên", "Mã độc giả", "Số điện thoại". Chọn ComboBox "Đối tượng", tăng Spinner "Số lượng sách". Chọn / Nhập dữ liệu vào Date Picker "Ngày mượn" &amp; "Ngày trả"
+5:   Nhấn TitledPane "Thông tin sách" - &gt; Nhập dữ liệu vào TextBox "Nhập mã sách" -&gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitledPane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "Họ và tên", "Mã độc giả", "Số điện thoại". Chọn ComboBox "Đối tượng", tăng Spinner "Số lượng sách". Chọn / Nhập dữ liệu vào Date Picker "Ngày mượn" &amp; "Ngày trả"
+5:   Nhấn TitledPane "Thông tin sách" - &gt; Nhập dữ liệu vào TextBox "Nhập mã sách" -&gt; Nhấn Button "Xác nhận" - &gt; Nhấn Button "Cập nhật"
+</t>
   </si>
   <si>
     <t>TC_17</t>
   </si>
   <si>
-    <t xml:space="preserve">Trả sách </t>
-  </si>
-  <si>
-    <t xml:space="preserve">_ Mở được trang chủ
-_ Đến được form Login
-_ Đăng nhập thành công
-_ Đến được form Mượn trả sách
-_ Giống bản thiết kế
-</t>
+    <t>1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitledPane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "TÊN SÁCH" trong phần Rectangle "BOOK'S STATE" -&gt; Nhấn Button "KIỂM TRA"</t>
   </si>
   <si>
     <t>TC_18</t>
-  </si>
-  <si>
-    <t>Trả sách - Kiểm tra ràng buộc</t>
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
@@ -383,6 +434,20 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login
+_ Đăng nhập thành công
+_ Đến được form Mượn trả sách
+_ Không hiện thông báo lỗi
+</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trả sách </t>
+  </si>
+  <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối Tượng"
 3: Nhấn button "Đăng nhập"
@@ -395,7 +460,18 @@
 </t>
   </si>
   <si>
-    <t>TC_19</t>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login
+_ Đăng nhập thành công
+_ Đến được form Mượn trả sách
+_ Giống bản thiết kế
+</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>Trả sách - Kiểm tra ràng buộc</t>
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
@@ -419,6 +495,9 @@
 _ Hiện thông báo trả sách thành công</t>
   </si>
   <si>
+    <t>TC_21</t>
+  </si>
+  <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối Tượng"
 3: Nhấn button "Đăng nhập"
@@ -440,16 +519,13 @@
 _ Hiện đầy đủ thông tin khách hàng &amp; tính đúng số tiền phạt (nếu có) trong phần RETURN BILL</t>
   </si>
   <si>
-    <t>TC_20</t>
+    <t>3. Kiểm tra giao diện người dùng - Thủ thư</t>
+  </si>
+  <si>
+    <t>TC_22</t>
   </si>
   <si>
     <t>Thống kê sách</t>
-  </si>
-  <si>
-    <t>TC_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thống kê sách - Kiểm tra ràng buộc</t>
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
@@ -467,15 +543,10 @@
 _ Giống bản thiết kế</t>
   </si>
   <si>
-    <t xml:space="preserve">_ Mở được trang chủ
-_ Đến được form Login
-_ Đăng nhập thành công
-_ Đến được form THỐNG KÊ SÁCH TRONG NĂM
-_ Trả về kết quả thống kê
-</t>
-  </si>
-  <si>
-    <t>TC_22</t>
+    <t>TC_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thống kê sách - Kiểm tra ràng buộc</t>
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
@@ -487,42 +558,26 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
-3: Đến form Login -&gt; Nhấn button "Sign Up"
-3: Đến form SignUp -&gt; Kiểm tra các thành phần có giống với thiết kế
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
-3: Đến form Login -&gt; Nhấn button "Sign Up"
-4: Đến form SignUp -&gt; Nhập dữ liệu vào textbox "Họ và Tên" -&gt; Nhấn button "SIGN UP"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
-3: Đến form Login -&gt; Nhấn button "Sign Up"
-4: Đến form SignUp -&gt; Nhập dữ liệu vào textbox "Mã độc giả" -&gt; Nhấn button "SIGN UP"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
-3: Đến form Login -&gt; Nhấn button "Sign Up"
-4: Đến form SignUp -&gt; Chọn combobox "Giới tính" -&gt; Nhấn button "SIGN UP"
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login
+_ Đăng nhập thành công
+_ Đến được form THỐNG KÊ SÁCH TRONG NĂM
+_ Trả về kết quả thống kê
 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,8 +627,152 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -588,7 +787,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,8 +806,206 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -751,20 +1148,286 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -784,7 +1447,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -793,66 +1456,110 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1_Vanco_CR022a1_TestCase_v0.1" xfId="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="Normal_Sheet1_Vanco_CR022a1_TestCase_v0.1" xfId="39"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1114,522 +1821,693 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.1090909090909" customWidth="1"/>
+    <col min="2" max="2" width="17.2181818181818" customWidth="1"/>
+    <col min="3" max="3" width="61.1636363636364" customWidth="1"/>
+    <col min="4" max="4" width="11.2181818181818" customWidth="1"/>
+    <col min="5" max="5" width="15.4454545454545" customWidth="1"/>
+    <col min="6" max="6" width="13.1090909090909" customWidth="1"/>
+    <col min="8" max="8" width="11.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="3" spans="1:9" ht="26.4">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.05" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" ht="28.05" customHeight="1" spans="1:4">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:4">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
-        <f>COUNTIF(I12:I60,"Pass")</f>
+      <c r="B6" s="12">
+        <f>COUNTIF(I12:I65,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5">
-        <f>COUNTIF(I10:I782,"Pending")</f>
+      <c r="D6" s="13">
+        <f>COUNTIF(I10:I787,"Pending")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" s="1" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7">
-        <f>COUNTIF(I12:I60,"Fail")</f>
+      <c r="B7" s="15">
+        <f>COUNTIF(I12:I65,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9">
-        <f>COUNTA(A10:A60)-15</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="37.950000000000003" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="D7" s="17">
+        <f>COUNTA(A10:A65)-3</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="37.95" customHeight="1" spans="1:9">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="29" t="s">
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-    </row>
-    <row r="11" spans="1:9" ht="43.2">
-      <c r="A11" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" ht="43.5" spans="1:7">
+      <c r="A11" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="101.5" spans="1:5">
+      <c r="A12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" ht="101.5" spans="1:6">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" ht="101.5" spans="1:6">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" ht="101.5" spans="1:6">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" ht="116" spans="1:6">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" ht="101.5" spans="1:6">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" ht="101.5" spans="1:6">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" ht="101.5" spans="1:6">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" ht="101.5" spans="1:6">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="G11" t="s">
+      <c r="B20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" ht="87" spans="1:5">
+      <c r="A21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" ht="87" spans="1:5">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="100.8">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="D22" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" ht="87" spans="1:5">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" ht="144" customHeight="1" spans="1:5">
+      <c r="A25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" ht="180" customHeight="1" spans="1:5">
+      <c r="A26" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" ht="230.4" customHeight="1" spans="3:5">
+      <c r="C27" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" ht="164.4" customHeight="1" spans="3:5">
+      <c r="C28" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" ht="145" spans="3:5">
+      <c r="C29" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" ht="145" spans="3:5">
+      <c r="C30" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" ht="116" spans="3:5">
+      <c r="C31" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" ht="145" spans="3:5">
+      <c r="C32" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" ht="192" customHeight="1" spans="1:5">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" ht="174" spans="1:5">
+      <c r="A34" s="27"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+    </row>
+    <row r="35" ht="168" customHeight="1" spans="1:5">
+      <c r="A35" s="27"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36" ht="101.5" spans="1:5">
+      <c r="A36" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="34"/>
+    </row>
+    <row r="37" ht="174" spans="1:5">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" ht="159" customHeight="1" spans="1:5">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" ht="217.5" spans="1:5">
+      <c r="A39" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:9" ht="100.8">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="B39" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" ht="100.8">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="D39" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="35"/>
+    </row>
+    <row r="40" ht="217.5" spans="1:5">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" ht="100.8">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" ht="72">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" ht="72">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" ht="72">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" ht="72">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" ht="72">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" ht="86.4">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="1:6" ht="100.8">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="1:6" ht="100.8">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="1:6" ht="144" customHeight="1">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" ht="230.4" customHeight="1">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26" spans="1:6" ht="164.4" customHeight="1">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="1:6" ht="187.2">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28" spans="1:6" ht="144">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29" spans="1:6" ht="216">
-      <c r="A29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:6" ht="216">
-      <c r="A30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="1:6" ht="129.6">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="1:6" ht="158.4">
-      <c r="A32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:5" ht="58.2" customHeight="1">
-      <c r="A33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="C40" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="35"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+    </row>
+    <row r="42" ht="130.5" spans="1:5">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="35"/>
+    </row>
+    <row r="43" ht="159.5" spans="1:5">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="35"/>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+    </row>
+    <row r="56" spans="4:5">
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="53">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="A10:H10"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A1:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Test Case/TestCase_LibraryManagementProject.xlsx
+++ b/Test Case/TestCase_LibraryManagementProject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8110"/>
+    <workbookView windowWidth="19200" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="139">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -124,12 +124,6 @@
 _ Giống bản thiết kế</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
     <t>Tạo tài khoản</t>
   </si>
   <si>
@@ -146,36 +140,134 @@
 _ Giống bản thiết kế</t>
   </si>
   <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tạo tài khoản -
-Kiểm tra ràng buộc </t>
+    <t>Tạo tài khoản -
+Kiểm tra ràng buộc  - Mã độc giả</t>
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login -&gt; Nhấn button "Sign Up"
-4: Đến form SignUp -&gt; Nhập dữ liệu vào textbox "Mã độc giả" -&gt; Nhấn button "SIGN UP"
+4: Đến form SignUp -&gt; Nhập dữ liệu vào TextField "Mã độc giả" -&gt; Nhấn button "SIGN UP"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập ký tự dấu chấm, chữ &amp; 0 &lt; độ dài  &lt;= 20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập ký tự dấu chấm &amp; chữ
 </t>
   </si>
   <si>
     <t>_ Mở được trang chủ
 _ Đến được form SignUp
-_ Không hiện thông báo lỗi</t>
-  </si>
-  <si>
-    <t>TC_04</t>
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập toàn ký tự chữ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập toàn ký tự đặc biệt
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập toàn ký tự số
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập toàn ký tự chữ &amp; số
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập toàn ký tự đặc biệt &amp; chữ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập toàn ký tự đặc biệt &amp; số
+</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập &gt; 20 ký tự</t>
+  </si>
+  <si>
+    <t>Tạo tài khoản -
+Kiểm tra ràng buộc - Họ và tên</t>
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login -&gt; Nhấn button "Sign Up"
-4: Đến form SignUp -&gt; Nhập dữ liệu vào textbox "Họ và Tên" -&gt; Nhấn button "SIGN UP"
-</t>
-  </si>
-  <si>
-    <t>TC_05</t>
+4: Đến form SignUp -&gt; Nhập dữ liệu vào TextField "Họ và Tên" -&gt; Nhấn button "SIGN UP"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập ký tự chữ;
+0 &lt; độ dài &lt;= 45
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập toàn ký tự chữ không dấu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập toàn ký tự chữ có dấu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập toàn ký tự chữ không dấu &amp; có dấu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập ký tự đặc biệt &amp; chữ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập &gt; 45 ký tự
+</t>
+  </si>
+  <si>
+    <t>Tạo tài khoản -
+Kiểm tra ràng buộc  -Giới tính</t>
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
@@ -185,17 +277,14 @@
 </t>
   </si>
   <si>
-    <t>TC_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
-3: Đến form Login -&gt; Nhấn button "Sign Up"
-4: Đến form SignUp -&gt; Chọn / nhập dữ liệu vào date picker "Ngày Sinh " -&gt; Nhấn button "SIGN UP"
-</t>
-  </si>
-  <si>
-    <t>TC_07</t>
+    <t>_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Chỉ được phép chọn 1 trong 2 giới tính nam / nữ</t>
+  </si>
+  <si>
+    <t>Tạo tài khoản -
+Kiểm tra ràng buộc  - Đối tượng</t>
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
@@ -205,49 +294,170 @@
 </t>
   </si>
   <si>
-    <t>TC_08</t>
+    <t>_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Chỉ được phép chọn 1 trong 2 đối tượng sinh viên / giảng viên</t>
+  </si>
+  <si>
+    <t>Tạo tài khoản -
+Kiểm tra ràng buộc - Khoa</t>
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login -&gt; Nhấn button "Sign Up"
-4: Đến form SignUp -&gt; Chọn combobox "Bộ Phận" -&gt; Nhấn button "SIGN UP"
-</t>
-  </si>
-  <si>
-    <t>TC_09</t>
+4: Đến form SignUp -&gt; Chọn combobox "Khoa" -&gt; Nhấn button "SIGN UP"
+</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Chỉ được phép chọn 1 khoa</t>
+  </si>
+  <si>
+    <t>Tạo tài khoản -
+Kiểm tra ràng buộc - Ngày sinh</t>
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login -&gt; Nhấn button "Sign Up"
-4: Đến form SignUp -&gt; Nhập dữ liệu vào textbox "Điện thoại" -&gt; Nhấn button "SIGN UP"
+4: Đến form SignUp -&gt; Nhấn chọn giá trị cho Date Picker "Ngày Sinh " -&gt; Nhấn button "SIGN UP"
 </t>
   </si>
   <si>
     <t>_ Mở được trang chủ
 _ Đến được form SignUp
-_ Không hiện thông báo lỗi
-_ Ràng buộc được đúng số điện thoại</t>
-  </si>
-  <si>
-    <t>TC_10</t>
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Chọn được ngày, tháng, năm mong muốn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập thông tin ngày tháng năm theo đúng định dạng dd/MM/YY
+</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Tạo tài khoản -
+Kiểm tra ràng buộc - Email</t>
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login -&gt; Nhấn button "Sign Up"
-4: Đến form SignUp -&gt; Nhập dữ liệu vào textbox "Email" -&gt; Nhấn button "SIGN UP"
+4: Đến form SignUp -&gt; Nhập dữ liệu vào TextField "Email" -&gt; Nhấn button "SIGN UP"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Ràng buộc được đuôi email là "@ou.edu.vn"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Ràng buộc được đuôi email là "@ou.edu.vn"
+_ Cho phép nhập cả chữ, số &amp;
+0 &lt; độ dài &lt;= 50
 </t>
   </si>
   <si>
     <t>_ Mở được trang chủ
 _ Đến được form SignUp
-_ Không hiện thông báo lỗi
-_ Ràng buộc được đúng địa chỉ email</t>
-  </si>
-  <si>
-    <t>TC_11</t>
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Ràng buộc được đuôi email là "@ou.edu.vn"
+_ Cho phép nhập toàn ký tự chữ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Ràng buộc được đuôi email là "@ou.edu.vn"
+_ Không cho phép độ dài &gt; 50 ký tự
+</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Ràng buộc được đuôi email là "@ou.edu.vn"
+_ Không cho phép nhập toàn số</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Ràng buộc được đuôi email là "@ou.edu.vn"
+_ Không cho phép nhập ký tự đặc biệt trước đuôi "@ou.edu.vn"</t>
+  </si>
+  <si>
+    <t>Tạo tài khoản -
+Kiểm tra ràng buộc - Số điện thoại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login -&gt; Nhấn button "Sign Up"
+4: Đến form SignUp -&gt; Nhập dữ liệu vào TextField "Số điện thoại" -&gt; Nhấn button "SIGN UP"
+</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Ràng buộc được Số điện thoại bắt đầu bằng số 0 &amp; độ dài = 10 ký tự số</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép 0 &lt; độ dài ký tự số</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép độ dài &gt; 10 ký tự số</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép 0 &lt; độ dài &gt;= 10 ký tự số</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập ký tự chữ
+</t>
+  </si>
+  <si>
+    <t>Tạo tài khoản -
+Kiểm tra ràng buộc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login -&gt; Nhấn button "Sign Up"
+4: Đến form SignUp -&gt; Hoàn thành form (Nhập / chọn đúng các mục)-&gt; Nhấn button "SIGN UP"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form SignUp
+_ Hiện thông báo tạo tài khoản thành công &amp; báo password cho người dùng
+_ Nhấn ok sẽ quay lại form Login
+</t>
   </si>
   <si>
     <t>Đăng nhập</t>
@@ -265,11 +475,8 @@
 _ Giống bản thiết kế</t>
   </si>
   <si>
-    <t>TC_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đăng nhập -
-Kiểm tra ràng buộc </t>
+    <t>Đăng nhập -
+Kiểm tra ràng buộc - User Name (Mã độc giả)</t>
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
@@ -280,11 +487,67 @@
   <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login
-_ Không hiện thông báo lỗi
-</t>
-  </si>
-  <si>
-    <t>TC_13</t>
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập ký tự dấu chấm, chữ &amp; 0 &lt; độ dài  &lt;= 20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập ký tự dấu chấm &amp; chữ
+</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập toàn ký tự chữ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập toàn ký tự đặc biệt
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập toàn ký tự số
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập toàn ký tự chữ &amp; số
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập toàn ký tự đặc biệt &amp; chữ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập toàn ký tự đặc biệt &amp; số
+</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập &gt; 20 ký tự</t>
+  </si>
+  <si>
+    <t>Đăng nhập -
+Kiểm tra ràng buộc - Password</t>
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
@@ -293,10 +556,13 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login
+_ Không hiện thông báo lỗi
+</t>
+  </si>
+  <si>
     <t>2. Kiểm tra giao diện người dùng - Sinh viên / Giảng Viên</t>
-  </si>
-  <si>
-    <t>TC_14</t>
   </si>
   <si>
     <t>Mượn sách - Thông
@@ -319,9 +585,6 @@
 </t>
   </si>
   <si>
-    <t>TC_15</t>
-  </si>
-  <si>
     <t>Mượn sách - Thông
 tin khách - Kiểm tra ràng buộc</t>
   </si>
@@ -373,9 +636,6 @@
 3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Chọn / Nhập dữ liệu vào Date Picker "Ngày trả" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
 </t>
-  </si>
-  <si>
-    <t>TC_16</t>
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
@@ -409,28 +669,17 @@
 </t>
   </si>
   <si>
-    <t>TC_17</t>
-  </si>
-  <si>
-    <t>1:   Mở hệ thống "Quản lý thư viện"
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
 3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitledPane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "TÊN SÁCH" trong phần Rectangle "BOOK'S STATE" -&gt; Nhấn Button "KIỂM TRA"</t>
-  </si>
-  <si>
-    <t>TC_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối Tượng"
-3: Nhấn button "Đăng nhập"
-4: Đến form "Login"
-5: Nhập liệu textbox "User Name" &amp; "Password"
-6: Nhấn button "Sign In"
-7: Đến form "Mượn sách"
-8: Nhấn tab "Mượn sách"-&gt; nhấn titledPane "Thông tin khách hàng"
-9: Đến Rectangle "MEMBERCARD 'S STATE" nhập liệu textbox "MÃ ĐỘC GIẢ" 
-10: Nhấn button "KIỂM TRA"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitledPane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "TÊN SÁCH" trong phần Rectangle "BOOK'S STATE" -&gt; Nhấn Button "KIỂM TRA"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitledPane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "MÃ ĐỘC GIẢ" trong phần Rectangle "MEMBERCARD 'S STATE" -&gt; Nhấn Button "KIỂM TRA"
 </t>
   </si>
   <si>
@@ -442,21 +691,14 @@
 </t>
   </si>
   <si>
-    <t>TC_19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trả sách </t>
   </si>
   <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối Tượng"
-3: Nhấn button "Đăng nhập"
-4: Đến form "Login"
-5: Nhập liệu textbox "User Name" &amp; "Password"
-6: Nhấn button "Sign In"
-7: Đến form "Mượn trả sách"
-8: Nhấn tab "Trả sách"
-9: Kiểm tra các thành phần có giống với thiết kế
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách"
+5:   Kiểm tra các thành phần có giống với thiết kế
 </t>
   </si>
   <si>
@@ -468,23 +710,17 @@
 </t>
   </si>
   <si>
-    <t>TC_20</t>
+    <t>Spinner "RÁCH, HƯ HỎNG" &amp; "MẤT" bị lỗi không thấy số lượng
+-&gt; ĐÃ SỬA</t>
   </si>
   <si>
     <t>Trả sách - Kiểm tra ràng buộc</t>
   </si>
   <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối Tượng"
-3: Nhấn button "Đăng nhập"
-4: Đến form "Login"
-5: Nhập liệu textbox "User Name" &amp; "Password"
-6: Nhấn button "Sign In"
-7: Đến form "Mượn trả sách"
-8: Nhấn tab "Trả sách"
-9: Nhập liệu textbox "HỌ VÀ TÊN" &amp; "MÃ ĐỘC GIẢ"
-10: Đến rectangle "BOOK'S STATE BEFORE RETURN", chọn spinner "RÁCH, HƯ HỎNG", "MẤT"
-11: Nhấn button "XÁC NHẬN"
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Nhập dữ liệu vào TextBox "HỌ VÀ TÊN" -&gt; Nhấn Button "XÁC NHẬN"
 </t>
   </si>
   <si>
@@ -495,20 +731,10 @@
 _ Hiện thông báo trả sách thành công</t>
   </si>
   <si>
-    <t>TC_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối Tượng"
-3: Nhấn button "Đăng nhập"
-4: Đến form "Login"
-5: Nhập liệu textbox "User Name" &amp; "Password"
-6: Nhấn button "Sign In"
-7: Đến form "Mượn trả sách"
-8: Nhấn tab "Trả sách"
-9: Nhập liệu textbox "HỌ VÀ TÊN" &amp; "MÃ ĐỘC GIẢ"
-10: Đến rectangle "BOOK'S STATE BEFORE RETURN", chọn spinner "RÁCH, HƯ HỎNG", "MẤT"
-11: Nhấn button "XEM HÓA ĐƠN"
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Nhập dữ liệu vào TextBox "MÃ ĐỘC GIẢ" -&gt; Nhấn Button "XÁC NHẬN"
 </t>
   </si>
   <si>
@@ -519,10 +745,58 @@
 _ Hiện đầy đủ thông tin khách hàng &amp; tính đúng số tiền phạt (nếu có) trong phần RETURN BILL</t>
   </si>
   <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Chọn / nhập dữ liệu vào Date Picker "Ngày mượn" -&gt; Nhấn Button "XÁC NHẬN"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Nhấn tăng Spinner "Số lượng sách" -&gt; Nhấn Button "XÁC NHẬN"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Nhấn giảm Spinner "Số lượng sách" -&gt; Nhấn Button "XÁC NHẬN"
+</t>
+  </si>
+  <si>
+    <t>1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", tăng Spinner "RÁCH, HƯ HỎNG" -&gt; Nhấn Button "XÁC NHẬN"</t>
+  </si>
+  <si>
+    <t>1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", giảm Spinner "RÁCH, HƯ HỎNG" -&gt; Nhấn Button "XÁC NHẬN"</t>
+  </si>
+  <si>
+    <t>1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", tăng Spinner "MẤT" -&gt; Nhấn Button "XÁC NHẬN"</t>
+  </si>
+  <si>
+    <t>1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", giảm Spinner "MẤT" -&gt; Nhấn Button "XÁC NHẬN"</t>
+  </si>
+  <si>
+    <t>1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", tăng / giảm Spinner "RÁCH, HƯ HỎNG" &amp; "MẤT" -&gt; Nhấn Button "XÁC NHẬN"</t>
+  </si>
+  <si>
     <t>3. Kiểm tra giao diện người dùng - Thủ thư</t>
-  </si>
-  <si>
-    <t>TC_22</t>
   </si>
   <si>
     <t>Thống kê sách</t>
@@ -543,18 +817,13 @@
 _ Giống bản thiết kế</t>
   </si>
   <si>
-    <t>TC_23</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Thống kê sách - Kiểm tra ràng buộc</t>
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
 3: Đến form "Login" -&gt; Nhập textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
-4: Đến form "THỐNG KÊ SÁCH TRONG NĂM 2020"
-5: Nhấn radiobutton "QUÝ (1, 2, 3, 4)" hoặc "NĂM"
-6: Nhấn button "KIỂM TRA"
+4: Đến form "THỐNG KÊ SÁCH TRONG NĂM 2020" -&gt; Nhấn RadioButton "QUÝ (1/ 2/ 3/ 4)" hoặc "NĂM" -&gt; Nhấn button "KIỂM TRA"
 </t>
   </si>
   <si>
@@ -563,6 +832,20 @@
 _ Đăng nhập thành công
 _ Đến được form THỐNG KÊ SÁCH TRONG NĂM
 _ Trả về kết quả thống kê
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
+3: Đến form "Login" -&gt; Nhập textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4: Đến form "THỐNG KÊ SÁCH TRONG NĂM 2020" -&gt; Nhấn RadioButton "QUÝ (1/ 2/ 3/ 4)" -&gt; Nhấn button "KIỂM TRA"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
+3: Đến form "Login" -&gt; Nhập textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+4: Đến form "THỐNG KÊ SÁCH TRONG NĂM 2020" -&gt; Nhấn RadioButton "NĂM" -&gt; Nhấn button "KIỂM TRA"
 </t>
   </si>
 </sst>
@@ -571,11 +854,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -626,6 +909,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -634,7 +925,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,8 +962,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -665,7 +1015,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -674,21 +1024,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,7 +1032,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,68 +1054,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -787,7 +1070,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -814,7 +1097,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,13 +1223,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,163 +1265,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,80 +1422,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,8 +1444,82 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1251,183 +1528,186 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1435,6 +1715,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1445,7 +1728,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1454,58 +1737,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1827,632 +2098,952 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:E35"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.1090909090909" customWidth="1"/>
-    <col min="2" max="2" width="17.2181818181818" customWidth="1"/>
-    <col min="3" max="3" width="61.1636363636364" customWidth="1"/>
-    <col min="4" max="4" width="11.2181818181818" customWidth="1"/>
-    <col min="5" max="5" width="15.4454545454545" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.5454545454545" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.2181818181818" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.6090909090909" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.1090909090909" customWidth="1"/>
-    <col min="8" max="8" width="11.3363636363636" customWidth="1"/>
+    <col min="7" max="7" width="12.8545454545455" customWidth="1"/>
+    <col min="8" max="8" width="24.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" ht="28.05" customHeight="1" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12">
-        <f>COUNTIF(I12:I65,"Pass")</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="13">
+        <f>COUNTIF(G11:G112,"Pass")</f>
+        <v>12</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13">
-        <f>COUNTIF(I10:I787,"Pending")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A7" s="14" t="s">
+      <c r="D6" s="15">
+        <f>COUNTIF(G11:G112,"Pending")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="15">
-        <f>COUNTIF(I12:I65,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="17">
+        <f>COUNTIF(G11:G112,"Fail")</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17">
-        <f>COUNTA(A10:A65)-3</f>
+      <c r="D7" s="19">
+        <f>COUNTA(A10:A112)-3</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="9" ht="37.95" customHeight="1" spans="1:9">
+      <c r="A9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" ht="43.5" spans="1:4">
+      <c r="A11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="101.5" spans="1:4">
+      <c r="A12" s="25"/>
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" ht="37.95" customHeight="1" spans="1:9">
-      <c r="A9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="36"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" ht="43.5" spans="1:7">
-      <c r="A11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" ht="101.5" spans="1:5">
-      <c r="A12" s="21" t="s">
+      <c r="C12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="22" t="s">
+    </row>
+    <row r="13" ht="98" customHeight="1" spans="1:6">
+      <c r="A13" s="27"/>
+      <c r="B13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="C13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" ht="101.5" spans="1:6">
-      <c r="A13" t="s">
+      <c r="D13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" ht="98" customHeight="1" spans="1:6">
+      <c r="A14" s="27"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" ht="87" customHeight="1" spans="1:6">
+      <c r="A15" s="27"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" ht="102" customHeight="1" spans="1:6">
+      <c r="A16" s="27"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" ht="101.5" spans="1:6">
-      <c r="A14" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" ht="102" customHeight="1" spans="1:6">
+      <c r="A17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="22" t="s">
+      <c r="E17" s="26"/>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" ht="102" customHeight="1" spans="1:6">
+      <c r="A18" s="27"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" ht="101.5" spans="1:6">
-      <c r="A15" t="s">
+      <c r="E18" s="26"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" ht="102" customHeight="1" spans="1:6">
+      <c r="A19" s="27"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" ht="102" customHeight="1" spans="1:6">
+      <c r="A20" s="27"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" ht="116" spans="1:6">
-      <c r="A16" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" ht="102" customHeight="1" spans="1:6">
+      <c r="A21" s="27"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="25" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" ht="101" customHeight="1" spans="1:6">
+      <c r="A22" s="27"/>
+      <c r="B22" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" ht="101.5" spans="1:6">
-      <c r="A17" t="s">
+      <c r="C22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="25" t="s">
+      <c r="D22" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" ht="101.5" spans="1:6">
-      <c r="A18" t="s">
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" ht="92" customHeight="1" spans="1:7">
+      <c r="A23" s="27"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" ht="101.5" spans="1:6">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" ht="101.5" spans="1:6">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21" ht="87" spans="1:5">
-      <c r="A21" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" ht="87" spans="1:5">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" ht="87" spans="1:5">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="26" t="s">
-        <v>58</v>
-      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="28"/>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" ht="92" customHeight="1" spans="1:7">
+      <c r="A24" s="27"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="D24" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" ht="144" customHeight="1" spans="1:5">
-      <c r="A25" s="21" t="s">
+      <c r="F24" s="28"/>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" ht="102" customHeight="1" spans="1:7">
+      <c r="A25" s="27"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="28"/>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" ht="100" customHeight="1" spans="1:7">
+      <c r="A26" s="27"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="28"/>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" ht="99" customHeight="1" spans="1:7">
+      <c r="A27" s="27"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="28"/>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" ht="99" customHeight="1" spans="1:7">
+      <c r="A28" s="27"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="28"/>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" ht="97" customHeight="1" spans="1:7">
+      <c r="A29" s="27"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="28"/>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" ht="95" customHeight="1" spans="1:7">
+      <c r="A30" s="27"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="28"/>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" ht="88" customHeight="1" spans="1:6">
+      <c r="A31" s="27"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" ht="105" customHeight="1" spans="1:7">
+      <c r="A32" s="27"/>
+      <c r="B32" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" ht="101.5" spans="1:8">
+      <c r="A33" s="27"/>
+      <c r="B33" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="30"/>
+    </row>
+    <row r="34" ht="101.5" spans="1:7">
+      <c r="A34" s="27"/>
+      <c r="B34" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" ht="101.5" spans="1:7">
+      <c r="A35" s="27"/>
+      <c r="B35" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" ht="112" customHeight="1" spans="1:7">
+      <c r="A36" s="27"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="28"/>
+      <c r="G36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" ht="98" customHeight="1" spans="2:7">
+      <c r="B37" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="C37" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="D37" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="F37" s="28"/>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" ht="128" customHeight="1" spans="2:6">
+      <c r="B38" s="26"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" ht="180" customHeight="1" spans="1:5">
-      <c r="A26" s="27" t="s">
+      <c r="E38" s="26"/>
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" ht="117" customHeight="1" spans="2:6">
+      <c r="B39" s="26"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="E39" s="26"/>
+      <c r="F39" s="28"/>
+    </row>
+    <row r="40" ht="117" customHeight="1" spans="2:6">
+      <c r="B40" s="26"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="E40" s="26"/>
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" ht="117" customHeight="1" spans="2:6">
+      <c r="B41" s="26"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" ht="230.4" customHeight="1" spans="3:5">
-      <c r="C27" s="29" t="s">
+      <c r="E41" s="26"/>
+      <c r="F41" s="28"/>
+    </row>
+    <row r="42" ht="129" customHeight="1" spans="2:7">
+      <c r="B42" s="26"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-    </row>
-    <row r="28" ht="164.4" customHeight="1" spans="3:5">
-      <c r="C28" s="29" t="s">
+      <c r="E42" s="26"/>
+      <c r="F42" s="28"/>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" ht="110" customHeight="1" spans="2:6">
+      <c r="B43" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-    </row>
-    <row r="29" ht="145" spans="3:5">
-      <c r="C29" s="29" t="s">
+      <c r="C43" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-    </row>
-    <row r="30" ht="145" spans="3:5">
-      <c r="C30" s="29" t="s">
+      <c r="D43" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-    </row>
-    <row r="31" ht="116" spans="3:5">
-      <c r="C31" s="29" t="s">
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" ht="100" customHeight="1" spans="2:6">
+      <c r="B44" s="26"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-    </row>
-    <row r="32" ht="145" spans="3:5">
-      <c r="C32" s="29" t="s">
+      <c r="F44" s="28"/>
+    </row>
+    <row r="45" ht="98" customHeight="1" spans="2:6">
+      <c r="B45" s="26"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-    </row>
-    <row r="33" ht="192" customHeight="1" spans="1:5">
-      <c r="A33" t="s">
+      <c r="E45" s="26"/>
+      <c r="F45" s="28"/>
+    </row>
+    <row r="46" ht="98" customHeight="1" spans="2:6">
+      <c r="B46" s="26"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="22" t="s">
+      <c r="E46" s="26"/>
+      <c r="F46" s="28"/>
+    </row>
+    <row r="47" ht="87" customHeight="1" spans="2:6">
+      <c r="B47" s="26"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="E47" s="26"/>
+      <c r="F47" s="28"/>
+    </row>
+    <row r="48" ht="100" customHeight="1" spans="2:6">
+      <c r="B48" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="24"/>
-    </row>
-    <row r="34" ht="174" spans="1:5">
-      <c r="A34" s="27"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22" t="s">
+      <c r="C48" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-    </row>
-    <row r="35" ht="168" customHeight="1" spans="1:5">
-      <c r="A35" s="27"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22" t="s">
+      <c r="D48" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-    </row>
-    <row r="36" ht="101.5" spans="1:5">
-      <c r="A36" s="31" t="s">
+      <c r="E48" s="26"/>
+      <c r="F48" s="28"/>
+    </row>
+    <row r="49" ht="87" spans="1:5">
+      <c r="A49" s="25"/>
+      <c r="B49" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="32" t="s">
+      <c r="C49" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="34"/>
-    </row>
-    <row r="37" ht="174" spans="1:5">
-      <c r="A37" t="s">
+      <c r="D49" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="22" t="s">
+      <c r="E49" s="26"/>
+    </row>
+    <row r="50" ht="100" customHeight="1" spans="2:4">
+      <c r="B50" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="C50" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="24"/>
-    </row>
-    <row r="38" ht="159" customHeight="1" spans="1:5">
-      <c r="A38" t="s">
+      <c r="D50" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="22" t="s">
+    </row>
+    <row r="51" ht="99" customHeight="1" spans="2:4">
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="22" t="s">
+    </row>
+    <row r="52" ht="82" customHeight="1" spans="2:5">
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="E52" s="26"/>
+    </row>
+    <row r="53" ht="102" customHeight="1" spans="2:5">
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="24"/>
-    </row>
-    <row r="39" ht="217.5" spans="1:5">
-      <c r="A39" t="s">
+      <c r="E53" s="26"/>
+    </row>
+    <row r="54" ht="101" customHeight="1" spans="2:5">
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="E54" s="26"/>
+    </row>
+    <row r="55" ht="101" customHeight="1" spans="2:5">
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="E55" s="26"/>
+    </row>
+    <row r="56" ht="99" customHeight="1" spans="2:5">
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="E56" s="26"/>
+    </row>
+    <row r="57" ht="105" customHeight="1" spans="2:5">
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="35"/>
-    </row>
-    <row r="40" ht="217.5" spans="1:5">
-      <c r="A40" t="s">
+      <c r="E57" s="26"/>
+    </row>
+    <row r="58" ht="80" customHeight="1" spans="2:5">
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="22" t="s">
+      <c r="E58" s="26"/>
+    </row>
+    <row r="59" ht="87" spans="2:4">
+      <c r="B59" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="C59" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="35"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="26" t="s">
+      <c r="D59" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-    </row>
-    <row r="42" ht="130.5" spans="1:5">
-      <c r="A42" t="s">
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+    </row>
+    <row r="61" ht="114" customHeight="1" spans="1:4">
+      <c r="A61" s="25"/>
+      <c r="B61" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C61" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D61" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="E42" s="35"/>
-    </row>
-    <row r="43" ht="159.5" spans="1:5">
-      <c r="A43" t="s">
+    </row>
+    <row r="62" ht="120" customHeight="1" spans="1:5">
+      <c r="A62" s="27"/>
+      <c r="B62" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="C62" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+    </row>
+    <row r="63" ht="129" customHeight="1" spans="3:3">
+      <c r="C63" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="22" t="s">
+    </row>
+    <row r="64" ht="116" customHeight="1" spans="3:3">
+      <c r="C64" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="35"/>
-    </row>
-    <row r="44" spans="4:5">
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-    </row>
-    <row r="45" spans="4:5">
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-    </row>
-    <row r="46" spans="4:5">
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-    </row>
-    <row r="47" spans="4:5">
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-    </row>
-    <row r="48" spans="4:5">
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-    </row>
-    <row r="49" spans="4:5">
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-    </row>
-    <row r="50" spans="4:5">
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-    </row>
-    <row r="51" spans="4:5">
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-    </row>
-    <row r="52" spans="4:5">
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-    </row>
-    <row r="53" spans="4:5">
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-    </row>
-    <row r="54" spans="4:5">
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-    </row>
-    <row r="55" spans="4:5">
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-    </row>
-    <row r="56" spans="4:5">
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-    </row>
-    <row r="57" spans="4:5">
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
+    </row>
+    <row r="65" ht="120" customHeight="1" spans="3:3">
+      <c r="C65" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" ht="145" spans="3:3">
+      <c r="C66" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" ht="159.5" spans="3:3">
+      <c r="C67" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" ht="159.5" spans="3:3">
+      <c r="C68" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" ht="167" customHeight="1" spans="2:4">
+      <c r="B69" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" ht="167" customHeight="1" spans="1:5">
+      <c r="A70" s="27"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+    </row>
+    <row r="71" ht="168" customHeight="1" spans="1:5">
+      <c r="A71" s="27"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+    </row>
+    <row r="72" ht="123" customHeight="1" spans="1:5">
+      <c r="A72" s="27"/>
+      <c r="B72" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="34"/>
+    </row>
+    <row r="73" ht="145" spans="2:4">
+      <c r="B73" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" ht="104" customHeight="1" spans="1:8">
+      <c r="A74" s="25"/>
+      <c r="B74" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G74" t="s">
+        <v>58</v>
+      </c>
+      <c r="H74" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" ht="130.5" spans="2:4">
+      <c r="B75" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" ht="145" spans="2:4">
+      <c r="B76" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" ht="130.5" spans="2:5">
+      <c r="B77" s="26"/>
+      <c r="C77" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+    </row>
+    <row r="78" ht="130.5" spans="2:5">
+      <c r="B78" s="26"/>
+      <c r="C78" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+    </row>
+    <row r="79" ht="130.5" spans="2:5">
+      <c r="B79" s="26"/>
+      <c r="C79" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+    </row>
+    <row r="80" ht="130.5" spans="2:5">
+      <c r="B80" s="26"/>
+      <c r="C80" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+    </row>
+    <row r="81" ht="130.5" spans="2:5">
+      <c r="B81" s="26"/>
+      <c r="C81" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+    </row>
+    <row r="82" ht="116" spans="2:5">
+      <c r="B82" s="26"/>
+      <c r="C82" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+    </row>
+    <row r="83" ht="116" spans="2:5">
+      <c r="B83" s="26"/>
+      <c r="C83" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+    </row>
+    <row r="84" ht="130.5" spans="2:5">
+      <c r="B84" s="26"/>
+      <c r="C84" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+    </row>
+    <row r="86" ht="116" spans="2:4">
+      <c r="B86" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" ht="130.5" spans="2:4">
+      <c r="B87" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" ht="130.5" spans="3:3">
+      <c r="C88" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" ht="116" spans="3:3">
+      <c r="C89" s="26" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="108">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
@@ -2471,7 +3062,7 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
@@ -2488,7 +3079,7 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
@@ -2505,8 +3096,68 @@
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="C50:C58"/>
     <mergeCell ref="A1:D2"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11 G14 G15 G16 G21 G22 G23 G24 G25 G32 G35 G36 G37 G38 G39 G40 G41 G42 G43 G46 G47 G48 G59 G65 G69 G70 G71 G72 G73 G74 G75 G76 G79 G83 G84 G86 G87 G12:G13 G17:G18 G19:G20 G26:G31 G33:G34 G44:G45 G49:G50 G51:G58 G61:G64 G66:G68 G77:G78 G80:G82">
+      <formula1>"Pass,Fail,Pending"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Test Case/TestCase_LibraryManagementProject.xlsx
+++ b/Test Case/TestCase_LibraryManagementProject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="149">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -129,7 +129,7 @@
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
-3: Đến form Login -&gt; Nhấn button "Sign Up"
+3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
 3: Đến form SignUp
 4: Kiểm tra các thành phần có giống với thiết kế
 </t>
@@ -146,8 +146,8 @@
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
-3: Đến form Login -&gt; Nhấn button "Sign Up"
-4: Đến form SignUp -&gt; Nhập dữ liệu vào TextField "Mã độc giả" -&gt; Nhấn button "SIGN UP"
+3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
+4: Đến form SignUp -&gt; Nhập dữ liệu vào TextField "Mã độc giả" -&gt; Nhấn button "ĐĂNG KÍ"
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
     <t>_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
-_ Không cho phép nhập &gt; 20 ký tự</t>
+_ Không cho phép nhập &gt; 20 ký tự hay bỏ trống</t>
   </si>
   <si>
     <t>Tạo tài khoản -
@@ -218,8 +218,8 @@
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
-3: Đến form Login -&gt; Nhấn button "Sign Up"
-4: Đến form SignUp -&gt; Nhập dữ liệu vào TextField "Họ và Tên" -&gt; Nhấn button "SIGN UP"
+3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
+4: Đến form SignUp -&gt; Nhập dữ liệu vào TextField "Họ và Tên" -&gt; Nhấn button "ĐĂNG KÍ"
 </t>
   </si>
   <si>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
-_ Không cho phép nhập &gt; 45 ký tự
+_ Không cho phép nhập &gt; 45 ký tự hay bỏ trống
 </t>
   </si>
   <si>
@@ -272,8 +272,8 @@
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
-3: Đến form Login -&gt; Nhấn button "Sign Up"
-4: Đến form SignUp -&gt; Chọn combobox "Giới tính" -&gt; Nhấn button "SIGN UP"
+3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
+4: Đến form SignUp -&gt; Chọn combobox "Giới tính" -&gt; Nhấn button "ĐĂNG KÍ"
 </t>
   </si>
   <si>
@@ -289,8 +289,8 @@
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
-3: Đến form Login -&gt; Nhấn button "Sign Up"
-4: Đến form SignUp -&gt; Chọn combobox "Đối Tượng" -&gt; Nhấn button "SIGN UP"
+3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
+4: Đến form SignUp -&gt; Chọn combobox "Đối Tượng" -&gt; Nhấn button "ĐĂNG KÍ"
 </t>
   </si>
   <si>
@@ -306,8 +306,8 @@
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
-3: Đến form Login -&gt; Nhấn button "Sign Up"
-4: Đến form SignUp -&gt; Chọn combobox "Khoa" -&gt; Nhấn button "SIGN UP"
+3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
+4: Đến form SignUp -&gt; Chọn combobox "Khoa" -&gt; Nhấn button "ĐĂNG KÍ"
 </t>
   </si>
   <si>
@@ -323,8 +323,8 @@
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
-3: Đến form Login -&gt; Nhấn button "Sign Up"
-4: Đến form SignUp -&gt; Nhấn chọn giá trị cho Date Picker "Ngày Sinh " -&gt; Nhấn button "SIGN UP"
+3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
+4: Đến form SignUp -&gt; Nhấn chọn giá trị cho Date Picker "Ngày Sinh " -&gt; Nhấn button "ĐĂNG KÍ"
 </t>
   </si>
   <si>
@@ -350,8 +350,8 @@
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
-3: Đến form Login -&gt; Nhấn button "Sign Up"
-4: Đến form SignUp -&gt; Nhập dữ liệu vào TextField "Email" -&gt; Nhấn button "SIGN UP"
+3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
+4: Đến form SignUp -&gt; Nhập dữ liệu vào TextField "Email" -&gt; Nhấn button "ĐĂNG KÍ"
 </t>
   </si>
   <si>
@@ -382,7 +382,7 @@
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Ràng buộc được đuôi email là "@ou.edu.vn"
-_ Không cho phép độ dài &gt; 50 ký tự
+_ Không cho phép độ dài &gt; 50 ký tự hay bỏ trống
 </t>
   </si>
   <si>
@@ -406,8 +406,8 @@
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
-3: Đến form Login -&gt; Nhấn button "Sign Up"
-4: Đến form SignUp -&gt; Nhập dữ liệu vào TextField "Số điện thoại" -&gt; Nhấn button "SIGN UP"
+3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
+4: Đến form SignUp -&gt; Nhập dữ liệu vào TextField "Số điện thoại" -&gt; Nhấn button "ĐĂNG KÍ"
 </t>
   </si>
   <si>
@@ -448,8 +448,8 @@
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
-3: Đến form Login -&gt; Nhấn button "Sign Up"
-4: Đến form SignUp -&gt; Hoàn thành form (Nhập / chọn đúng các mục)-&gt; Nhấn button "SIGN UP"
+3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
+4: Đến form SignUp -&gt; Hoàn thành form (Nhập / chọn đúng các mục)-&gt; Nhấn button "ĐĂNG KÍ"
 </t>
   </si>
   <si>
@@ -481,7 +481,7 @@
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
-3: Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" -&gt; Nhấn button "Sign In"
+3: Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" -&gt; Nhấn button "ĐĂNG NHẬP"
 </t>
   </si>
   <si>
@@ -552,14 +552,76 @@
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
-3: Đến form Login -&gt; Nhập dữ liệu vào textbox "Password" -&gt; Nhấn button "Sign In"
+3: Đến form Login -&gt; Nhập dữ liệu vào TextField "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 </t>
   </si>
   <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login
-_ Không hiện thông báo lỗi
-</t>
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Nhập đúng Password mà hệ thống cấp  &amp; 0 &lt; độ dài &lt;= 5
+</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_  Không cho nhập 0 &gt; độ dài &gt; 5 hay bỏ trống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập cả ký tự chữ &amp; số
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập toàn ký tự chữ
+</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập toàn ký tự số</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập toàn ký tự đặc biệt
+</t>
+  </si>
+  <si>
+    <t>Đăng nhập -
+Kiểm tra ràng buộc -
+Tài khoản Sinh viên / Giảng viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
+2: Chọn combobox "Đối tượng" là Sinh viên / Giảng viên -&gt; Nhấn button "Đăng nhập"
+3: Đến form Login -&gt; Nhập dữ liệu đầy đủ vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login
+_ Nhập đúng các thông tin -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors</t>
+  </si>
+  <si>
+    <t>Đăng nhập -
+Kiểm tra ràng buộc -
+Tài khoản Thủ thư</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login
+_ Nhập đúng các thông tin -&gt; Đăng nhập thành công
+_ Đến được form Statistic</t>
   </si>
   <si>
     <t>2. Kiểm tra giao diện người dùng - Sinh viên / Giảng Viên</t>
@@ -571,7 +633,7 @@
   <si>
     <t xml:space="preserve">1:  Mở hệ thống "Quản lý thư viện"
 2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors
 5:   Kiểm tra các thành phần có giống với thiết kế
 </t>
@@ -591,56 +653,56 @@
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "Họ và tên" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
 </t>
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "Mã độc giả" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
 </t>
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "Số điện thoại" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
 </t>
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Chọn ComboBox "Đối tượng" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
 </t>
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt;  Nhấn tăng Spinner "Số lượng sách" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
 </t>
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Chọn / Nhập dữ liệu vào Date Picker "Ngày mượn" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
 </t>
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Chọn / Nhập dữ liệu vào Date Picker "Ngày trả" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
 </t>
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "Họ và tên", "Mã độc giả", "Số điện thoại". Chọn ComboBox "Đối tượng", tăng Spinner "Số lượng sách". Chọn / Nhập dữ liệu vào Date Picker "Ngày mượn" &amp; "Ngày trả" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
 </t>
   </si>
@@ -655,7 +717,7 @@
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "Họ và tên", "Mã độc giả", "Số điện thoại". Chọn ComboBox "Đối tượng", tăng Spinner "Số lượng sách". Chọn / Nhập dữ liệu vào Date Picker "Ngày mượn" &amp; "Ngày trả"
 5:   Nhấn TitledPane "Thông tin sách" - &gt; Nhập dữ liệu vào TextBox "Nhập mã sách" -&gt; Nhấn Button "Xác nhận"
 </t>
@@ -663,7 +725,7 @@
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitledPane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "Họ và tên", "Mã độc giả", "Số điện thoại". Chọn ComboBox "Đối tượng", tăng Spinner "Số lượng sách". Chọn / Nhập dữ liệu vào Date Picker "Ngày mượn" &amp; "Ngày trả"
 5:   Nhấn TitledPane "Thông tin sách" - &gt; Nhập dữ liệu vào TextBox "Nhập mã sách" -&gt; Nhấn Button "Xác nhận" - &gt; Nhấn Button "Cập nhật"
 </t>
@@ -671,14 +733,14 @@
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitledPane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "TÊN SÁCH" trong phần Rectangle "BOOK'S STATE" -&gt; Nhấn Button "KIỂM TRA"
 </t>
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitledPane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "MÃ ĐỘC GIẢ" trong phần Rectangle "MEMBERCARD 'S STATE" -&gt; Nhấn Button "KIỂM TRA"
 </t>
   </si>
@@ -696,7 +758,7 @@
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách"
 5:   Kiểm tra các thành phần có giống với thiết kế
 </t>
@@ -719,7 +781,7 @@
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Nhập dữ liệu vào TextBox "HỌ VÀ TÊN" -&gt; Nhấn Button "XÁC NHẬN"
 </t>
   </si>
@@ -733,7 +795,7 @@
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Nhập dữ liệu vào TextBox "MÃ ĐỘC GIẢ" -&gt; Nhấn Button "XÁC NHẬN"
 </t>
   </si>
@@ -747,52 +809,52 @@
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Chọn / nhập dữ liệu vào Date Picker "Ngày mượn" -&gt; Nhấn Button "XÁC NHẬN"
 </t>
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Nhấn tăng Spinner "Số lượng sách" -&gt; Nhấn Button "XÁC NHẬN"
 </t>
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Nhấn giảm Spinner "Số lượng sách" -&gt; Nhấn Button "XÁC NHẬN"
 </t>
   </si>
   <si>
     <t>1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", tăng Spinner "RÁCH, HƯ HỎNG" -&gt; Nhấn Button "XÁC NHẬN"</t>
   </si>
   <si>
     <t>1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", giảm Spinner "RÁCH, HƯ HỎNG" -&gt; Nhấn Button "XÁC NHẬN"</t>
   </si>
   <si>
     <t>1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", tăng Spinner "MẤT" -&gt; Nhấn Button "XÁC NHẬN"</t>
   </si>
   <si>
     <t>1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", giảm Spinner "MẤT" -&gt; Nhấn Button "XÁC NHẬN"</t>
   </si>
   <si>
     <t>1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", tăng / giảm Spinner "RÁCH, HƯ HỎNG" &amp; "MẤT" -&gt; Nhấn Button "XÁC NHẬN"</t>
   </si>
   <si>
@@ -804,7 +866,7 @@
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
-3: Đến form "Login" -&gt; Nhập textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3: Đến form "Login" -&gt; Nhập textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4: Đến form "THỐNG KÊ SÁCH TRONG NĂM 2020"
 5: Kiểm tra các thành phần có giống với thiết kế
 </t>
@@ -822,7 +884,7 @@
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
-3: Đến form "Login" -&gt; Nhập textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3: Đến form "Login" -&gt; Nhập textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4: Đến form "THỐNG KÊ SÁCH TRONG NĂM 2020" -&gt; Nhấn RadioButton "QUÝ (1/ 2/ 3/ 4)" hoặc "NĂM" -&gt; Nhấn button "KIỂM TRA"
 </t>
   </si>
@@ -837,14 +899,14 @@
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
-3: Đến form "Login" -&gt; Nhập textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3: Đến form "Login" -&gt; Nhập textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4: Đến form "THỐNG KÊ SÁCH TRONG NĂM 2020" -&gt; Nhấn RadioButton "QUÝ (1/ 2/ 3/ 4)" -&gt; Nhấn button "KIỂM TRA"
 </t>
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn combobox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
-3: Đến form "Login" -&gt; Nhập textbox "User Name" &amp; "Password" -&gt; Nhấn button "Sign In"
+3: Đến form "Login" -&gt; Nhập textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4: Đến form "THỐNG KÊ SÁCH TRONG NĂM 2020" -&gt; Nhấn RadioButton "NĂM" -&gt; Nhấn button "KIỂM TRA"
 </t>
   </si>
@@ -855,10 +917,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -909,14 +971,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -925,7 +979,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -948,22 +1009,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -977,6 +1031,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -984,17 +1053,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1006,19 +1077,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1046,19 +1121,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
@@ -1097,7 +1159,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,7 +1171,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,49 +1285,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,7 +1309,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,97 +1339,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,6 +1484,71 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1454,72 +1581,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1528,15 +1590,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1546,135 +1608,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1765,9 +1827,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -2098,10 +2157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
@@ -2165,14 +2224,14 @@
         <v>7</v>
       </c>
       <c r="B6" s="13">
-        <f>COUNTIF(G11:G112,"Pass")</f>
+        <f>COUNTIF(G11:G121,"Pass")</f>
         <v>12</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="15">
-        <f>COUNTIF(G11:G112,"Pending")</f>
+        <f>COUNTIF(G11:G121,"Pending")</f>
         <v>2</v>
       </c>
     </row>
@@ -2181,14 +2240,14 @@
         <v>9</v>
       </c>
       <c r="B7" s="17">
-        <f>COUNTIF(G11:G112,"Fail")</f>
+        <f>COUNTIF(G11:G121,"Fail")</f>
         <v>2</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="19">
-        <f>COUNTA(A10:A112)-3</f>
+        <f>COUNTA(A10:A121)-3</f>
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
@@ -2216,7 +2275,7 @@
       <c r="H9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="32"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="23" t="s">
@@ -2717,7 +2776,7 @@
       </c>
       <c r="E52" s="26"/>
     </row>
-    <row r="53" ht="102" customHeight="1" spans="2:5">
+    <row r="53" ht="97" customHeight="1" spans="2:5">
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26" t="s">
@@ -2765,8 +2824,8 @@
       </c>
       <c r="E58" s="26"/>
     </row>
-    <row r="59" ht="87" spans="2:4">
-      <c r="B59" s="31" t="s">
+    <row r="59" ht="98" customHeight="1" spans="2:4">
+      <c r="B59" s="26" t="s">
         <v>91</v>
       </c>
       <c r="C59" s="26" t="s">
@@ -2776,274 +2835,353 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="23" t="s">
+    <row r="60" ht="98" customHeight="1" spans="2:5">
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-    </row>
-    <row r="61" ht="114" customHeight="1" spans="1:4">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26" t="s">
+      <c r="E60" s="26"/>
+    </row>
+    <row r="61" ht="98" customHeight="1" spans="2:5">
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="E61" s="26"/>
+    </row>
+    <row r="62" ht="98" customHeight="1" spans="2:5">
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="E62" s="26"/>
+    </row>
+    <row r="63" ht="98" customHeight="1" spans="2:5">
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="62" ht="120" customHeight="1" spans="1:5">
-      <c r="A62" s="27"/>
-      <c r="B62" s="26" t="s">
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" ht="98" customHeight="1" spans="2:5">
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="26"/>
+    </row>
+    <row r="65" ht="98" customHeight="1" spans="2:5">
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="26"/>
+    </row>
+    <row r="66" ht="98" customHeight="1" spans="2:4">
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="26" t="s">
+    </row>
+    <row r="67" ht="98" customHeight="1" spans="2:5">
+      <c r="B67" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-    </row>
-    <row r="63" ht="129" customHeight="1" spans="3:3">
-      <c r="C63" s="26" t="s">
+      <c r="C67" s="26" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="64" ht="116" customHeight="1" spans="3:3">
-      <c r="C64" s="26" t="s">
+      <c r="D67" s="26" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="65" ht="120" customHeight="1" spans="3:3">
-      <c r="C65" s="26" t="s">
+      <c r="E67" s="26"/>
+    </row>
+    <row r="68" ht="98" customHeight="1" spans="2:5">
+      <c r="B68" s="26" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="66" ht="145" spans="3:3">
-      <c r="C66" s="26" t="s">
+      <c r="C68" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="26" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="67" ht="159.5" spans="3:3">
-      <c r="C67" s="26" t="s">
+      <c r="E68" s="26"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="23" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="68" ht="159.5" spans="3:3">
-      <c r="C68" s="26" t="s">
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+    </row>
+    <row r="70" ht="114" customHeight="1" spans="1:4">
+      <c r="A70" s="25"/>
+      <c r="B70" s="26" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="69" ht="167" customHeight="1" spans="2:4">
-      <c r="B69" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" s="26" t="s">
+      <c r="C70" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D70" s="26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="70" ht="167" customHeight="1" spans="1:5">
-      <c r="A70" s="27"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26" t="s">
+    <row r="71" ht="120" customHeight="1" spans="1:5">
+      <c r="A71" s="27"/>
+      <c r="B71" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-    </row>
-    <row r="71" ht="168" customHeight="1" spans="1:5">
-      <c r="A71" s="27"/>
-      <c r="B71" s="26"/>
       <c r="C71" s="26" t="s">
         <v>109</v>
       </c>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
     </row>
-    <row r="72" ht="123" customHeight="1" spans="1:5">
-      <c r="A72" s="27"/>
-      <c r="B72" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="33" t="s">
+    <row r="72" ht="129" customHeight="1" spans="3:3">
+      <c r="C72" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D72" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E72" s="34"/>
-    </row>
-    <row r="73" ht="145" spans="2:4">
-      <c r="B73" s="26" t="s">
-        <v>98</v>
-      </c>
+    </row>
+    <row r="73" ht="116" customHeight="1" spans="3:3">
       <c r="C73" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D73" s="26" t="s">
+    </row>
+    <row r="74" ht="120" customHeight="1" spans="3:3">
+      <c r="C74" s="26" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="74" ht="104" customHeight="1" spans="1:8">
-      <c r="A74" s="25"/>
-      <c r="B74" s="26" t="s">
+    <row r="75" ht="145" spans="3:3">
+      <c r="C75" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C74" s="26" t="s">
+    </row>
+    <row r="76" ht="159.5" spans="3:3">
+      <c r="C76" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="26" t="s">
+    </row>
+    <row r="77" ht="159.5" spans="3:3">
+      <c r="C77" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G74" t="s">
-        <v>58</v>
-      </c>
-      <c r="H74" s="28" t="s">
+    </row>
+    <row r="78" ht="167" customHeight="1" spans="2:4">
+      <c r="B78" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="26" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="75" ht="130.5" spans="2:4">
-      <c r="B75" s="26" t="s">
+      <c r="D78" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C75" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" ht="145" spans="2:4">
-      <c r="B76" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" ht="130.5" spans="2:5">
-      <c r="B77" s="26"/>
-      <c r="C77" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-    </row>
-    <row r="78" ht="130.5" spans="2:5">
-      <c r="B78" s="26"/>
-      <c r="C78" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-    </row>
-    <row r="79" ht="130.5" spans="2:5">
+    </row>
+    <row r="79" ht="167" customHeight="1" spans="1:5">
+      <c r="A79" s="27"/>
       <c r="B79" s="26"/>
       <c r="C79" s="26" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
     </row>
-    <row r="80" ht="130.5" spans="2:5">
+    <row r="80" ht="224" customHeight="1" spans="1:5">
+      <c r="A80" s="27"/>
       <c r="B80" s="26"/>
       <c r="C80" s="26" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
     </row>
-    <row r="81" ht="130.5" spans="2:5">
-      <c r="B81" s="26"/>
-      <c r="C81" s="26" t="s">
+    <row r="81" ht="149" customHeight="1" spans="1:5">
+      <c r="A81" s="27"/>
+      <c r="B81" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E81" s="33"/>
+    </row>
+    <row r="82" ht="145" spans="2:4">
+      <c r="B82" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" ht="104" customHeight="1" spans="1:8">
+      <c r="A83" s="25"/>
+      <c r="B83" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="G83" t="s">
+        <v>58</v>
+      </c>
+      <c r="H83" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-    </row>
-    <row r="82" ht="116" spans="2:5">
-      <c r="B82" s="26"/>
-      <c r="C82" s="26" t="s">
+    </row>
+    <row r="84" ht="130.5" spans="2:4">
+      <c r="B84" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-    </row>
-    <row r="83" ht="116" spans="2:5">
-      <c r="B83" s="26"/>
-      <c r="C83" s="26" t="s">
+      <c r="C84" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-    </row>
-    <row r="84" ht="130.5" spans="2:5">
-      <c r="B84" s="26"/>
-      <c r="C84" s="26" t="s">
+      <c r="D84" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="23" t="s">
+    </row>
+    <row r="85" ht="145" spans="2:4">
+      <c r="B85" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-    </row>
-    <row r="86" ht="116" spans="2:4">
-      <c r="B86" s="26" t="s">
+      <c r="D85" s="26" t="s">
         <v>131</v>
       </c>
+    </row>
+    <row r="86" ht="130.5" spans="2:5">
+      <c r="B86" s="26"/>
       <c r="C86" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D86" s="26" t="s">
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+    </row>
+    <row r="87" ht="130.5" spans="2:5">
+      <c r="B87" s="26"/>
+      <c r="C87" s="26" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="87" ht="130.5" spans="2:4">
-      <c r="B87" s="26" t="s">
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+    </row>
+    <row r="88" ht="130.5" spans="2:5">
+      <c r="B88" s="26"/>
+      <c r="C88" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+    </row>
+    <row r="89" ht="130.5" spans="2:5">
+      <c r="B89" s="26"/>
+      <c r="C89" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D87" s="26" t="s">
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+    </row>
+    <row r="90" ht="130.5" spans="2:5">
+      <c r="B90" s="26"/>
+      <c r="C90" s="26" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="88" ht="130.5" spans="3:3">
-      <c r="C88" s="26" t="s">
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+    </row>
+    <row r="91" ht="116" spans="2:5">
+      <c r="B91" s="26"/>
+      <c r="C91" s="26" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="89" ht="116" spans="3:3">
-      <c r="C89" s="26" t="s">
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+    </row>
+    <row r="92" ht="116" spans="2:5">
+      <c r="B92" s="26"/>
+      <c r="C92" s="26" t="s">
         <v>138</v>
       </c>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+    </row>
+    <row r="93" ht="130.5" spans="2:5">
+      <c r="B93" s="26"/>
+      <c r="C93" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+    </row>
+    <row r="95" ht="116" spans="2:4">
+      <c r="B95" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" ht="130.5" spans="2:4">
+      <c r="B96" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" ht="130.5" spans="3:3">
+      <c r="C97" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" ht="116" spans="3:3">
+      <c r="C98" s="26" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="108">
+  <mergeCells count="119">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
@@ -3098,7 +3236,7 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="D60:E60"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
@@ -3107,7 +3245,7 @@
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="A69:H69"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="D72:E72"/>
@@ -3123,7 +3261,7 @@
     <mergeCell ref="D82:E82"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
-    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="D85:E85"/>
     <mergeCell ref="D86:E86"/>
     <mergeCell ref="D87:E87"/>
     <mergeCell ref="D88:E88"/>
@@ -3132,7 +3270,7 @@
     <mergeCell ref="D91:E91"/>
     <mergeCell ref="D92:E92"/>
     <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="A94:H94"/>
     <mergeCell ref="D95:E95"/>
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="D97:E97"/>
@@ -3140,21 +3278,32 @@
     <mergeCell ref="D99:E99"/>
     <mergeCell ref="D100:E100"/>
     <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
     <mergeCell ref="B13:B21"/>
     <mergeCell ref="B22:B31"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="B43:B47"/>
     <mergeCell ref="B50:B58"/>
+    <mergeCell ref="B59:B66"/>
     <mergeCell ref="C13:C21"/>
     <mergeCell ref="C22:C31"/>
     <mergeCell ref="C37:C42"/>
     <mergeCell ref="C43:C47"/>
     <mergeCell ref="C50:C58"/>
+    <mergeCell ref="C59:C66"/>
     <mergeCell ref="A1:D2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11 G14 G15 G16 G21 G22 G23 G24 G25 G32 G35 G36 G37 G38 G39 G40 G41 G42 G43 G46 G47 G48 G59 G65 G69 G70 G71 G72 G73 G74 G75 G76 G79 G83 G84 G86 G87 G12:G13 G17:G18 G19:G20 G26:G31 G33:G34 G44:G45 G49:G50 G51:G58 G61:G64 G66:G68 G77:G78 G80:G82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11 G14 G15 G16 G21 G22 G23 G24 G25 G32 G35 G36 G37 G38 G39 G40 G41 G42 G43 G46 G47 G48 G59 G64 G65 G66 G67 G68 G74 G78 G79 G80 G81 G82 G83 G84 G85 G88 G92 G93 G95 G96 G12:G13 G17:G18 G19:G20 G26:G31 G33:G34 G44:G45 G49:G50 G51:G58 G60:G61 G62:G63 G70:G73 G75:G77 G86:G87 G89:G91">
       <formula1>"Pass,Fail,Pending"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Case/TestCase_LibraryManagementProject.xlsx
+++ b/Test Case/TestCase_LibraryManagementProject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="151">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -72,6 +72,12 @@
     <t xml:space="preserve">CR1 - </t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -919,8 +925,8 @@
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -979,7 +985,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,9 +1018,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1031,65 +1112,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1097,24 +1119,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1165,7 +1171,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,37 +1309,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,127 +1339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1507,17 +1513,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1553,6 +1548,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1570,9 +1574,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1580,8 +1586,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1590,7 +1596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1608,128 +1614,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2160,7 +2166,7 @@
   <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
@@ -2209,7 +2215,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" ht="28.05" customHeight="1" spans="1:4">
+    <row r="5" ht="28.05" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -2218,17 +2224,23 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:4">
       <c r="A6" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="13">
         <f>COUNTIF(G11:G121,"Pass")</f>
         <v>12</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="15">
         <f>COUNTIF(G11:G121,"Pending")</f>
@@ -2237,14 +2249,14 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
       <c r="A7" s="16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="17">
         <f>COUNTIF(G11:G121,"Fail")</f>
         <v>2</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="19">
         <f>COUNTA(A10:A121)-3</f>
@@ -2254,32 +2266,32 @@
     </row>
     <row r="9" ht="37.95" customHeight="1" spans="1:9">
       <c r="A9" s="20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -2291,40 +2303,40 @@
     </row>
     <row r="11" ht="43.5" spans="1:4">
       <c r="A11" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="101.5" spans="1:4">
       <c r="A12" s="25"/>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="98" customHeight="1" spans="1:6">
       <c r="A13" s="27"/>
       <c r="B13" s="26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F13" s="28"/>
     </row>
@@ -2333,7 +2345,7 @@
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F14" s="28"/>
     </row>
@@ -2342,7 +2354,7 @@
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="28"/>
@@ -2352,7 +2364,7 @@
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="28"/>
@@ -2362,7 +2374,7 @@
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="28"/>
@@ -2372,7 +2384,7 @@
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="28"/>
@@ -2382,7 +2394,7 @@
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="28"/>
@@ -2392,7 +2404,7 @@
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="28"/>
@@ -2402,7 +2414,7 @@
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="28"/>
@@ -2410,13 +2422,13 @@
     <row r="22" ht="101" customHeight="1" spans="1:6">
       <c r="A22" s="27"/>
       <c r="B22" s="26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F22" s="28"/>
     </row>
@@ -2425,12 +2437,12 @@
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="28"/>
       <c r="G23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="92" customHeight="1" spans="1:7">
@@ -2438,12 +2450,12 @@
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="28"/>
       <c r="G24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="102" customHeight="1" spans="1:7">
@@ -2451,12 +2463,12 @@
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="28"/>
       <c r="G25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="100" customHeight="1" spans="1:7">
@@ -2464,12 +2476,12 @@
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="28"/>
       <c r="G26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="99" customHeight="1" spans="1:7">
@@ -2477,12 +2489,12 @@
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="28"/>
       <c r="G27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="99" customHeight="1" spans="1:7">
@@ -2490,12 +2502,12 @@
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="28"/>
       <c r="G28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="97" customHeight="1" spans="1:7">
@@ -2503,12 +2515,12 @@
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="28"/>
       <c r="G29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="95" customHeight="1" spans="1:7">
@@ -2516,12 +2528,12 @@
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="28"/>
       <c r="G30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="88" customHeight="1" spans="1:6">
@@ -2529,7 +2541,7 @@
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="28"/>
@@ -2537,103 +2549,103 @@
     <row r="32" ht="105" customHeight="1" spans="1:7">
       <c r="A32" s="27"/>
       <c r="B32" s="26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="101.5" spans="1:8">
       <c r="A33" s="27"/>
       <c r="B33" s="26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H33" s="30"/>
     </row>
     <row r="34" ht="101.5" spans="1:7">
       <c r="A34" s="27"/>
       <c r="B34" s="26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="101.5" spans="1:7">
       <c r="A35" s="27"/>
       <c r="B35" s="26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="112" customHeight="1" spans="1:7">
       <c r="A36" s="27"/>
       <c r="B36" s="26"/>
       <c r="C36" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="28"/>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" ht="98" customHeight="1" spans="2:7">
       <c r="B37" s="26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="128" customHeight="1" spans="2:6">
       <c r="B38" s="26"/>
       <c r="C38" s="29"/>
       <c r="D38" s="26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="28"/>
@@ -2642,7 +2654,7 @@
       <c r="B39" s="26"/>
       <c r="C39" s="29"/>
       <c r="D39" s="26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="28"/>
@@ -2651,7 +2663,7 @@
       <c r="B40" s="26"/>
       <c r="C40" s="29"/>
       <c r="D40" s="26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="28"/>
@@ -2660,7 +2672,7 @@
       <c r="B41" s="26"/>
       <c r="C41" s="29"/>
       <c r="D41" s="26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="28"/>
@@ -2669,23 +2681,23 @@
       <c r="B42" s="26"/>
       <c r="C42" s="29"/>
       <c r="D42" s="26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="28"/>
       <c r="G42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="110" customHeight="1" spans="2:6">
       <c r="B43" s="26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F43" s="28"/>
     </row>
@@ -2693,7 +2705,7 @@
       <c r="B44" s="26"/>
       <c r="C44" s="29"/>
       <c r="D44" s="26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F44" s="28"/>
     </row>
@@ -2701,7 +2713,7 @@
       <c r="B45" s="26"/>
       <c r="C45" s="29"/>
       <c r="D45" s="26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="28"/>
@@ -2710,7 +2722,7 @@
       <c r="B46" s="26"/>
       <c r="C46" s="29"/>
       <c r="D46" s="26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="28"/>
@@ -2719,20 +2731,20 @@
       <c r="B47" s="26"/>
       <c r="C47" s="29"/>
       <c r="D47" s="26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="28"/>
     </row>
     <row r="48" ht="100" customHeight="1" spans="2:6">
       <c r="B48" s="26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="28"/>
@@ -2740,39 +2752,39 @@
     <row r="49" ht="87" spans="1:5">
       <c r="A49" s="25"/>
       <c r="B49" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E49" s="26"/>
     </row>
     <row r="50" ht="100" customHeight="1" spans="2:4">
       <c r="B50" s="26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" ht="99" customHeight="1" spans="2:4">
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" ht="82" customHeight="1" spans="2:5">
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E52" s="26"/>
     </row>
@@ -2780,7 +2792,7 @@
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E53" s="26"/>
     </row>
@@ -2788,7 +2800,7 @@
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" s="26"/>
     </row>
@@ -2796,7 +2808,7 @@
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
       <c r="D55" s="26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E55" s="26"/>
     </row>
@@ -2804,7 +2816,7 @@
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="26"/>
     </row>
@@ -2812,7 +2824,7 @@
       <c r="B57" s="26"/>
       <c r="C57" s="26"/>
       <c r="D57" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="26"/>
     </row>
@@ -2820,26 +2832,26 @@
       <c r="B58" s="26"/>
       <c r="C58" s="26"/>
       <c r="D58" s="26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="26"/>
     </row>
     <row r="59" ht="98" customHeight="1" spans="2:4">
       <c r="B59" s="26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" ht="98" customHeight="1" spans="2:5">
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
       <c r="D60" s="26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="26"/>
     </row>
@@ -2847,7 +2859,7 @@
       <c r="B61" s="26"/>
       <c r="C61" s="26"/>
       <c r="D61" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="26"/>
     </row>
@@ -2855,7 +2867,7 @@
       <c r="B62" s="26"/>
       <c r="C62" s="26"/>
       <c r="D62" s="26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="26"/>
     </row>
@@ -2863,7 +2875,7 @@
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="26"/>
     </row>
@@ -2871,7 +2883,7 @@
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="26"/>
     </row>
@@ -2879,7 +2891,7 @@
       <c r="B65" s="26"/>
       <c r="C65" s="26"/>
       <c r="D65" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E65" s="26"/>
     </row>
@@ -2887,36 +2899,36 @@
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" ht="98" customHeight="1" spans="2:5">
       <c r="B67" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E67" s="26"/>
     </row>
     <row r="68" ht="98" customHeight="1" spans="2:5">
       <c r="B68" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="26" t="s">
-        <v>100</v>
-      </c>
       <c r="D68" s="26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E68" s="26"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
@@ -2929,72 +2941,72 @@
     <row r="70" ht="114" customHeight="1" spans="1:4">
       <c r="A70" s="25"/>
       <c r="B70" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" ht="120" customHeight="1" spans="1:5">
       <c r="A71" s="27"/>
       <c r="B71" s="26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
     </row>
     <row r="72" ht="129" customHeight="1" spans="3:3">
       <c r="C72" s="26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" ht="116" customHeight="1" spans="3:3">
       <c r="C73" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" ht="120" customHeight="1" spans="3:3">
       <c r="C74" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" ht="145" spans="3:3">
       <c r="C75" s="26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" ht="159.5" spans="3:3">
       <c r="C76" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" ht="159.5" spans="3:3">
       <c r="C77" s="26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" ht="167" customHeight="1" spans="2:4">
       <c r="B78" s="26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" ht="167" customHeight="1" spans="1:5">
       <c r="A79" s="27"/>
       <c r="B79" s="26"/>
       <c r="C79" s="26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
@@ -3003,7 +3015,7 @@
       <c r="A80" s="27"/>
       <c r="B80" s="26"/>
       <c r="C80" s="26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
@@ -3011,71 +3023,71 @@
     <row r="81" ht="149" customHeight="1" spans="1:5">
       <c r="A81" s="27"/>
       <c r="B81" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E81" s="33"/>
     </row>
     <row r="82" ht="145" spans="2:4">
       <c r="B82" s="26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" ht="104" customHeight="1" spans="1:8">
       <c r="A83" s="25"/>
       <c r="B83" s="26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G83" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H83" s="28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" ht="130.5" spans="2:4">
       <c r="B84" s="26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" ht="145" spans="2:4">
       <c r="B85" s="26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" ht="130.5" spans="2:5">
       <c r="B86" s="26"/>
       <c r="C86" s="26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D86" s="26"/>
       <c r="E86" s="26"/>
@@ -3083,7 +3095,7 @@
     <row r="87" ht="130.5" spans="2:5">
       <c r="B87" s="26"/>
       <c r="C87" s="26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D87" s="26"/>
       <c r="E87" s="26"/>
@@ -3091,7 +3103,7 @@
     <row r="88" ht="130.5" spans="2:5">
       <c r="B88" s="26"/>
       <c r="C88" s="26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D88" s="26"/>
       <c r="E88" s="26"/>
@@ -3099,7 +3111,7 @@
     <row r="89" ht="130.5" spans="2:5">
       <c r="B89" s="26"/>
       <c r="C89" s="26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D89" s="26"/>
       <c r="E89" s="26"/>
@@ -3107,7 +3119,7 @@
     <row r="90" ht="130.5" spans="2:5">
       <c r="B90" s="26"/>
       <c r="C90" s="26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D90" s="26"/>
       <c r="E90" s="26"/>
@@ -3115,7 +3127,7 @@
     <row r="91" ht="116" spans="2:5">
       <c r="B91" s="26"/>
       <c r="C91" s="26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D91" s="26"/>
       <c r="E91" s="26"/>
@@ -3123,7 +3135,7 @@
     <row r="92" ht="116" spans="2:5">
       <c r="B92" s="26"/>
       <c r="C92" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D92" s="26"/>
       <c r="E92" s="26"/>
@@ -3131,14 +3143,14 @@
     <row r="93" ht="130.5" spans="2:5">
       <c r="B93" s="26"/>
       <c r="C93" s="26" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D93" s="26"/>
       <c r="E93" s="26"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="24"/>
@@ -3150,34 +3162,34 @@
     </row>
     <row r="95" ht="116" spans="2:4">
       <c r="B95" s="26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" ht="130.5" spans="2:4">
       <c r="B96" s="26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" ht="130.5" spans="3:3">
       <c r="C97" s="26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" ht="116" spans="3:3">
       <c r="C98" s="26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Test Case/TestCase_LibraryManagementProject.xlsx
+++ b/Test Case/TestCase_LibraryManagementProject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="189">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -65,6 +65,9 @@
     <t>CR100 - Export to excel</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>Test
 requirement :</t>
   </si>
@@ -72,12 +75,6 @@
     <t xml:space="preserve">CR1 - </t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -134,7 +131,7 @@
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+2: Chọn ComboBox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
 3: Đến form SignUp
 4: Kiểm tra các thành phần có giống với thiết kế
@@ -151,7 +148,7 @@
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+2: Chọn ComboBox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
 4: Đến form SignUp -&gt; Nhập dữ liệu vào TextField "Mã độc giả" -&gt; Nhấn button "ĐĂNG KÍ"
 </t>
@@ -160,14 +157,14 @@
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
-_ Cho phép nhập ký tự dấu chấm, chữ &amp; 0 &lt; độ dài  &lt;= 20
+_ Cho phép nhập ký tự dấu ".", "_", "-", chữ &amp; 0 &lt; độ dài  &lt;= 20
 </t>
   </si>
   <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
-_ Cho phép nhập ký tự dấu chấm &amp; chữ
+_ Cho phép nhập ký tự dấu ".", "_", "-" &amp; chữ
 </t>
   </si>
   <si>
@@ -223,7 +220,7 @@
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+2: Chọn ComboBox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
 4: Đến form SignUp -&gt; Nhập dữ liệu vào TextField "Họ và Tên" -&gt; Nhấn button "ĐĂNG KÍ"
 </t>
@@ -277,9 +274,9 @@
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+2: Chọn ComboBox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
-4: Đến form SignUp -&gt; Chọn combobox "Giới tính" -&gt; Nhấn button "ĐĂNG KÍ"
+4: Đến form SignUp -&gt; Chọn ComboBox "Giới tính" -&gt; Nhấn button "ĐĂNG KÍ"
 </t>
   </si>
   <si>
@@ -294,16 +291,16 @@
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+2: Chọn ComboBox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
-4: Đến form SignUp -&gt; Chọn combobox "Đối Tượng" -&gt; Nhấn button "ĐĂNG KÍ"
+4: Đến form SignUp -&gt; Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "ĐĂNG KÍ"
 </t>
   </si>
   <si>
     <t>_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
-_ Chỉ được phép chọn 1 trong 2 đối tượng sinh viên / giảng viên</t>
+_ Chỉ được phép chọn 1 trong 2 đối tượng Sinh viên / Giảng viên</t>
   </si>
   <si>
     <t>Tạo tài khoản -
@@ -311,9 +308,9 @@
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+2: Chọn ComboBox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
-4: Đến form SignUp -&gt; Chọn combobox "Khoa" -&gt; Nhấn button "ĐĂNG KÍ"
+4: Đến form SignUp -&gt; Chọn ComboBox "Khoa" -&gt; Nhấn button "ĐĂNG KÍ"
 </t>
   </si>
   <si>
@@ -328,7 +325,7 @@
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+2: Chọn ComboBox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
 4: Đến form SignUp -&gt; Nhấn chọn giá trị cho Date Picker "Ngày Sinh " -&gt; Nhấn button "ĐĂNG KÍ"
 </t>
@@ -355,7 +352,7 @@
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+2: Chọn ComboBox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
 4: Đến form SignUp -&gt; Nhập dữ liệu vào TextField "Email" -&gt; Nhấn button "ĐĂNG KÍ"
 </t>
@@ -411,7 +408,7 @@
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+2: Chọn ComboBox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
 4: Đến form SignUp -&gt; Nhập dữ liệu vào TextField "Số điện thoại" -&gt; Nhấn button "ĐĂNG KÍ"
 </t>
@@ -453,7 +450,7 @@
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+2: Chọn ComboBox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login -&gt; Nhấn button "ĐĂNG KÍ"
 4: Đến form SignUp -&gt; Hoàn thành form (Nhập / chọn đúng các mục)-&gt; Nhấn button "ĐĂNG KÍ"
 </t>
@@ -470,7 +467,7 @@
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+2: Chọn ComboBox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login
 4: Kiểm tra thành phần có giống với thiết kế
 </t>
@@ -486,7 +483,7 @@
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+2: Chọn ComboBox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" -&gt; Nhấn button "ĐĂNG NHẬP"
 </t>
   </si>
@@ -557,7 +554,7 @@
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
+2: Chọn ComboBox "Đối tượng" -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login -&gt; Nhập dữ liệu vào TextField "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 </t>
   </si>
@@ -608,7 +605,7 @@
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" là Sinh viên / Giảng viên -&gt; Nhấn button "Đăng nhập"
+2: Chọn ComboBox "Đối tượng" là Sinh viên / Giảng viên -&gt; Nhấn button "Đăng nhập"
 3: Đến form Login -&gt; Nhập dữ liệu đầy đủ vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 </t>
   </si>
@@ -633,23 +630,380 @@
     <t>2. Kiểm tra giao diện người dùng - Sinh viên / Giảng Viên</t>
   </si>
   <si>
-    <t>Mượn sách - Thông
-tin khách</t>
+    <t>Mượn sách -
+Thông tin khách</t>
   </si>
   <si>
     <t xml:space="preserve">1:  Mở hệ thống "Quản lý thư viện"
-2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors
 5:   Kiểm tra các thành phần có giống với thiết kế
 </t>
   </si>
   <si>
     <t xml:space="preserve">_ Mở được trang chủ
-_ Đến được form Login
-_ Đăng nhập thành công
-_ Đến được form Mượn sách
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
 _ Giống bản thiết kế
+</t>
+  </si>
+  <si>
+    <t>Mượn sách -
+Thông tin khách -
+Kiểm tra ràng buộc -
+Họ và tên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextField "Họ và tên" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập ký tự chữ;
+0 &lt; độ dài &lt;= 45
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập toàn ký tự chữ không dấu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập toàn ký tự chữ có dấu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập toàn ký tự chữ không dấu &amp; có dấu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập toàn ký tự đặc biệt
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập toàn ký tự số
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập toàn ký tự chữ &amp; số
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập ký tự đặc biệt &amp; chữ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập toàn ký tự đặc biệt &amp; số
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập &gt; 45 ký tự hay bỏ trống
+</t>
+  </si>
+  <si>
+    <t>Mượn sách -
+Thông tin khách -
+Kiểm tra ràng buộc -
+Mã độc giả</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextField "Mã độc giả" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập ký tự dấu ".", "_", "-", chữ &amp; 0 &lt; độ dài  &lt;= 20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập ký tự dấu ".", "_", "-" &amp; chữ
+</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập toàn ký tự chữ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập toàn ký tự đặc biệt &amp; chữ
+</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập &gt; 20 ký tự hay bỏ trống</t>
+  </si>
+  <si>
+    <t>Mượn sách -
+Thông tin khách -
+Kiểm tra ràng buộc -
+Số điện thoại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextField "Số điện thoại" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Ràng buộc được Số điện thoại bắt đầu bằng số 0 &amp; độ dài = 10 ký tự số</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép 0 &lt; độ dài ký tự số</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép độ dài &gt; 10 ký tự số</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép 0 &lt; độ dài &gt;= 10 ký tự số</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Không cho phép nhập ký tự chữ
+</t>
+  </si>
+  <si>
+    <t>Mượn sách -
+Thông tin khách -
+Kiểm tra ràng buộc -
+Đối tượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Chọn ComboBox "Đối tượng" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Chỉ được phép chọn 1 trong 2 đối tượng Sinh viên / Giảng viên</t>
+  </si>
+  <si>
+    <t>Mượn sách -
+Thông tin khách -
+Kiểm tra ràng buộc -
+Số lượng sách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt;  Nhấn Spinner "Số lượng sách" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ 0 &lt; Số lượng &lt;= 5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ 0 &gt; Số lượng 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Số lượng &gt; 5
+</t>
+  </si>
+  <si>
+    <t>Mượn sách -
+Thông tin khách -
+Kiểm tra ràng buộc -
+Ngày mượn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Chọn / Nhập dữ liệu vào Date Picker "Ngày mượn" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Chọn được ngày, tháng, năm mong muốn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập thông tin ngày tháng năm theo đúng định dạng dd/MM/YY
+</t>
+  </si>
+  <si>
+    <t>Mượn sách -
+Thông tin khách -
+Kiểm tra ràng buộc -
+Ngày trả</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Chọn / Nhập dữ liệu vào Date Picker "Ngày trả" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Chọn được ngày, tháng, năm mong muốn</t>
+  </si>
+  <si>
+    <t>Mượn sách -
+Thông tin khách -
+Kiểm tra ràng buộc -
+Ngày mượn &amp; ngày trả</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Chọn / Nhập dữ liệu vào Date Picker "Ngày mượn" &amp; "Ngày trả" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Chọn / Nhập dữ liệu đúng
+_ Ngày trả &gt; ngày mượn
+</t>
+  </si>
+  <si>
+    <t>Mượn sách -
+Thông tin khách -
+Kiểm tra ràng buộc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Chọn &amp; nhập đầy đủ các dữ liệu đúng cho thông tin khách hàng -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Các phần chọn / nhập thông tin hợp lệ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextField "Họ và tên", "Mã độc giả", "Số điện thoại". Chọn ComboBox "Đối tượng", tăng Spinner "Số lượng sách". Chọn / Nhập dữ liệu vào Date Picker "Ngày mượn" &amp; "Ngày trả"
+5:   Nhấn TitledPane "Thông tin sách" - &gt; Nhập dữ liệu vào TextField "Nhập mã sách" -&gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitledPane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextField "Họ và tên", "Mã độc giả", "Số điện thoại". Chọn ComboBox "Đối tượng", tăng Spinner "Số lượng sách". Chọn / Nhập dữ liệu vào Date Picker "Ngày mượn" &amp; "Ngày trả"
+5:   Nhấn TitledPane "Thông tin sách" - &gt; Nhập dữ liệu vào TextField "Nhập mã sách" -&gt; Nhấn Button "Xác nhận" - &gt; Nhấn Button "Cập nhật"
 </t>
   </si>
   <si>
@@ -658,58 +1012,9 @@
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "Họ và tên" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "Mã độc giả" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "Số điện thoại" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Chọn ComboBox "Đối tượng" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt;  Nhấn tăng Spinner "Số lượng sách" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Chọn / Nhập dữ liệu vào Date Picker "Ngày mượn" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Chọn / Nhập dữ liệu vào Date Picker "Ngày trả" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "Họ và tên", "Mã độc giả", "Số điện thoại". Chọn ComboBox "Đối tượng", tăng Spinner "Số lượng sách". Chọn / Nhập dữ liệu vào Date Picker "Ngày mượn" &amp; "Ngày trả" -&gt; Nhấn TitledPane "Thông tin sách" - &gt; Nhấn Button "Xác nhận"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitledPane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextField "TÊN SÁCH" trong phần Rectangle "BOOK'S STATE" -&gt; Nhấn Button "KIỂM TRA"
 </t>
   </si>
   <si>
@@ -722,32 +1027,9 @@
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "Họ và tên", "Mã độc giả", "Số điện thoại". Chọn ComboBox "Đối tượng", tăng Spinner "Số lượng sách". Chọn / Nhập dữ liệu vào Date Picker "Ngày mượn" &amp; "Ngày trả"
-5:   Nhấn TitledPane "Thông tin sách" - &gt; Nhập dữ liệu vào TextBox "Nhập mã sách" -&gt; Nhấn Button "Xác nhận"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitledPane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "Họ và tên", "Mã độc giả", "Số điện thoại". Chọn ComboBox "Đối tượng", tăng Spinner "Số lượng sách". Chọn / Nhập dữ liệu vào Date Picker "Ngày mượn" &amp; "Ngày trả"
-5:   Nhấn TitledPane "Thông tin sách" - &gt; Nhập dữ liệu vào TextBox "Nhập mã sách" -&gt; Nhấn Button "Xác nhận" - &gt; Nhấn Button "Cập nhật"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn combobox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitledPane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "TÊN SÁCH" trong phần Rectangle "BOOK'S STATE" -&gt; Nhấn Button "KIỂM TRA"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitledPane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextBox "MÃ ĐỘC GIẢ" trong phần Rectangle "MEMBERCARD 'S STATE" -&gt; Nhấn Button "KIỂM TRA"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitledPane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextField "MÃ ĐỘC GIẢ" trong phần Rectangle "MEMBERCARD 'S STATE" -&gt; Nhấn Button "KIỂM TRA"
 </t>
   </si>
   <si>
@@ -763,8 +1045,8 @@
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách"
 5:   Kiểm tra các thành phần có giống với thiết kế
 </t>
@@ -786,9 +1068,9 @@
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Nhập dữ liệu vào TextBox "HỌ VÀ TÊN" -&gt; Nhấn Button "XÁC NHẬN"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Nhập dữ liệu vào TextField "HỌ VÀ TÊN" -&gt; Nhấn Button "XÁC NHẬN"
 </t>
   </si>
   <si>
@@ -800,9 +1082,9 @@
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Nhập dữ liệu vào TextBox "MÃ ĐỘC GIẢ" -&gt; Nhấn Button "XÁC NHẬN"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Nhập dữ liệu vào TextField "MÃ ĐỘC GIẢ" -&gt; Nhấn Button "XÁC NHẬN"
 </t>
   </si>
   <si>
@@ -814,53 +1096,53 @@
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Chọn / nhập dữ liệu vào Date Picker "Ngày mượn" -&gt; Nhấn Button "XÁC NHẬN"
 </t>
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Nhấn tăng Spinner "Số lượng sách" -&gt; Nhấn Button "XÁC NHẬN"
 </t>
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Nhấn giảm Spinner "Số lượng sách" -&gt; Nhấn Button "XÁC NHẬN"
 </t>
   </si>
   <si>
     <t>1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", tăng Spinner "RÁCH, HƯ HỎNG" -&gt; Nhấn Button "XÁC NHẬN"</t>
   </si>
   <si>
     <t>1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", giảm Spinner "RÁCH, HƯ HỎNG" -&gt; Nhấn Button "XÁC NHẬN"</t>
   </si>
   <si>
     <t>1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", tăng Spinner "MẤT" -&gt; Nhấn Button "XÁC NHẬN"</t>
   </si>
   <si>
     <t>1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", giảm Spinner "MẤT" -&gt; Nhấn Button "XÁC NHẬN"</t>
   </si>
   <si>
     <t>1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn ComboBox "Đối Tượng" -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextBox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
+3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", tăng / giảm Spinner "RÁCH, HƯ HỎNG" &amp; "MẤT" -&gt; Nhấn Button "XÁC NHẬN"</t>
   </si>
   <si>
@@ -871,8 +1153,8 @@
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
-3: Đến form "Login" -&gt; Nhập textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+2: Chọn ComboBox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
+3: Đến form "Login" -&gt; Nhập TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4: Đến form "THỐNG KÊ SÁCH TRONG NĂM 2020"
 5: Kiểm tra các thành phần có giống với thiết kế
 </t>
@@ -889,8 +1171,8 @@
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
-3: Đến form "Login" -&gt; Nhập textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+2: Chọn ComboBox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
+3: Đến form "Login" -&gt; Nhập TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4: Đến form "THỐNG KÊ SÁCH TRONG NĂM 2020" -&gt; Nhấn RadioButton "QUÝ (1/ 2/ 3/ 4)" hoặc "NĂM" -&gt; Nhấn button "KIỂM TRA"
 </t>
   </si>
@@ -904,15 +1186,15 @@
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
-3: Đến form "Login" -&gt; Nhập textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+2: Chọn ComboBox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
+3: Đến form "Login" -&gt; Nhập TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4: Đến form "THỐNG KÊ SÁCH TRONG NĂM 2020" -&gt; Nhấn RadioButton "QUÝ (1/ 2/ 3/ 4)" -&gt; Nhấn button "KIỂM TRA"
 </t>
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
-2: Chọn combobox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
-3: Đến form "Login" -&gt; Nhập textbox "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+2: Chọn ComboBox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
+3: Đến form "Login" -&gt; Nhập TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
 4: Đến form "THỐNG KÊ SÁCH TRONG NĂM 2020" -&gt; Nhấn RadioButton "NĂM" -&gt; Nhấn button "KIỂM TRA"
 </t>
   </si>
@@ -925,8 +1207,8 @@
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -985,12 +1267,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,48 +1335,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1059,23 +1380,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,40 +1401,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1138,7 +1420,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1165,7 +1447,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,84 +1585,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1273,13 +1597,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,37 +1621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1333,19 +1633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,17 +1782,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1533,17 +1817,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1572,22 +1865,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1596,7 +1884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1614,135 +1902,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1835,6 +2123,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2163,19 +2454,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.1090909090909" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.5454545454545" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.8" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.2181818181818" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.6090909090909" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.3727272727273" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.1090909090909" customWidth="1"/>
     <col min="7" max="7" width="12.8545454545455" customWidth="1"/>
     <col min="8" max="8" width="24.9090909090909" customWidth="1"/>
@@ -2205,7 +2496,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" ht="19.95" customHeight="1" spans="1:4">
+    <row r="4" ht="19.95" customHeight="1" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2214,84 +2505,81 @@
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
-    </row>
-    <row r="5" ht="28.05" customHeight="1" spans="1:7">
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="28.05" customHeight="1" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:4">
       <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="13">
+        <f>COUNTIF(G11:G147,"Pass")</f>
+        <v>12</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13">
-        <f>COUNTIF(G11:G121,"Pass")</f>
-        <v>12</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" s="15">
-        <f>COUNTIF(G11:G121,"Pending")</f>
-        <v>2</v>
+        <f>COUNTIF(G11:G147,"Pending")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
       <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="17">
+        <f>COUNTIF(G11:G147,"Fail")</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17">
-        <f>COUNTIF(G11:G121,"Fail")</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="19">
-        <f>COUNTA(A10:A121)-3</f>
+        <f>COUNTA(A10:A147)-3</f>
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="9" ht="37.95" customHeight="1" spans="1:9">
       <c r="A9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="C9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="22" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>16</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>19</v>
       </c>
       <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -2303,40 +2591,40 @@
     </row>
     <row r="11" ht="43.5" spans="1:4">
       <c r="A11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="D11" s="26" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" ht="101.5" spans="1:4">
       <c r="A12" s="25"/>
       <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="D12" s="26" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" ht="98" customHeight="1" spans="1:6">
       <c r="A13" s="27"/>
       <c r="B13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="D13" s="26" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="F13" s="28"/>
     </row>
@@ -2345,7 +2633,7 @@
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="28"/>
     </row>
@@ -2354,7 +2642,7 @@
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="28"/>
@@ -2364,7 +2652,7 @@
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="28"/>
@@ -2374,7 +2662,7 @@
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="28"/>
@@ -2384,7 +2672,7 @@
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="28"/>
@@ -2394,7 +2682,7 @@
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="28"/>
@@ -2404,7 +2692,7 @@
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="28"/>
@@ -2414,7 +2702,7 @@
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="28"/>
@@ -2422,13 +2710,13 @@
     <row r="22" ht="101" customHeight="1" spans="1:6">
       <c r="A22" s="27"/>
       <c r="B22" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="26" t="s">
         <v>40</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>41</v>
       </c>
       <c r="F22" s="28"/>
     </row>
@@ -2437,12 +2725,12 @@
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="28"/>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" ht="92" customHeight="1" spans="1:7">
@@ -2450,12 +2738,12 @@
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="28"/>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" ht="102" customHeight="1" spans="1:7">
@@ -2463,12 +2751,12 @@
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="28"/>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" ht="100" customHeight="1" spans="1:7">
@@ -2476,12 +2764,12 @@
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="28"/>
       <c r="G26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="99" customHeight="1" spans="1:7">
@@ -2489,12 +2777,12 @@
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="28"/>
       <c r="G27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" ht="99" customHeight="1" spans="1:7">
@@ -2502,12 +2790,12 @@
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="28"/>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" ht="97" customHeight="1" spans="1:7">
@@ -2515,12 +2803,12 @@
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="28"/>
       <c r="G29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" ht="95" customHeight="1" spans="1:7">
@@ -2528,12 +2816,12 @@
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="28"/>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" ht="88" customHeight="1" spans="1:6">
@@ -2541,7 +2829,7 @@
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="28"/>
@@ -2549,103 +2837,101 @@
     <row r="32" ht="105" customHeight="1" spans="1:7">
       <c r="A32" s="27"/>
       <c r="B32" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="D32" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>49</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" ht="101.5" spans="1:8">
       <c r="A33" s="27"/>
       <c r="B33" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="D33" s="26" t="s">
         <v>51</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>52</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H33" s="30"/>
     </row>
     <row r="34" ht="101.5" spans="1:7">
       <c r="A34" s="27"/>
       <c r="B34" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="D34" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" ht="101.5" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" ht="107" customHeight="1" spans="1:7">
       <c r="A35" s="27"/>
       <c r="B35" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="D35" s="26" t="s">
         <v>57</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>58</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" ht="112" customHeight="1" spans="1:7">
       <c r="A36" s="27"/>
       <c r="B36" s="26"/>
-      <c r="C36" s="29" t="s">
-        <v>57</v>
-      </c>
+      <c r="C36" s="29"/>
       <c r="D36" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="28"/>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" ht="98" customHeight="1" spans="2:7">
       <c r="B37" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="D37" s="26" t="s">
         <v>62</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>63</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="128" customHeight="1" spans="2:6">
       <c r="B38" s="26"/>
       <c r="C38" s="29"/>
       <c r="D38" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="28"/>
@@ -2654,7 +2940,7 @@
       <c r="B39" s="26"/>
       <c r="C39" s="29"/>
       <c r="D39" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="28"/>
@@ -2663,7 +2949,7 @@
       <c r="B40" s="26"/>
       <c r="C40" s="29"/>
       <c r="D40" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="28"/>
@@ -2672,7 +2958,7 @@
       <c r="B41" s="26"/>
       <c r="C41" s="29"/>
       <c r="D41" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="28"/>
@@ -2681,23 +2967,23 @@
       <c r="B42" s="26"/>
       <c r="C42" s="29"/>
       <c r="D42" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="28"/>
       <c r="G42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="110" customHeight="1" spans="2:6">
       <c r="B43" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="D43" s="26" t="s">
         <v>70</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>71</v>
       </c>
       <c r="F43" s="28"/>
     </row>
@@ -2705,7 +2991,7 @@
       <c r="B44" s="26"/>
       <c r="C44" s="29"/>
       <c r="D44" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F44" s="28"/>
     </row>
@@ -2713,7 +2999,7 @@
       <c r="B45" s="26"/>
       <c r="C45" s="29"/>
       <c r="D45" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="28"/>
@@ -2722,7 +3008,7 @@
       <c r="B46" s="26"/>
       <c r="C46" s="29"/>
       <c r="D46" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="28"/>
@@ -2731,20 +3017,20 @@
       <c r="B47" s="26"/>
       <c r="C47" s="29"/>
       <c r="D47" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="28"/>
     </row>
     <row r="48" ht="100" customHeight="1" spans="2:6">
       <c r="B48" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="D48" s="26" t="s">
         <v>77</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>78</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="28"/>
@@ -2752,39 +3038,39 @@
     <row r="49" ht="87" spans="1:5">
       <c r="A49" s="25"/>
       <c r="B49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="D49" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>81</v>
       </c>
       <c r="E49" s="26"/>
     </row>
     <row r="50" ht="100" customHeight="1" spans="2:4">
       <c r="B50" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="D50" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="51" ht="99" customHeight="1" spans="2:4">
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" ht="82" customHeight="1" spans="2:5">
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E52" s="26"/>
     </row>
@@ -2792,7 +3078,7 @@
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E53" s="26"/>
     </row>
@@ -2800,7 +3086,7 @@
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54" s="26"/>
     </row>
@@ -2808,7 +3094,7 @@
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
       <c r="D55" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E55" s="26"/>
     </row>
@@ -2816,7 +3102,7 @@
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E56" s="26"/>
     </row>
@@ -2824,7 +3110,7 @@
       <c r="B57" s="26"/>
       <c r="C57" s="26"/>
       <c r="D57" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E57" s="26"/>
     </row>
@@ -2832,26 +3118,26 @@
       <c r="B58" s="26"/>
       <c r="C58" s="26"/>
       <c r="D58" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="26"/>
     </row>
     <row r="59" ht="98" customHeight="1" spans="2:4">
       <c r="B59" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="D59" s="26" t="s">
         <v>94</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="60" ht="98" customHeight="1" spans="2:5">
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
       <c r="D60" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E60" s="26"/>
     </row>
@@ -2859,7 +3145,7 @@
       <c r="B61" s="26"/>
       <c r="C61" s="26"/>
       <c r="D61" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E61" s="26"/>
     </row>
@@ -2867,7 +3153,7 @@
       <c r="B62" s="26"/>
       <c r="C62" s="26"/>
       <c r="D62" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E62" s="26"/>
     </row>
@@ -2875,7 +3161,7 @@
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E63" s="26"/>
     </row>
@@ -2883,7 +3169,7 @@
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E64" s="26"/>
     </row>
@@ -2891,7 +3177,7 @@
       <c r="B65" s="26"/>
       <c r="C65" s="26"/>
       <c r="D65" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E65" s="26"/>
     </row>
@@ -2899,36 +3185,36 @@
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" ht="98" customHeight="1" spans="2:5">
       <c r="B67" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="D67" s="26" t="s">
         <v>102</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>103</v>
       </c>
       <c r="E67" s="26"/>
     </row>
     <row r="68" ht="98" customHeight="1" spans="2:5">
       <c r="B68" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="26" t="s">
         <v>104</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>105</v>
       </c>
       <c r="E68" s="26"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
@@ -2938,262 +3224,521 @@
       <c r="G69" s="23"/>
       <c r="H69" s="23"/>
     </row>
-    <row r="70" ht="114" customHeight="1" spans="1:4">
+    <row r="70" ht="118" customHeight="1" spans="1:4">
       <c r="A70" s="25"/>
       <c r="B70" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="D70" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D70" s="26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" ht="120" customHeight="1" spans="1:5">
+    </row>
+    <row r="71" ht="99" customHeight="1" spans="1:4">
       <c r="A71" s="27"/>
       <c r="B71" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="D71" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-    </row>
-    <row r="72" ht="129" customHeight="1" spans="3:3">
-      <c r="C72" s="26" t="s">
+    </row>
+    <row r="72" ht="99" customHeight="1" spans="1:5">
+      <c r="A72" s="27"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="73" ht="116" customHeight="1" spans="3:3">
-      <c r="C73" s="26" t="s">
+      <c r="E72" s="26"/>
+    </row>
+    <row r="73" ht="90" customHeight="1" spans="1:5">
+      <c r="A73" s="27"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="74" ht="120" customHeight="1" spans="3:3">
-      <c r="C74" s="26" t="s">
+      <c r="E73" s="26"/>
+    </row>
+    <row r="74" ht="103" customHeight="1" spans="1:5">
+      <c r="A74" s="27"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="75" ht="145" spans="3:3">
-      <c r="C75" s="26" t="s">
+      <c r="E74" s="26"/>
+    </row>
+    <row r="75" ht="107" customHeight="1" spans="1:5">
+      <c r="A75" s="27"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="76" ht="159.5" spans="3:3">
-      <c r="C76" s="26" t="s">
+      <c r="E75" s="26"/>
+    </row>
+    <row r="76" ht="124" customHeight="1" spans="1:5">
+      <c r="A76" s="27"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="77" ht="159.5" spans="3:3">
-      <c r="C77" s="26" t="s">
+      <c r="E76" s="26"/>
+    </row>
+    <row r="77" ht="122" customHeight="1" spans="1:5">
+      <c r="A77" s="27"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="78" ht="167" customHeight="1" spans="2:4">
-      <c r="B78" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C78" s="26" t="s">
+      <c r="E77" s="26"/>
+    </row>
+    <row r="78" ht="120" customHeight="1" spans="1:5">
+      <c r="A78" s="27"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D78" s="26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" ht="167" customHeight="1" spans="1:5">
+      <c r="E78" s="26"/>
+    </row>
+    <row r="79" ht="123" customHeight="1" spans="1:5">
       <c r="A79" s="27"/>
       <c r="B79" s="26"/>
-      <c r="C79" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26" t="s">
+        <v>119</v>
+      </c>
       <c r="E79" s="26"/>
     </row>
-    <row r="80" ht="224" customHeight="1" spans="1:5">
+    <row r="80" ht="126" customHeight="1" spans="1:5">
       <c r="A80" s="27"/>
       <c r="B80" s="26"/>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="26"/>
+      <c r="D80" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E80" s="26"/>
+    </row>
+    <row r="81" ht="128" customHeight="1" spans="2:4">
+      <c r="B81" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-    </row>
-    <row r="81" ht="149" customHeight="1" spans="1:5">
-      <c r="A81" s="27"/>
-      <c r="B81" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C81" s="32" t="s">
+      <c r="C81" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D81" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E81" s="33"/>
-    </row>
-    <row r="82" ht="145" spans="2:4">
-      <c r="B82" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C82" s="26" t="s">
+      <c r="D81" s="26" t="s">
         <v>123</v>
       </c>
+    </row>
+    <row r="82" ht="130" customHeight="1" spans="2:4">
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
       <c r="D82" s="26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="83" ht="104" customHeight="1" spans="1:8">
-      <c r="A83" s="25"/>
-      <c r="B83" s="26" t="s">
+    <row r="83" ht="121" customHeight="1" spans="2:5">
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="E83" s="26"/>
+    </row>
+    <row r="84" ht="119" customHeight="1" spans="2:5">
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E84" s="26"/>
+    </row>
+    <row r="85" ht="117" customHeight="1" spans="2:5">
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E85" s="26"/>
+    </row>
+    <row r="86" ht="129" customHeight="1" spans="2:5">
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E86" s="26"/>
+    </row>
+    <row r="87" ht="131" customHeight="1" spans="2:5">
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="E87" s="26"/>
+    </row>
+    <row r="88" ht="129" customHeight="1" spans="2:5">
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E88" s="26"/>
+    </row>
+    <row r="89" ht="141" customHeight="1" spans="2:5">
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="G83" t="s">
-        <v>60</v>
-      </c>
-      <c r="H83" s="28" t="s">
+      <c r="E89" s="26"/>
+    </row>
+    <row r="90" ht="124" customHeight="1" spans="2:4">
+      <c r="B90" s="26" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="84" ht="130.5" spans="2:4">
-      <c r="B84" s="26" t="s">
+      <c r="C90" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="D90" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D84" s="26" t="s">
+    </row>
+    <row r="91" ht="106" customHeight="1" spans="2:4">
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="85" ht="145" spans="2:4">
-      <c r="B85" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C85" s="26" t="s">
+    <row r="92" ht="104" customHeight="1" spans="2:5">
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="E92" s="26"/>
+    </row>
+    <row r="93" ht="127" customHeight="1" spans="2:5">
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="86" ht="130.5" spans="2:5">
-      <c r="B86" s="26"/>
-      <c r="C86" s="26" t="s">
+      <c r="E93" s="26"/>
+    </row>
+    <row r="94" ht="120" customHeight="1" spans="2:5">
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-    </row>
-    <row r="87" ht="130.5" spans="2:5">
-      <c r="B87" s="26"/>
-      <c r="C87" s="26" t="s">
+      <c r="E94" s="26"/>
+    </row>
+    <row r="95" ht="157" customHeight="1" spans="2:4">
+      <c r="B95" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-    </row>
-    <row r="88" ht="130.5" spans="2:5">
-      <c r="B88" s="26"/>
-      <c r="C88" s="26" t="s">
+      <c r="C95" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-    </row>
-    <row r="89" ht="130.5" spans="2:5">
-      <c r="B89" s="26"/>
-      <c r="C89" s="26" t="s">
+      <c r="D95" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-    </row>
-    <row r="90" ht="130.5" spans="2:5">
-      <c r="B90" s="26"/>
-      <c r="C90" s="26" t="s">
+    </row>
+    <row r="96" ht="115" customHeight="1" spans="2:5">
+      <c r="B96" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-    </row>
-    <row r="91" ht="116" spans="2:5">
-      <c r="B91" s="26"/>
-      <c r="C91" s="26" t="s">
+      <c r="C96" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-    </row>
-    <row r="92" ht="116" spans="2:5">
-      <c r="B92" s="26"/>
-      <c r="C92" s="26" t="s">
+      <c r="D96" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-    </row>
-    <row r="93" ht="130.5" spans="2:5">
-      <c r="B93" s="26"/>
-      <c r="C93" s="26" t="s">
+      <c r="E96" s="26"/>
+    </row>
+    <row r="97" ht="113" customHeight="1" spans="2:4">
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="23" t="s">
+    </row>
+    <row r="98" ht="115" customHeight="1" spans="2:4">
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-    </row>
-    <row r="95" ht="116" spans="2:4">
-      <c r="B95" s="26" t="s">
+    </row>
+    <row r="99" ht="132" customHeight="1" spans="2:4">
+      <c r="B99" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="C99" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="D95" s="26" t="s">
+      <c r="D99" s="26" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="96" ht="130.5" spans="2:4">
-      <c r="B96" s="26" t="s">
+    <row r="100" ht="134" customHeight="1" spans="2:5">
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C96" s="26" t="s">
+      <c r="E100" s="26"/>
+    </row>
+    <row r="101" ht="147" customHeight="1" spans="2:4">
+      <c r="B101" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D96" s="26" t="s">
+      <c r="C101" s="26" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="97" ht="130.5" spans="3:3">
-      <c r="C97" s="26" t="s">
+      <c r="D101" s="26" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="98" ht="116" spans="3:3">
-      <c r="C98" s="26" t="s">
+    <row r="102" ht="149" customHeight="1" spans="2:5">
+      <c r="B102" s="26"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E102" s="26"/>
+    </row>
+    <row r="103" ht="177" customHeight="1" spans="2:7">
+      <c r="B103" s="26" t="s">
         <v>150</v>
       </c>
+      <c r="C103" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E103" s="26"/>
+      <c r="G103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" ht="213" customHeight="1" spans="1:4">
+      <c r="A104" s="32"/>
+      <c r="B104" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" ht="232" customHeight="1" spans="1:5">
+      <c r="A105" s="27"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+    </row>
+    <row r="106" ht="224" customHeight="1" spans="1:5">
+      <c r="A106" s="27"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+    </row>
+    <row r="107" ht="149" customHeight="1" spans="1:5">
+      <c r="A107" s="27"/>
+      <c r="B107" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E107" s="34"/>
+    </row>
+    <row r="108" ht="174" spans="2:4">
+      <c r="B108" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" ht="104" customHeight="1" spans="1:8">
+      <c r="A109" s="25"/>
+      <c r="B109" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="G109" t="s">
+        <v>59</v>
+      </c>
+      <c r="H109" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" ht="145" spans="2:4">
+      <c r="B110" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" ht="159.5" spans="2:4">
+      <c r="B111" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" ht="145" spans="2:5">
+      <c r="B112" s="26"/>
+      <c r="C112" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+    </row>
+    <row r="113" ht="145" spans="2:5">
+      <c r="B113" s="26"/>
+      <c r="C113" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+    </row>
+    <row r="114" ht="145" spans="2:5">
+      <c r="B114" s="26"/>
+      <c r="C114" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+    </row>
+    <row r="115" ht="145" spans="2:5">
+      <c r="B115" s="26"/>
+      <c r="C115" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+    </row>
+    <row r="116" ht="145" spans="2:5">
+      <c r="B116" s="26"/>
+      <c r="C116" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+    </row>
+    <row r="117" ht="130.5" spans="2:5">
+      <c r="B117" s="26"/>
+      <c r="C117" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+    </row>
+    <row r="118" ht="130.5" spans="2:5">
+      <c r="B118" s="26"/>
+      <c r="C118" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
+    </row>
+    <row r="119" ht="145" spans="2:5">
+      <c r="B119" s="26"/>
+      <c r="C119" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
+    </row>
+    <row r="121" ht="116" spans="2:4">
+      <c r="B121" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="122" ht="130.5" spans="2:4">
+      <c r="B122" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="123" ht="130.5" spans="3:3">
+      <c r="C123" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="124" ht="116" spans="3:3">
+      <c r="C124" s="26" t="s">
+        <v>188</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="119">
+  <mergeCells count="158">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
@@ -3282,7 +3827,7 @@
     <mergeCell ref="D91:E91"/>
     <mergeCell ref="D92:E92"/>
     <mergeCell ref="D93:E93"/>
-    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="D94:E94"/>
     <mergeCell ref="D95:E95"/>
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="D97:E97"/>
@@ -3299,6 +3844,32 @@
     <mergeCell ref="D108:E108"/>
     <mergeCell ref="D109:E109"/>
     <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="A120:H120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D136:E136"/>
     <mergeCell ref="B13:B21"/>
     <mergeCell ref="B22:B31"/>
     <mergeCell ref="B35:B36"/>
@@ -3306,16 +3877,29 @@
     <mergeCell ref="B43:B47"/>
     <mergeCell ref="B50:B58"/>
     <mergeCell ref="B59:B66"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="B81:B89"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B102"/>
     <mergeCell ref="C13:C21"/>
     <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C35:C36"/>
     <mergeCell ref="C37:C42"/>
     <mergeCell ref="C43:C47"/>
     <mergeCell ref="C50:C58"/>
     <mergeCell ref="C59:C66"/>
+    <mergeCell ref="C71:C80"/>
+    <mergeCell ref="C81:C89"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
     <mergeCell ref="A1:D2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11 G14 G15 G16 G21 G22 G23 G24 G25 G32 G35 G36 G37 G38 G39 G40 G41 G42 G43 G46 G47 G48 G59 G64 G65 G66 G67 G68 G74 G78 G79 G80 G81 G82 G83 G84 G85 G88 G92 G93 G95 G96 G12:G13 G17:G18 G19:G20 G26:G31 G33:G34 G44:G45 G49:G50 G51:G58 G60:G61 G62:G63 G70:G73 G75:G77 G86:G87 G89:G91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11 G14 G15 G16 G21 G22 G23 G24 G25 G32 G35 G36 G37 G38 G39 G40 G41 G42 G43 G46 G47 G48 G59 G64 G65 G66 G67 G68 G81 G90 G95 G96 G97 G98 G99 G100 G101 G102 G103 G104 G105 G106 G107 G108 G109 G110 G111 G114 G118 G119 G121 G122 G12:G13 G17:G18 G19:G20 G26:G31 G33:G34 G44:G45 G49:G50 G51:G58 G60:G61 G62:G63 G70:G71 G72:G80 G82:G89 G91:G94 G112:G113 G115:G117">
       <formula1>"Pass,Fail,Pending"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Case/TestCase_LibraryManagementProject.xlsx
+++ b/Test Case/TestCase_LibraryManagementProject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="190">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -68,6 +68,9 @@
     <t>C</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>Test
 requirement :</t>
   </si>
@@ -1204,10 +1207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29">
@@ -1260,10 +1263,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1273,16 +1274,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1304,11 +1305,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1317,6 +1325,59 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1334,11 +1395,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1347,64 +1408,6 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1453,31 +1456,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,19 +1534,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1520,120 +1637,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1782,12 +1785,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1797,7 +1813,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1819,9 +1835,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1841,15 +1859,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1865,17 +1874,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1884,149 +1887,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2086,7 +2089,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2457,7 +2460,7 @@
   <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
@@ -2496,7 +2499,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" ht="19.95" customHeight="1" spans="1:6">
+    <row r="4" ht="19.95" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2508,27 +2511,30 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" ht="28.05" customHeight="1" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:4">
       <c r="A6" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="13">
         <f>COUNTIF(G11:G147,"Pass")</f>
         <v>12</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="15">
         <f>COUNTIF(G11:G147,"Pending")</f>
@@ -2537,14 +2543,14 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
       <c r="A7" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="17">
         <f>COUNTIF(G11:G147,"Fail")</f>
         <v>2</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="19">
         <f>COUNTA(A10:A147)-3</f>
@@ -2554,32 +2560,32 @@
     </row>
     <row r="9" ht="37.95" customHeight="1" spans="1:9">
       <c r="A9" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -2591,40 +2597,40 @@
     </row>
     <row r="11" ht="43.5" spans="1:4">
       <c r="A11" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="101.5" spans="1:4">
       <c r="A12" s="25"/>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="98" customHeight="1" spans="1:6">
       <c r="A13" s="27"/>
       <c r="B13" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="28"/>
     </row>
@@ -2633,7 +2639,7 @@
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="28"/>
     </row>
@@ -2642,7 +2648,7 @@
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="28"/>
@@ -2652,7 +2658,7 @@
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="28"/>
@@ -2662,7 +2668,7 @@
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="28"/>
@@ -2672,7 +2678,7 @@
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="28"/>
@@ -2682,7 +2688,7 @@
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="28"/>
@@ -2692,7 +2698,7 @@
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="28"/>
@@ -2702,7 +2708,7 @@
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="28"/>
@@ -2710,13 +2716,13 @@
     <row r="22" ht="101" customHeight="1" spans="1:6">
       <c r="A22" s="27"/>
       <c r="B22" s="26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" s="28"/>
     </row>
@@ -2725,12 +2731,12 @@
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="28"/>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="92" customHeight="1" spans="1:7">
@@ -2738,12 +2744,12 @@
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="28"/>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="102" customHeight="1" spans="1:7">
@@ -2751,12 +2757,12 @@
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="28"/>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="100" customHeight="1" spans="1:7">
@@ -2764,12 +2770,12 @@
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="28"/>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="99" customHeight="1" spans="1:7">
@@ -2777,12 +2783,12 @@
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="28"/>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="99" customHeight="1" spans="1:7">
@@ -2790,12 +2796,12 @@
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="28"/>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="97" customHeight="1" spans="1:7">
@@ -2803,12 +2809,12 @@
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="28"/>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="95" customHeight="1" spans="1:7">
@@ -2816,12 +2822,12 @@
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="28"/>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="88" customHeight="1" spans="1:6">
@@ -2829,7 +2835,7 @@
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="28"/>
@@ -2837,66 +2843,66 @@
     <row r="32" ht="105" customHeight="1" spans="1:7">
       <c r="A32" s="27"/>
       <c r="B32" s="26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="101.5" spans="1:8">
       <c r="A33" s="27"/>
       <c r="B33" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H33" s="30"/>
     </row>
     <row r="34" ht="101.5" spans="1:7">
       <c r="A34" s="27"/>
       <c r="B34" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="107" customHeight="1" spans="1:7">
       <c r="A35" s="27"/>
       <c r="B35" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="112" customHeight="1" spans="1:7">
@@ -2904,34 +2910,34 @@
       <c r="B36" s="26"/>
       <c r="C36" s="29"/>
       <c r="D36" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="28"/>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" ht="98" customHeight="1" spans="2:7">
       <c r="B37" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="128" customHeight="1" spans="2:6">
       <c r="B38" s="26"/>
       <c r="C38" s="29"/>
       <c r="D38" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="28"/>
@@ -2940,7 +2946,7 @@
       <c r="B39" s="26"/>
       <c r="C39" s="29"/>
       <c r="D39" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="28"/>
@@ -2949,7 +2955,7 @@
       <c r="B40" s="26"/>
       <c r="C40" s="29"/>
       <c r="D40" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="28"/>
@@ -2958,7 +2964,7 @@
       <c r="B41" s="26"/>
       <c r="C41" s="29"/>
       <c r="D41" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="28"/>
@@ -2967,23 +2973,23 @@
       <c r="B42" s="26"/>
       <c r="C42" s="29"/>
       <c r="D42" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="28"/>
       <c r="G42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="110" customHeight="1" spans="2:6">
       <c r="B43" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F43" s="28"/>
     </row>
@@ -2991,7 +2997,7 @@
       <c r="B44" s="26"/>
       <c r="C44" s="29"/>
       <c r="D44" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F44" s="28"/>
     </row>
@@ -2999,7 +3005,7 @@
       <c r="B45" s="26"/>
       <c r="C45" s="29"/>
       <c r="D45" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="28"/>
@@ -3008,7 +3014,7 @@
       <c r="B46" s="26"/>
       <c r="C46" s="29"/>
       <c r="D46" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="28"/>
@@ -3017,20 +3023,20 @@
       <c r="B47" s="26"/>
       <c r="C47" s="29"/>
       <c r="D47" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="28"/>
     </row>
     <row r="48" ht="100" customHeight="1" spans="2:6">
       <c r="B48" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="28"/>
@@ -3038,39 +3044,39 @@
     <row r="49" ht="87" spans="1:5">
       <c r="A49" s="25"/>
       <c r="B49" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E49" s="26"/>
     </row>
     <row r="50" ht="100" customHeight="1" spans="2:4">
       <c r="B50" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" ht="99" customHeight="1" spans="2:4">
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" ht="82" customHeight="1" spans="2:5">
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52" s="26"/>
     </row>
@@ -3078,7 +3084,7 @@
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53" s="26"/>
     </row>
@@ -3086,7 +3092,7 @@
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54" s="26"/>
     </row>
@@ -3094,7 +3100,7 @@
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
       <c r="D55" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55" s="26"/>
     </row>
@@ -3102,7 +3108,7 @@
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56" s="26"/>
     </row>
@@ -3110,7 +3116,7 @@
       <c r="B57" s="26"/>
       <c r="C57" s="26"/>
       <c r="D57" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57" s="26"/>
     </row>
@@ -3118,26 +3124,26 @@
       <c r="B58" s="26"/>
       <c r="C58" s="26"/>
       <c r="D58" s="26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="26"/>
     </row>
     <row r="59" ht="98" customHeight="1" spans="2:4">
       <c r="B59" s="26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" ht="98" customHeight="1" spans="2:5">
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
       <c r="D60" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E60" s="26"/>
     </row>
@@ -3145,7 +3151,7 @@
       <c r="B61" s="26"/>
       <c r="C61" s="26"/>
       <c r="D61" s="26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E61" s="26"/>
     </row>
@@ -3153,7 +3159,7 @@
       <c r="B62" s="26"/>
       <c r="C62" s="26"/>
       <c r="D62" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E62" s="26"/>
     </row>
@@ -3161,7 +3167,7 @@
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E63" s="26"/>
     </row>
@@ -3169,7 +3175,7 @@
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E64" s="26"/>
     </row>
@@ -3177,7 +3183,7 @@
       <c r="B65" s="26"/>
       <c r="C65" s="26"/>
       <c r="D65" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E65" s="26"/>
     </row>
@@ -3185,36 +3191,36 @@
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" ht="98" customHeight="1" spans="2:5">
       <c r="B67" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E67" s="26"/>
     </row>
     <row r="68" ht="98" customHeight="1" spans="2:5">
       <c r="B68" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E68" s="26"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
@@ -3227,25 +3233,25 @@
     <row r="70" ht="118" customHeight="1" spans="1:4">
       <c r="A70" s="25"/>
       <c r="B70" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" ht="99" customHeight="1" spans="1:4">
       <c r="A71" s="27"/>
       <c r="B71" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" ht="99" customHeight="1" spans="1:5">
@@ -3253,7 +3259,7 @@
       <c r="B72" s="26"/>
       <c r="C72" s="26"/>
       <c r="D72" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E72" s="26"/>
     </row>
@@ -3262,7 +3268,7 @@
       <c r="B73" s="26"/>
       <c r="C73" s="26"/>
       <c r="D73" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E73" s="26"/>
     </row>
@@ -3271,7 +3277,7 @@
       <c r="B74" s="26"/>
       <c r="C74" s="26"/>
       <c r="D74" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E74" s="26"/>
     </row>
@@ -3280,7 +3286,7 @@
       <c r="B75" s="26"/>
       <c r="C75" s="26"/>
       <c r="D75" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E75" s="26"/>
     </row>
@@ -3289,7 +3295,7 @@
       <c r="B76" s="26"/>
       <c r="C76" s="26"/>
       <c r="D76" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E76" s="26"/>
     </row>
@@ -3298,7 +3304,7 @@
       <c r="B77" s="26"/>
       <c r="C77" s="26"/>
       <c r="D77" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E77" s="26"/>
     </row>
@@ -3307,7 +3313,7 @@
       <c r="B78" s="26"/>
       <c r="C78" s="26"/>
       <c r="D78" s="26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E78" s="26"/>
     </row>
@@ -3316,7 +3322,7 @@
       <c r="B79" s="26"/>
       <c r="C79" s="26"/>
       <c r="D79" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E79" s="26"/>
     </row>
@@ -3325,33 +3331,33 @@
       <c r="B80" s="26"/>
       <c r="C80" s="26"/>
       <c r="D80" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E80" s="26"/>
     </row>
     <row r="81" ht="128" customHeight="1" spans="2:4">
       <c r="B81" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" ht="130" customHeight="1" spans="2:4">
       <c r="B82" s="26"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" ht="121" customHeight="1" spans="2:5">
       <c r="B83" s="26"/>
       <c r="C83" s="26"/>
       <c r="D83" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E83" s="26"/>
     </row>
@@ -3359,7 +3365,7 @@
       <c r="B84" s="26"/>
       <c r="C84" s="26"/>
       <c r="D84" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E84" s="26"/>
     </row>
@@ -3367,7 +3373,7 @@
       <c r="B85" s="26"/>
       <c r="C85" s="26"/>
       <c r="D85" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E85" s="26"/>
     </row>
@@ -3375,7 +3381,7 @@
       <c r="B86" s="26"/>
       <c r="C86" s="26"/>
       <c r="D86" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E86" s="26"/>
     </row>
@@ -3383,7 +3389,7 @@
       <c r="B87" s="26"/>
       <c r="C87" s="26"/>
       <c r="D87" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E87" s="26"/>
     </row>
@@ -3391,7 +3397,7 @@
       <c r="B88" s="26"/>
       <c r="C88" s="26"/>
       <c r="D88" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E88" s="26"/>
     </row>
@@ -3399,33 +3405,33 @@
       <c r="B89" s="26"/>
       <c r="C89" s="26"/>
       <c r="D89" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E89" s="26"/>
     </row>
     <row r="90" ht="124" customHeight="1" spans="2:4">
       <c r="B90" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" ht="106" customHeight="1" spans="2:4">
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" ht="104" customHeight="1" spans="2:5">
       <c r="B92" s="26"/>
       <c r="C92" s="26"/>
       <c r="D92" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E92" s="26"/>
     </row>
@@ -3433,7 +3439,7 @@
       <c r="B93" s="26"/>
       <c r="C93" s="26"/>
       <c r="D93" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E93" s="26"/>
     </row>
@@ -3441,30 +3447,30 @@
       <c r="B94" s="26"/>
       <c r="C94" s="26"/>
       <c r="D94" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E94" s="26"/>
     </row>
     <row r="95" ht="157" customHeight="1" spans="2:4">
       <c r="B95" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" ht="115" customHeight="1" spans="2:5">
       <c r="B96" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E96" s="26"/>
     </row>
@@ -3472,86 +3478,86 @@
       <c r="B97" s="26"/>
       <c r="C97" s="26"/>
       <c r="D97" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" ht="115" customHeight="1" spans="2:4">
       <c r="B98" s="26"/>
       <c r="C98" s="26"/>
       <c r="D98" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" ht="132" customHeight="1" spans="2:4">
       <c r="B99" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" ht="134" customHeight="1" spans="2:5">
       <c r="B100" s="26"/>
       <c r="C100" s="26"/>
       <c r="D100" s="26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E100" s="26"/>
     </row>
     <row r="101" ht="147" customHeight="1" spans="2:4">
       <c r="B101" s="26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" ht="149" customHeight="1" spans="2:5">
       <c r="B102" s="26"/>
       <c r="C102" s="26"/>
       <c r="D102" s="26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E102" s="26"/>
     </row>
     <row r="103" ht="177" customHeight="1" spans="2:7">
       <c r="B103" s="26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E103" s="26"/>
       <c r="G103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" ht="213" customHeight="1" spans="1:4">
       <c r="A104" s="32"/>
       <c r="B104" s="26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" ht="232" customHeight="1" spans="1:5">
       <c r="A105" s="27"/>
       <c r="B105" s="26"/>
       <c r="C105" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D105" s="26"/>
       <c r="E105" s="26"/>
@@ -3560,7 +3566,7 @@
       <c r="A106" s="27"/>
       <c r="B106" s="26"/>
       <c r="C106" s="26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D106" s="26"/>
       <c r="E106" s="26"/>
@@ -3568,71 +3574,71 @@
     <row r="107" ht="149" customHeight="1" spans="1:5">
       <c r="A107" s="27"/>
       <c r="B107" s="33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C107" s="33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E107" s="34"/>
     </row>
     <row r="108" ht="174" spans="2:4">
       <c r="B108" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" ht="104" customHeight="1" spans="1:8">
       <c r="A109" s="25"/>
       <c r="B109" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H109" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" ht="145" spans="2:4">
       <c r="B110" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" ht="159.5" spans="2:4">
       <c r="B111" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112" ht="145" spans="2:5">
       <c r="B112" s="26"/>
       <c r="C112" s="26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D112" s="26"/>
       <c r="E112" s="26"/>
@@ -3640,7 +3646,7 @@
     <row r="113" ht="145" spans="2:5">
       <c r="B113" s="26"/>
       <c r="C113" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D113" s="26"/>
       <c r="E113" s="26"/>
@@ -3648,7 +3654,7 @@
     <row r="114" ht="145" spans="2:5">
       <c r="B114" s="26"/>
       <c r="C114" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D114" s="26"/>
       <c r="E114" s="26"/>
@@ -3656,7 +3662,7 @@
     <row r="115" ht="145" spans="2:5">
       <c r="B115" s="26"/>
       <c r="C115" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D115" s="26"/>
       <c r="E115" s="26"/>
@@ -3664,7 +3670,7 @@
     <row r="116" ht="145" spans="2:5">
       <c r="B116" s="26"/>
       <c r="C116" s="26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D116" s="26"/>
       <c r="E116" s="26"/>
@@ -3672,7 +3678,7 @@
     <row r="117" ht="130.5" spans="2:5">
       <c r="B117" s="26"/>
       <c r="C117" s="26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D117" s="26"/>
       <c r="E117" s="26"/>
@@ -3680,7 +3686,7 @@
     <row r="118" ht="130.5" spans="2:5">
       <c r="B118" s="26"/>
       <c r="C118" s="26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D118" s="26"/>
       <c r="E118" s="26"/>
@@ -3688,14 +3694,14 @@
     <row r="119" ht="145" spans="2:5">
       <c r="B119" s="26"/>
       <c r="C119" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D119" s="26"/>
       <c r="E119" s="26"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
@@ -3707,34 +3713,34 @@
     </row>
     <row r="121" ht="116" spans="2:4">
       <c r="B121" s="26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" ht="130.5" spans="2:4">
       <c r="B122" s="26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" ht="130.5" spans="3:3">
       <c r="C123" s="26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="124" ht="116" spans="3:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="124" ht="130.5" spans="3:3">
       <c r="C124" s="26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/Test Case/TestCase_LibraryManagementProject.xlsx
+++ b/Test Case/TestCase_LibraryManagementProject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="324">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -65,12 +65,6 @@
     <t>CR100 - Export to excel</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>Test
 requirement :</t>
   </si>
@@ -128,6 +122,9 @@
   <si>
     <t>_ Mở được trang chủ
 _ Giống bản thiết kế</t>
+  </si>
+  <si>
+    <t>TC_02</t>
   </si>
   <si>
     <t>Tạo tài khoản</t>
@@ -146,6 +143,9 @@
 _ Giống bản thiết kế</t>
   </si>
   <si>
+    <t>TC_03</t>
+  </si>
+  <si>
     <t>Tạo tài khoản -
 Kiểm tra ràng buộc  - Mã độc giả</t>
   </si>
@@ -164,11 +164,17 @@
 </t>
   </si>
   <si>
+    <t>TC_04</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Cho phép nhập ký tự dấu ".", "_", "-" &amp; chữ
 </t>
+  </si>
+  <si>
+    <t>TC_05</t>
   </si>
   <si>
     <t>_ Mở được trang chủ
@@ -177,6 +183,9 @@
 _ Cho phép nhập toàn ký tự chữ</t>
   </si>
   <si>
+    <t>TC_06</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
@@ -184,6 +193,9 @@
 </t>
   </si>
   <si>
+    <t>TC_07</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
@@ -191,6 +203,9 @@
 </t>
   </si>
   <si>
+    <t>TC_08</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
@@ -198,6 +213,9 @@
 </t>
   </si>
   <si>
+    <t>TC_09</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
@@ -205,17 +223,26 @@
 </t>
   </si>
   <si>
+    <t>TC_10</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Không cho phép nhập toàn ký tự đặc biệt &amp; số
 </t>
+  </si>
+  <si>
+    <t>TC_11</t>
   </si>
   <si>
     <t>_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Không cho phép nhập &gt; 20 ký tự hay bỏ trống</t>
+  </si>
+  <si>
+    <t>TC_12</t>
   </si>
   <si>
     <t>Tạo tài khoản -
@@ -237,6 +264,9 @@
 </t>
   </si>
   <si>
+    <t>TC_13</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
@@ -244,6 +274,9 @@
 </t>
   </si>
   <si>
+    <t>TC_14</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
@@ -251,6 +284,9 @@
 </t>
   </si>
   <si>
+    <t>TC_15</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
@@ -258,6 +294,18 @@
 </t>
   </si>
   <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
@@ -265,11 +313,20 @@
 </t>
   </si>
   <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Không cho phép nhập &gt; 45 ký tự hay bỏ trống
 </t>
+  </si>
+  <si>
+    <t>TC_22</t>
   </si>
   <si>
     <t>Tạo tài khoản -
@@ -289,6 +346,9 @@
 _ Chỉ được phép chọn 1 trong 2 giới tính nam / nữ</t>
   </si>
   <si>
+    <t>TC_23</t>
+  </si>
+  <si>
     <t>Tạo tài khoản -
 Kiểm tra ràng buộc  - Đối tượng</t>
   </si>
@@ -306,6 +366,9 @@
 _ Chỉ được phép chọn 1 trong 2 đối tượng Sinh viên / Giảng viên</t>
   </si>
   <si>
+    <t>TC_24</t>
+  </si>
+  <si>
     <t>Tạo tài khoản -
 Kiểm tra ràng buộc - Khoa</t>
   </si>
@@ -323,6 +386,9 @@
 _ Chỉ được phép chọn 1 khoa</t>
   </si>
   <si>
+    <t>TC_25</t>
+  </si>
+  <si>
     <t>Tạo tài khoản -
 Kiểm tra ràng buộc - Ngày sinh</t>
   </si>
@@ -340,6 +406,9 @@
 _ Chọn được ngày, tháng, năm mong muốn</t>
   </si>
   <si>
+    <t>TC_26</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
@@ -348,6 +417,9 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>TC_27</t>
   </si>
   <si>
     <t>Tạo tài khoản -
@@ -368,6 +440,9 @@
 </t>
   </si>
   <si>
+    <t>TC_28</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
@@ -377,6 +452,9 @@
 </t>
   </si>
   <si>
+    <t>TC_29</t>
+  </si>
+  <si>
     <t>_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
@@ -384,6 +462,9 @@
 _ Cho phép nhập toàn ký tự chữ</t>
   </si>
   <si>
+    <t>TC_30</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
@@ -392,6 +473,9 @@
 </t>
   </si>
   <si>
+    <t>TC_31</t>
+  </si>
+  <si>
     <t>_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
@@ -399,11 +483,17 @@
 _ Không cho phép nhập toàn số</t>
   </si>
   <si>
+    <t>TC_32</t>
+  </si>
+  <si>
     <t>_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Ràng buộc được đuôi email là "@ou.edu.vn"
 _ Không cho phép nhập ký tự đặc biệt trước đuôi "@ou.edu.vn"</t>
+  </si>
+  <si>
+    <t>TC_33</t>
   </si>
   <si>
     <t>Tạo tài khoản -
@@ -423,29 +513,44 @@
 _ Ràng buộc được Số điện thoại bắt đầu bằng số 0 &amp; độ dài = 10 ký tự số</t>
   </si>
   <si>
+    <t>TC_34</t>
+  </si>
+  <si>
     <t>_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Không cho phép 0 &lt; độ dài ký tự số</t>
   </si>
   <si>
+    <t>TC_35</t>
+  </si>
+  <si>
     <t>_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Không cho phép độ dài &gt; 10 ký tự số</t>
   </si>
   <si>
+    <t>TC_36</t>
+  </si>
+  <si>
     <t>_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Không cho phép 0 &lt; độ dài &gt;= 10 ký tự số</t>
   </si>
   <si>
+    <t>TC_37</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form SignUp
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Không cho phép nhập ký tự chữ
 </t>
+  </si>
+  <si>
+    <t>TC_38</t>
   </si>
   <si>
     <t>Tạo tài khoản -
@@ -466,6 +571,9 @@
 </t>
   </si>
   <si>
+    <t>TC_39</t>
+  </si>
+  <si>
     <t>Đăng nhập</t>
   </si>
   <si>
@@ -481,6 +589,9 @@
 _ Giống bản thiết kế</t>
   </si>
   <si>
+    <t>TC_40</t>
+  </si>
+  <si>
     <t>Đăng nhập -
 Kiểm tra ràng buộc - User Name (Mã độc giả)</t>
   </si>
@@ -498,11 +609,17 @@
 </t>
   </si>
   <si>
+    <t>TC_41</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Cho phép nhập ký tự dấu chấm &amp; chữ
 </t>
+  </si>
+  <si>
+    <t>TC_42</t>
   </si>
   <si>
     <t>_ Mở được trang chủ
@@ -511,6 +628,9 @@
 _ Cho phép nhập toàn ký tự chữ</t>
   </si>
   <si>
+    <t>TC_43</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login
 _ Hiện thông báo cần nhập đủ các thông tin khác
@@ -518,6 +638,9 @@
 </t>
   </si>
   <si>
+    <t>TC_44</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login
 _ Hiện thông báo cần nhập đủ các thông tin khác
@@ -525,6 +648,9 @@
 </t>
   </si>
   <si>
+    <t>TC_45</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login
 _ Hiện thông báo cần nhập đủ các thông tin khác
@@ -532,6 +658,9 @@
 </t>
   </si>
   <si>
+    <t>TC_46</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login
 _ Hiện thông báo cần nhập đủ các thông tin khác
@@ -539,17 +668,26 @@
 </t>
   </si>
   <si>
+    <t>TC_47</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Không cho phép nhập toàn ký tự đặc biệt &amp; số
 </t>
+  </si>
+  <si>
+    <t>TC_48</t>
   </si>
   <si>
     <t>_ Mở được trang chủ
 _ Đến được form Login
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Không cho phép nhập &gt; 20 ký tự</t>
+  </si>
+  <si>
+    <t>TC_49</t>
   </si>
   <si>
     <t>Đăng nhập -
@@ -569,12 +707,18 @@
 </t>
   </si>
   <si>
+    <t>TC_50</t>
+  </si>
+  <si>
     <t>_ Mở được trang chủ
 _ Đến được form Login
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _  Không cho nhập 0 &gt; độ dài &gt; 5 hay bỏ trống</t>
   </si>
   <si>
+    <t>TC_51</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login
 _ Hiện thông báo cần nhập đủ các thông tin khác
@@ -582,11 +726,17 @@
 </t>
   </si>
   <si>
+    <t>TC_52</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Cho phép nhập toàn ký tự chữ
 </t>
+  </si>
+  <si>
+    <t>TC_53</t>
   </si>
   <si>
     <t>_ Mở được trang chủ
@@ -595,11 +745,23 @@
 _ Cho phép nhập toàn ký tự số</t>
   </si>
   <si>
+    <t>TC_54</t>
+  </si>
+  <si>
+    <t>TC_55</t>
+  </si>
+  <si>
+    <t>TC_56</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Không cho phép nhập toàn ký tự đặc biệt
 </t>
+  </si>
+  <si>
+    <t>TC_57</t>
   </si>
   <si>
     <t>Đăng nhập -
@@ -619,6 +781,9 @@
 _ Đến được form TradeInfors</t>
   </si>
   <si>
+    <t>TC_58</t>
+  </si>
+  <si>
     <t>Đăng nhập -
 Kiểm tra ràng buộc -
 Tài khoản Thủ thư</t>
@@ -630,7 +795,10 @@
 _ Đến được form Statistic</t>
   </si>
   <si>
-    <t>2. Kiểm tra giao diện người dùng - Sinh viên / Giảng Viên</t>
+    <t>2. Kiểm tra giao diện người dùng - Sinh viên / Giảng viên</t>
+  </si>
+  <si>
+    <t>TC_59</t>
   </si>
   <si>
     <t>Mượn sách -
@@ -652,6 +820,9 @@
 </t>
   </si>
   <si>
+    <t>TC_60</t>
+  </si>
+  <si>
     <t>Mượn sách -
 Thông tin khách -
 Kiểm tra ràng buộc -
@@ -674,6 +845,9 @@
 </t>
   </si>
   <si>
+    <t>TC_61</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login -&gt; Đăng nhập thành công
 _ Đến được form TradeInfors
@@ -682,6 +856,9 @@
 </t>
   </si>
   <si>
+    <t>TC_62</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login -&gt; Đăng nhập thành công
 _ Đến được form TradeInfors
@@ -690,6 +867,9 @@
 </t>
   </si>
   <si>
+    <t>TC_63</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login -&gt; Đăng nhập thành công
 _ Đến được form TradeInfors
@@ -698,6 +878,9 @@
 </t>
   </si>
   <si>
+    <t>TC_64</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login -&gt; Đăng nhập thành công
 _ Đến được form TradeInfors
@@ -706,6 +889,9 @@
 </t>
   </si>
   <si>
+    <t>TC_65</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login -&gt; Đăng nhập thành công
 _ Đến được form TradeInfors
@@ -714,6 +900,9 @@
 </t>
   </si>
   <si>
+    <t>TC_66</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login -&gt; Đăng nhập thành công
 _ Đến được form TradeInfors
@@ -722,6 +911,9 @@
 </t>
   </si>
   <si>
+    <t>TC_67</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login -&gt; Đăng nhập thành công
 _ Đến được form TradeInfors
@@ -730,6 +922,9 @@
 </t>
   </si>
   <si>
+    <t>TC_68</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login -&gt; Đăng nhập thành công
 _ Đến được form TradeInfors
@@ -738,12 +933,18 @@
 </t>
   </si>
   <si>
+    <t>TC_69</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login -&gt; Đăng nhập thành công
 _ Đến được form TradeInfors
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Không cho phép nhập &gt; 45 ký tự hay bỏ trống
 </t>
+  </si>
+  <si>
+    <t>TC_70</t>
   </si>
   <si>
     <t>Mượn sách -
@@ -767,12 +968,18 @@
 </t>
   </si>
   <si>
+    <t>TC_71</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login -&gt; Đăng nhập thành công
 _ Đến được form TradeInfors
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Cho phép nhập ký tự dấu ".", "_", "-" &amp; chữ
 </t>
+  </si>
+  <si>
+    <t>TC_72</t>
   </si>
   <si>
     <t>_ Mở được trang chủ
@@ -782,12 +989,30 @@
 _ Cho phép nhập toàn ký tự chữ</t>
   </si>
   <si>
+    <t>TC_73</t>
+  </si>
+  <si>
+    <t>TC_74</t>
+  </si>
+  <si>
+    <t>TC_75</t>
+  </si>
+  <si>
+    <t>TC_76</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login -&gt; Đăng nhập thành công
 _ Đến được form TradeInfors
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Không cho phép nhập toàn ký tự đặc biệt &amp; chữ
 </t>
+  </si>
+  <si>
+    <t>TC_77</t>
+  </si>
+  <si>
+    <t>TC_78</t>
   </si>
   <si>
     <t>_ Mở được trang chủ
@@ -795,6 +1020,9 @@
 _ Đến được form TradeInfors
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Không cho phép nhập &gt; 20 ký tự hay bỏ trống</t>
+  </si>
+  <si>
+    <t>TC_79</t>
   </si>
   <si>
     <t>Mượn sách -
@@ -817,6 +1045,9 @@
 _ Ràng buộc được Số điện thoại bắt đầu bằng số 0 &amp; độ dài = 10 ký tự số</t>
   </si>
   <si>
+    <t>TC_80</t>
+  </si>
+  <si>
     <t>_ Mở được trang chủ
 _ Đến được form Login -&gt; Đăng nhập thành công
 _ Đến được form TradeInfors
@@ -824,6 +1055,9 @@
 _ Không cho phép 0 &lt; độ dài ký tự số</t>
   </si>
   <si>
+    <t>TC_81</t>
+  </si>
+  <si>
     <t>_ Mở được trang chủ
 _ Đến được form Login -&gt; Đăng nhập thành công
 _ Đến được form TradeInfors
@@ -831,6 +1065,9 @@
 _ Không cho phép độ dài &gt; 10 ký tự số</t>
   </si>
   <si>
+    <t>TC_82</t>
+  </si>
+  <si>
     <t>_ Mở được trang chủ
 _ Đến được form Login -&gt; Đăng nhập thành công
 _ Đến được form TradeInfors
@@ -838,12 +1075,18 @@
 _ Không cho phép 0 &lt; độ dài &gt;= 10 ký tự số</t>
   </si>
   <si>
+    <t>TC_83</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login -&gt; Đăng nhập thành công
 _ Đến được form TradeInfors
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Không cho phép nhập ký tự chữ
 </t>
+  </si>
+  <si>
+    <t>TC_84</t>
   </si>
   <si>
     <t>Mượn sách -
@@ -866,6 +1109,9 @@
 _ Chỉ được phép chọn 1 trong 2 đối tượng Sinh viên / Giảng viên</t>
   </si>
   <si>
+    <t>TC_85</t>
+  </si>
+  <si>
     <t>Mượn sách -
 Thông tin khách -
 Kiểm tra ràng buộc -
@@ -887,6 +1133,9 @@
 </t>
   </si>
   <si>
+    <t>TC_86</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login -&gt; Đăng nhập thành công
 _ Đến được form TradeInfors
@@ -895,12 +1144,18 @@
 </t>
   </si>
   <si>
+    <t>TC_87</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login -&gt; Đăng nhập thành công
 _ Đến được form TradeInfors
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Số lượng &gt; 5
 </t>
+  </si>
+  <si>
+    <t>TC_88</t>
   </si>
   <si>
     <t>Mượn sách -
@@ -924,12 +1179,18 @@
 </t>
   </si>
   <si>
+    <t>TC_89</t>
+  </si>
+  <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login -&gt; Đăng nhập thành công
 _ Đến được form TradeInfors
 _ Hiện thông báo cần nhập đủ các thông tin khác
 _ Cho phép nhập thông tin ngày tháng năm theo đúng định dạng dd/MM/YY
 </t>
+  </si>
+  <si>
+    <t>TC_90</t>
   </si>
   <si>
     <t>Mượn sách -
@@ -952,6 +1213,12 @@
 _ Chọn được ngày, tháng, năm mong muốn</t>
   </si>
   <si>
+    <t>TC_91</t>
+  </si>
+  <si>
+    <t>TC_92</t>
+  </si>
+  <si>
     <t>Mượn sách -
 Thông tin khách -
 Kiểm tra ràng buộc -
@@ -974,6 +1241,9 @@
 </t>
   </si>
   <si>
+    <t>TC_93</t>
+  </si>
+  <si>
     <t>Mượn sách -
 Thông tin khách -
 Kiểm tra ràng buộc</t>
@@ -994,24 +1264,56 @@
 </t>
   </si>
   <si>
+    <t>TC_94</t>
+  </si>
+  <si>
+    <t>Mượn sách -
+Thông tin khách -
+Kiểm tra ràng buộc -
+Mã sách</t>
+  </si>
+  <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
 3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextField "Họ và tên", "Mã độc giả", "Số điện thoại". Chọn ComboBox "Đối tượng", tăng Spinner "Số lượng sách". Chọn / Nhập dữ liệu vào Date Picker "Ngày mượn" &amp; "Ngày trả"
-5:   Nhấn TitledPane "Thông tin sách" - &gt; Nhập dữ liệu vào TextField "Nhập mã sách" -&gt; Nhấn Button "Xác nhận"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitledPane "Thông tin khách hàng" -&gt; Nhập dữ liệu vào TextField "Họ và tên", "Mã độc giả", "Số điện thoại". Chọn ComboBox "Đối tượng", tăng Spinner "Số lượng sách". Chọn / Nhập dữ liệu vào Date Picker "Ngày mượn" &amp; "Ngày trả"
-5:   Nhấn TitledPane "Thông tin sách" - &gt; Nhập dữ liệu vào TextField "Nhập mã sách" -&gt; Nhấn Button "Xác nhận" - &gt; Nhấn Button "Cập nhật"
-</t>
-  </si>
-  <si>
-    <t>Mượn sách - Thông
-tin khách - Kiểm tra ràng buộc</t>
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Mượn sách" -&gt; Nhấn TitlePane "Thông tin khách hàng" -&gt; Chọn &amp; nhập đầy đủ các dữ liệu đúng cho thông tin khách hàng - &gt; Nhập dữ liệu vào TextField "Nhập mã sách" -&gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập ký tự dấu "," , chữ, số, 0 &lt; độ dài &lt;= 5</t>
+  </si>
+  <si>
+    <t>TC_95</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập ký tự dấu "," , chữ, 0 &lt; độ dài &lt;= 5</t>
+  </si>
+  <si>
+    <t>TC_96</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Hiện thông báo cần nhập đủ các thông tin khác
+_ Cho phép nhập ký tự dấu "," , số, 0 &lt; Mã sách &lt;= 5</t>
+  </si>
+  <si>
+    <t>TC_97</t>
+  </si>
+  <si>
+    <t>Mượn sách -
+Thông tin khách -
+Kiểm tra ràng buộc -
+Kiểm tra BOOK'S STATE</t>
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
@@ -1022,11 +1324,19 @@
   </si>
   <si>
     <t xml:space="preserve">_ Mở được trang chủ
-_ Đến được form Login
-_ Đăng nhập thành công
-_ Đến được form Mượn sách
-_ Không hiện thông báo lỗi
-</t>
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ So sánh chính xác Tên sách giống dưới Database, hiển thị Tình trạng sách đó đã được mượn hay chưa
+</t>
+  </si>
+  <si>
+    <t>TC_98</t>
+  </si>
+  <si>
+    <t>Mượn sách -
+Thông tin khách -
+Kiểm tra ràng buộc -
+Kiểm tra MEMBERCARD'S STATE</t>
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
@@ -1037,11 +1347,13 @@
   </si>
   <si>
     <t xml:space="preserve">_ Mở được trang chủ
-_ Đến được form Login
-_ Đăng nhập thành công
-_ Đến được form Mượn trả sách
-_ Không hiện thông báo lỗi
-</t>
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ So sánh chính xác Mã độc giả giống dưới Database, hiển thị tình trạng mã độc giả có bị khóa hay không
+</t>
+  </si>
+  <si>
+    <t>TC_99</t>
   </si>
   <si>
     <t xml:space="preserve">Trả sách </t>
@@ -1055,19 +1367,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">_ Mở được trang chủ
-_ Đến được form Login
-_ Đăng nhập thành công
-_ Đến được form Mượn trả sách
-_ Giống bản thiết kế
-</t>
-  </si>
-  <si>
     <t>Spinner "RÁCH, HƯ HỎNG" &amp; "MẤT" bị lỗi không thấy số lượng
 -&gt; ĐÃ SỬA</t>
   </si>
   <si>
-    <t>Trả sách - Kiểm tra ràng buộc</t>
+    <t>TC_100</t>
+  </si>
+  <si>
+    <t>Trả sách -
+Kiểm tra ràng buộc -
+Họ và tên</t>
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
@@ -1077,11 +1386,39 @@
 </t>
   </si>
   <si>
-    <t>_ Mở được trang chủ
-_ Đến được form Login
-_ Đăng nhập thành công
-_ Đến được form Mượn trả sách
-_ Hiện thông báo trả sách thành công</t>
+    <t>TC_101</t>
+  </si>
+  <si>
+    <t>TC_102</t>
+  </si>
+  <si>
+    <t>TC_103</t>
+  </si>
+  <si>
+    <t>TC_104</t>
+  </si>
+  <si>
+    <t>TC_105</t>
+  </si>
+  <si>
+    <t>TC_106</t>
+  </si>
+  <si>
+    <t>TC_107</t>
+  </si>
+  <si>
+    <t>TC_108</t>
+  </si>
+  <si>
+    <t>TC_109</t>
+  </si>
+  <si>
+    <t>TC_110</t>
+  </si>
+  <si>
+    <t>Trả sách -
+Kiểm tra ràng buộc -
+Mã độc giả</t>
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
@@ -1091,11 +1428,19 @@
 </t>
   </si>
   <si>
-    <t>_ Mở được trang chủ
-_ Đến được form Login
-_ Đăng nhập thành công
-_ Đến được form Mượn trả sách
-_ Hiện đầy đủ thông tin khách hàng &amp; tính đúng số tiền phạt (nếu có) trong phần RETURN BILL</t>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ So sánh chính xác Mã độc giả giống dưới Database
+</t>
+  </si>
+  <si>
+    <t>TC_111</t>
+  </si>
+  <si>
+    <t>Trả sách -
+Kiểm tra ràng buộc -
+Ngày mượn</t>
   </si>
   <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
@@ -1105,30 +1450,59 @@
 </t>
   </si>
   <si>
+    <t>TC_112</t>
+  </si>
+  <si>
+    <t>TC_113</t>
+  </si>
+  <si>
+    <t>Trả sách -
+Thông tin khách -
+Kiểm tra ràng buộc -
+Số lượng sách</t>
+  </si>
+  <si>
     <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
 3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Nhấn tăng Spinner "Số lượng sách" -&gt; Nhấn Button "XÁC NHẬN"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt; Nhấn giảm Spinner "Số lượng sách" -&gt; Nhấn Button "XÁC NHẬN"
-</t>
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Nhấn Spinner "Số lượng sách" - &gt; Nhấn Button "Xác nhận"
+</t>
+  </si>
+  <si>
+    <t>TC_114</t>
+  </si>
+  <si>
+    <t>TC_115</t>
+  </si>
+  <si>
+    <t>TC_116</t>
+  </si>
+  <si>
+    <t>Trả sách -
+Kiểm tra ràng buộc -
+Kiểm tra BOOK'S STATE BEFORE RETURN -
+Rách, hư hỏng</t>
   </si>
   <si>
     <t>1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
 3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", tăng Spinner "RÁCH, HƯ HỎNG" -&gt; Nhấn Button "XÁC NHẬN"</t>
-  </si>
-  <si>
-    <t>1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", giảm Spinner "RÁCH, HƯ HỎNG" -&gt; Nhấn Button "XÁC NHẬN"</t>
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", nhấn Spinner "RÁCH, HƯ HỎNG" -&gt; Nhấn Button "XÁC NHẬN"</t>
+  </si>
+  <si>
+    <t>TC_117</t>
+  </si>
+  <si>
+    <t>TC_118</t>
+  </si>
+  <si>
+    <t>TC_119</t>
+  </si>
+  <si>
+    <t>Trả sách -
+Kiểm tra ràng buộc -
+Kiểm tra BOOK'S STATE BEFORE RETURN -
+Mất</t>
   </si>
   <si>
     <t>1:   Mở hệ thống "Quản lý thư viện"
@@ -1137,19 +1511,58 @@
 4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", tăng Spinner "MẤT" -&gt; Nhấn Button "XÁC NHẬN"</t>
   </si>
   <si>
+    <t>TC_120</t>
+  </si>
+  <si>
+    <t>TC_121</t>
+  </si>
+  <si>
+    <t>TC_122</t>
+  </si>
+  <si>
+    <t>Trả sách -
+Kiểm tra ràng buộc -
+RETURN BILL</t>
+  </si>
+  <si>
     <t>1:   Mở hệ thống "Quản lý thư viện"
 2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
 3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", giảm Spinner "MẤT" -&gt; Nhấn Button "XÁC NHẬN"</t>
-  </si>
-  <si>
-    <t>1:   Mở hệ thống "Quản lý thư viện"
-2:   Chọn ComboBox "Đối Tượng" Sinh viên / Giảng viên  -&gt; Nhấn button "Đăng nhập"
-3:   Đến form Login -&gt; Nhập dữ liệu vào TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Đến Rectangle "BOOK'S STATE BEFORE RETURN", tăng / giảm Spinner "RÁCH, HƯ HỎNG" &amp; "MẤT" -&gt; Nhấn Button "XÁC NHẬN"</t>
+4:   Đến form TradeInfors -&gt; Nhấn Tab "Trả sách" -&gt;  Chọn / nhập đầy đủ thông tin, chọn bên phần BOOK'S STATE BEFORE RETURN -&gt; Nhấn Button "XEM HÓA ĐƠN"</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Trường hợp chỉ Rách, hư hỏng
+_ Hiển thị đúng thông tin khách hàng, tính chính xác số tiền phạt (Nếu có)</t>
+  </si>
+  <si>
+    <t>TC_123</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Trường hợp chỉ Mất
+_ Hiển thị đúng thông tin khách hàng, tính chính xác số tiền phạt (Nếu có)</t>
+  </si>
+  <si>
+    <t>TC_124</t>
+  </si>
+  <si>
+    <t>_ Mở được trang chủ
+_ Đến được form Login -&gt; Đăng nhập thành công
+_ Đến được form TradeInfors
+_ Trường hợp Rách, hư hỏng &amp; Mất
+_ 0 &lt; Tổng số sách Rách, hư hỏng &amp; Mất &lt;= 5
+_ Hiển thị đúng thông tin khách hàng, tính chính xác số tiền phạt.</t>
   </si>
   <si>
     <t>3. Kiểm tra giao diện người dùng - Thủ thư</t>
+  </si>
+  <si>
+    <t>TC_125</t>
   </si>
   <si>
     <t>Thống kê sách</t>
@@ -1158,16 +1571,12 @@
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn ComboBox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
 3: Đến form "Login" -&gt; Nhập TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4: Đến form "THỐNG KÊ SÁCH TRONG NĂM 2020"
+4: Đến form Statistic
 5: Kiểm tra các thành phần có giống với thiết kế
 </t>
   </si>
   <si>
-    <t>_ Mở được trang chủ
-_ Đến được form Login
-_ Đăng nhập thành công
-_ Đến được form THỐNG KÊ SÁCH TRONG NĂM
-_ Giống bản thiết kế</t>
+    <t>TC_126</t>
   </si>
   <si>
     <t xml:space="preserve"> Thống kê sách - Kiểm tra ràng buộc</t>
@@ -1175,30 +1584,52 @@
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn ComboBox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
-3: Đến form "Login" -&gt; Nhập TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4: Đến form "THỐNG KÊ SÁCH TRONG NĂM 2020" -&gt; Nhấn RadioButton "QUÝ (1/ 2/ 3/ 4)" hoặc "NĂM" -&gt; Nhấn button "KIỂM TRA"
+3: Đến form Login -&gt; Nhập TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+4: Đến form Statistic -&gt; Nhấn RadioButton "QUÝ " (1/2/3/4) hoặc "NĂM"
 </t>
   </si>
   <si>
     <t xml:space="preserve">_ Mở được trang chủ
 _ Đến được form Login
-_ Đăng nhập thành công
-_ Đến được form THỐNG KÊ SÁCH TRONG NĂM
-_ Trả về kết quả thống kê
-</t>
+_ Nhập đúng các thông tin -&gt; Đăng nhập thành công
+_ Đến được form Statistic
+_ Chỉ được chọn 1
+</t>
+  </si>
+  <si>
+    <t>TC_127</t>
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn ComboBox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
-3: Đến form "Login" -&gt; Nhập TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4: Đến form "THỐNG KÊ SÁCH TRONG NĂM 2020" -&gt; Nhấn RadioButton "QUÝ (1/ 2/ 3/ 4)" -&gt; Nhấn button "KIỂM TRA"
-</t>
+3: Đến form Login -&gt; Nhập TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+4: Đến form Statistic -&gt; Nhấn RadioButton "QUÝ" (1/ 2/ 3/ 4) -&gt; Nhấn button "KIỂM TRA"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login
+_ Nhập đúng các thông tin -&gt; Đăng nhập thành công
+_ Đến được form Statistic
+_ Trả về kết quả thống kê theo từng quý
+</t>
+  </si>
+  <si>
+    <t>TC_128</t>
   </si>
   <si>
     <t xml:space="preserve">1: Mở hệ thống "Quản lý thư viện"
 2: Chọn ComboBox "Đối tượng" -&gt; chọn "Thủ thư" -&gt; Nhấn button "Đăng nhập"
-3: Đến form "Login" -&gt; Nhập TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
-4: Đến form "THỐNG KÊ SÁCH TRONG NĂM 2020" -&gt; Nhấn RadioButton "NĂM" -&gt; Nhấn button "KIỂM TRA"
+3: Đến form Login -&gt; Nhập TextField "User Name" &amp; "Password" -&gt; Nhấn button "ĐĂNG NHẬP"
+4: Đến form Statistic -&gt; Nhấn RadioButton "NĂM" -&gt; Nhấn button "KIỂM TRA"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ Mở được trang chủ
+_ Đến được form Login
+_ Nhập đúng các thông tin -&gt; Đăng nhập thành công
+_ Đến được form Statistic
+_ Trả về kết quả thống kê theo năm
 </t>
   </si>
 </sst>
@@ -1207,13 +1638,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1240,19 +1671,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1263,8 +1698,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1275,23 +1720,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1312,11 +1748,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1336,15 +1771,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1353,43 +1782,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1411,6 +1803,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1423,7 +1858,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1444,13 +1879,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,7 +1921,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,37 +1999,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,127 +2053,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1785,21 +2208,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1809,11 +2217,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1845,6 +2268,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1858,42 +2305,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1905,135 +2328,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2089,7 +2512,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2107,35 +2530,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2457,16 +2898,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.1090909090909" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.1272727272727" style="2" customWidth="1"/>
     <col min="3" max="3" width="43.8" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.2181818181818" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.3727272727273" style="2" customWidth="1"/>
@@ -2499,7 +2940,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" ht="19.95" customHeight="1" spans="1:7">
+    <row r="4" ht="19.95" customHeight="1" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2508,84 +2949,81 @@
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
+      <c r="F4">
+        <v>123</v>
       </c>
     </row>
     <row r="5" ht="28.05" customHeight="1" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:4">
       <c r="A6" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="13">
-        <f>COUNTIF(G11:G147,"Pass")</f>
+        <f>COUNTIF(G11:G163,"Pass")</f>
         <v>12</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="15">
-        <f>COUNTIF(G11:G147,"Pending")</f>
+        <f>COUNTIF(G11:G163,"Pending")</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
       <c r="A7" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="17">
-        <f>COUNTIF(G11:G147,"Fail")</f>
+        <f>COUNTIF(G11:G163,"Fail")</f>
         <v>2</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="19">
-        <f>COUNTA(A10:A147)-3</f>
-        <v>1</v>
+        <f>COUNTA(A10:A163)-3</f>
+        <v>128</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="9" ht="37.95" customHeight="1" spans="1:9">
       <c r="A9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="D9" s="22" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>16</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" ht="15" spans="1:8">
+      <c r="A10" s="23" t="s">
         <v>18</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="23" t="s">
-        <v>20</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -2595,1156 +3033,2020 @@
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" ht="43.5" spans="1:4">
+    <row r="11" ht="60" spans="1:8">
       <c r="A11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" ht="135" spans="1:8">
+      <c r="A12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" ht="101.5" spans="1:4">
-      <c r="A12" s="25"/>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" ht="98" customHeight="1" spans="1:8">
+      <c r="A13" s="25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" ht="98" customHeight="1" spans="1:6">
-      <c r="A13" s="27"/>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" ht="98" customHeight="1" spans="1:6">
-      <c r="A14" s="27"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" ht="98" customHeight="1" spans="1:8">
+      <c r="A14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" ht="87" customHeight="1" spans="1:6">
-      <c r="A15" s="27"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" ht="102" customHeight="1" spans="1:6">
-      <c r="A16" s="27"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" ht="87" customHeight="1" spans="1:8">
+      <c r="A15" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" ht="102" customHeight="1" spans="1:6">
-      <c r="A17" s="27"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="28"/>
-    </row>
-    <row r="18" ht="102" customHeight="1" spans="1:6">
-      <c r="A18" s="27"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26" t="s">
+      <c r="E15" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" ht="102" customHeight="1" spans="1:8">
+      <c r="A16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" ht="102" customHeight="1" spans="1:6">
-      <c r="A19" s="27"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="28"/>
-    </row>
-    <row r="20" ht="102" customHeight="1" spans="1:6">
-      <c r="A20" s="27"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" ht="102" customHeight="1" spans="1:8">
+      <c r="A17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="28"/>
-    </row>
-    <row r="21" ht="102" customHeight="1" spans="1:6">
-      <c r="A21" s="27"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" ht="101" customHeight="1" spans="1:6">
-      <c r="A22" s="27"/>
-      <c r="B22" s="26" t="s">
+      <c r="E17" s="31"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" ht="102" customHeight="1" spans="1:8">
+      <c r="A18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E18" s="31"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" ht="102" customHeight="1" spans="1:8">
+      <c r="A19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" ht="92" customHeight="1" spans="1:7">
-      <c r="A23" s="27"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="28"/>
-      <c r="G23" t="s">
+      <c r="E19" s="31"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" ht="102" customHeight="1" spans="1:8">
+      <c r="A20" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" ht="102" customHeight="1" spans="1:8">
+      <c r="A21" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" ht="101" customHeight="1" spans="1:8">
+      <c r="A22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" ht="92" customHeight="1" spans="1:8">
+      <c r="A23" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" ht="92" customHeight="1" spans="1:8">
+      <c r="A24" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" ht="92" customHeight="1" spans="1:7">
-      <c r="A24" s="27"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="28"/>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" ht="102" customHeight="1" spans="1:7">
-      <c r="A25" s="27"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26" t="s">
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" ht="102" customHeight="1" spans="1:8">
+      <c r="A25" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" ht="100" customHeight="1" spans="1:8">
+      <c r="A26" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" ht="99" customHeight="1" spans="1:8">
+      <c r="A27" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" ht="99" customHeight="1" spans="1:8">
+      <c r="A28" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="29"/>
+    </row>
+    <row r="29" ht="97" customHeight="1" spans="1:8">
+      <c r="A29" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="29"/>
+    </row>
+    <row r="30" ht="95" customHeight="1" spans="1:8">
+      <c r="A30" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="28"/>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" ht="100" customHeight="1" spans="1:7">
-      <c r="A26" s="27"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="28"/>
-      <c r="G26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" ht="99" customHeight="1" spans="1:7">
-      <c r="A27" s="27"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="28"/>
-      <c r="G27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" ht="99" customHeight="1" spans="1:7">
-      <c r="A28" s="27"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="28"/>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" ht="97" customHeight="1" spans="1:7">
-      <c r="A29" s="27"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="28"/>
-      <c r="G29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" ht="95" customHeight="1" spans="1:7">
-      <c r="A30" s="27"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="28"/>
-      <c r="G30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" ht="88" customHeight="1" spans="1:6">
-      <c r="A31" s="27"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" ht="105" customHeight="1" spans="1:7">
-      <c r="A32" s="27"/>
-      <c r="B32" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="28"/>
-      <c r="G32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" ht="101.5" spans="1:8">
-      <c r="A33" s="27"/>
-      <c r="B33" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="28"/>
-      <c r="G33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="30"/>
-    </row>
-    <row r="34" ht="101.5" spans="1:7">
-      <c r="A34" s="27"/>
-      <c r="B34" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="28"/>
-      <c r="G34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" ht="107" customHeight="1" spans="1:7">
-      <c r="A35" s="27"/>
-      <c r="B35" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="28"/>
-      <c r="G35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" ht="112" customHeight="1" spans="1:7">
-      <c r="A36" s="27"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="28"/>
-      <c r="G36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" ht="98" customHeight="1" spans="2:7">
-      <c r="B37" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="26" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" ht="88" customHeight="1" spans="1:8">
+      <c r="A31" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="28"/>
-      <c r="G37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" ht="128" customHeight="1" spans="2:6">
-      <c r="B38" s="26"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="26" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="28"/>
-    </row>
-    <row r="39" ht="117" customHeight="1" spans="2:6">
-      <c r="B39" s="26"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="26" t="s">
+      <c r="E31" s="31"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+    </row>
+    <row r="32" ht="105" customHeight="1" spans="1:8">
+      <c r="A32" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="28"/>
-    </row>
-    <row r="40" ht="117" customHeight="1" spans="2:6">
-      <c r="B40" s="26"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="26" t="s">
+      <c r="B32" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="28"/>
-    </row>
-    <row r="41" ht="117" customHeight="1" spans="2:6">
-      <c r="B41" s="26"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="26" t="s">
+      <c r="C32" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="28"/>
-    </row>
-    <row r="42" ht="129" customHeight="1" spans="2:7">
-      <c r="B42" s="26"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="26" t="s">
+      <c r="D32" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="28"/>
-      <c r="G42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" ht="110" customHeight="1" spans="2:6">
-      <c r="B43" s="26" t="s">
+      <c r="E32" s="28"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="29"/>
+    </row>
+    <row r="33" ht="120" spans="1:8">
+      <c r="A33" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="B33" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="C33" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="28"/>
-    </row>
-    <row r="44" ht="100" customHeight="1" spans="2:6">
-      <c r="B44" s="26"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="26" t="s">
+      <c r="D33" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="F44" s="28"/>
-    </row>
-    <row r="45" ht="98" customHeight="1" spans="2:6">
-      <c r="B45" s="26"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="26" t="s">
+      <c r="E33" s="28"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="33"/>
+    </row>
+    <row r="34" ht="120" spans="1:8">
+      <c r="A34" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="28"/>
-    </row>
-    <row r="46" ht="98" customHeight="1" spans="2:6">
-      <c r="B46" s="26"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="26" t="s">
+      <c r="B34" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="28"/>
-    </row>
-    <row r="47" ht="87" customHeight="1" spans="2:6">
-      <c r="B47" s="26"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="26" t="s">
+      <c r="C34" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="28"/>
-    </row>
-    <row r="48" ht="100" customHeight="1" spans="2:6">
-      <c r="B48" s="26" t="s">
+      <c r="D34" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="E34" s="28"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="29"/>
+    </row>
+    <row r="35" ht="107" customHeight="1" spans="1:8">
+      <c r="A35" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="B35" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="26"/>
-      <c r="F48" s="28"/>
-    </row>
-    <row r="49" ht="87" spans="1:5">
-      <c r="A49" s="25"/>
-      <c r="B49" s="2" t="s">
+      <c r="C35" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="D35" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="E35" s="28"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="29"/>
+    </row>
+    <row r="36" ht="112" customHeight="1" spans="1:8">
+      <c r="A36" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="26"/>
-    </row>
-    <row r="50" ht="100" customHeight="1" spans="2:4">
-      <c r="B50" s="26" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="E36" s="31"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" ht="98" customHeight="1" spans="1:8">
+      <c r="A37" s="25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="51" ht="99" customHeight="1" spans="2:4">
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26" t="s">
+      <c r="B37" s="27" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="52" ht="82" customHeight="1" spans="2:5">
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26" t="s">
+      <c r="C37" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="E52" s="26"/>
-    </row>
-    <row r="53" ht="97" customHeight="1" spans="2:5">
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26" t="s">
+      <c r="D37" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E53" s="26"/>
-    </row>
-    <row r="54" ht="101" customHeight="1" spans="2:5">
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26" t="s">
+      <c r="E37" s="28"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" ht="128" customHeight="1" spans="1:8">
+      <c r="A38" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E54" s="26"/>
-    </row>
-    <row r="55" ht="101" customHeight="1" spans="2:5">
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="26"/>
-    </row>
-    <row r="56" ht="99" customHeight="1" spans="2:5">
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26" t="s">
+      <c r="E38" s="31"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+    </row>
+    <row r="39" ht="117" customHeight="1" spans="1:8">
+      <c r="A39" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E56" s="26"/>
-    </row>
-    <row r="57" ht="105" customHeight="1" spans="2:5">
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26" t="s">
+      <c r="B39" s="31"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="26"/>
-    </row>
-    <row r="58" ht="80" customHeight="1" spans="2:5">
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26" t="s">
+      <c r="E39" s="31"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+    </row>
+    <row r="40" ht="117" customHeight="1" spans="1:8">
+      <c r="A40" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E58" s="26"/>
-    </row>
-    <row r="59" ht="98" customHeight="1" spans="2:4">
-      <c r="B59" s="26" t="s">
+      <c r="B40" s="31"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="E40" s="31"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+    </row>
+    <row r="41" ht="117" customHeight="1" spans="1:8">
+      <c r="A41" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="B41" s="31"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="60" ht="98" customHeight="1" spans="2:5">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26" t="s">
+      <c r="E41" s="31"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+    </row>
+    <row r="42" ht="129" customHeight="1" spans="1:8">
+      <c r="A42" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E60" s="26"/>
-    </row>
-    <row r="61" ht="98" customHeight="1" spans="2:5">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26" t="s">
+      <c r="B42" s="31"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E61" s="26"/>
-    </row>
-    <row r="62" ht="98" customHeight="1" spans="2:5">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26" t="s">
+      <c r="E42" s="31"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="29"/>
+    </row>
+    <row r="43" ht="110" customHeight="1" spans="1:8">
+      <c r="A43" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="26"/>
-    </row>
-    <row r="63" ht="98" customHeight="1" spans="2:5">
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26" t="s">
+      <c r="B43" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="E63" s="26"/>
-    </row>
-    <row r="64" ht="98" customHeight="1" spans="2:5">
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E64" s="26"/>
-    </row>
-    <row r="65" ht="98" customHeight="1" spans="2:5">
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="26"/>
-    </row>
-    <row r="66" ht="98" customHeight="1" spans="2:4">
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26" t="s">
+      <c r="C43" s="27" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" ht="98" customHeight="1" spans="2:5">
-      <c r="B67" s="26" t="s">
+      <c r="D43" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="E43" s="28"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+    </row>
+    <row r="44" ht="100" customHeight="1" spans="1:8">
+      <c r="A44" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="B44" s="31"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E67" s="26"/>
-    </row>
-    <row r="68" ht="98" customHeight="1" spans="2:5">
-      <c r="B68" s="26" t="s">
+      <c r="E44" s="28"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+    </row>
+    <row r="45" ht="98" customHeight="1" spans="1:8">
+      <c r="A45" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C68" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="26" t="s">
+      <c r="B45" s="31"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E68" s="26"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="23" t="s">
+      <c r="E45" s="31"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+    </row>
+    <row r="46" ht="98" customHeight="1" spans="1:8">
+      <c r="A46" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-    </row>
-    <row r="70" ht="118" customHeight="1" spans="1:4">
-      <c r="A70" s="25"/>
-      <c r="B70" s="26" t="s">
+      <c r="B46" s="31"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="E46" s="31"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+    </row>
+    <row r="47" ht="87" customHeight="1" spans="1:8">
+      <c r="A47" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="B47" s="31"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="71" ht="99" customHeight="1" spans="1:4">
-      <c r="A71" s="27"/>
-      <c r="B71" s="26" t="s">
+      <c r="E47" s="31"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+    </row>
+    <row r="48" ht="100" customHeight="1" spans="1:8">
+      <c r="A48" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="B48" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="C48" s="27" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="72" ht="99" customHeight="1" spans="1:5">
-      <c r="A72" s="27"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26" t="s">
+      <c r="D48" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E72" s="26"/>
-    </row>
-    <row r="73" ht="90" customHeight="1" spans="1:5">
-      <c r="A73" s="27"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26" t="s">
+      <c r="E48" s="31"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+    </row>
+    <row r="49" ht="90" spans="1:8">
+      <c r="A49" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E73" s="26"/>
-    </row>
-    <row r="74" ht="103" customHeight="1" spans="1:5">
-      <c r="A74" s="27"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26" t="s">
+      <c r="B49" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E74" s="26"/>
-    </row>
-    <row r="75" ht="107" customHeight="1" spans="1:5">
-      <c r="A75" s="27"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26" t="s">
+      <c r="C49" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="26"/>
-    </row>
-    <row r="76" ht="124" customHeight="1" spans="1:5">
-      <c r="A76" s="27"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26" t="s">
+      <c r="D49" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="E76" s="26"/>
-    </row>
-    <row r="77" ht="122" customHeight="1" spans="1:5">
-      <c r="A77" s="27"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26" t="s">
+      <c r="E49" s="31"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+    </row>
+    <row r="50" ht="100" customHeight="1" spans="1:8">
+      <c r="A50" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E77" s="26"/>
-    </row>
-    <row r="78" ht="120" customHeight="1" spans="1:5">
-      <c r="A78" s="27"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26" t="s">
+      <c r="B50" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E78" s="26"/>
-    </row>
-    <row r="79" ht="123" customHeight="1" spans="1:5">
-      <c r="A79" s="27"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26" t="s">
+      <c r="C50" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E79" s="26"/>
-    </row>
-    <row r="80" ht="126" customHeight="1" spans="1:5">
-      <c r="A80" s="27"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26" t="s">
+      <c r="D50" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E80" s="26"/>
-    </row>
-    <row r="81" ht="128" customHeight="1" spans="2:4">
-      <c r="B81" s="26" t="s">
+      <c r="E50" s="28"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+    </row>
+    <row r="51" ht="99" customHeight="1" spans="1:8">
+      <c r="A51" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C81" s="26" t="s">
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D81" s="26" t="s">
+      <c r="E51" s="28"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+    </row>
+    <row r="52" ht="82" customHeight="1" spans="1:8">
+      <c r="A52" s="25" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="82" ht="130" customHeight="1" spans="2:4">
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26" t="s">
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="27" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="83" ht="121" customHeight="1" spans="2:5">
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26" t="s">
+      <c r="E52" s="31"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+    </row>
+    <row r="53" ht="97" customHeight="1" spans="1:8">
+      <c r="A53" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E83" s="26"/>
-    </row>
-    <row r="84" ht="119" customHeight="1" spans="2:5">
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E84" s="26"/>
-    </row>
-    <row r="85" ht="117" customHeight="1" spans="2:5">
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E85" s="26"/>
-    </row>
-    <row r="86" ht="129" customHeight="1" spans="2:5">
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E86" s="26"/>
-    </row>
-    <row r="87" ht="131" customHeight="1" spans="2:5">
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26" t="s">
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="E87" s="26"/>
-    </row>
-    <row r="88" ht="129" customHeight="1" spans="2:5">
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="E88" s="26"/>
-    </row>
-    <row r="89" ht="141" customHeight="1" spans="2:5">
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26" t="s">
+      <c r="E53" s="31"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+    </row>
+    <row r="54" ht="101" customHeight="1" spans="1:8">
+      <c r="A54" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="E89" s="26"/>
-    </row>
-    <row r="90" ht="124" customHeight="1" spans="2:4">
-      <c r="B90" s="26" t="s">
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="E54" s="31"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+    </row>
+    <row r="55" ht="101" customHeight="1" spans="1:8">
+      <c r="A55" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D90" s="26" t="s">
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="27" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="91" ht="106" customHeight="1" spans="2:4">
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26" t="s">
+      <c r="E55" s="31"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+    </row>
+    <row r="56" ht="99" customHeight="1" spans="1:8">
+      <c r="A56" s="25" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="92" ht="104" customHeight="1" spans="2:5">
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26" t="s">
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="E92" s="26"/>
-    </row>
-    <row r="93" ht="127" customHeight="1" spans="2:5">
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26" t="s">
+      <c r="E56" s="31"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+    </row>
+    <row r="57" ht="105" customHeight="1" spans="1:8">
+      <c r="A57" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E93" s="26"/>
-    </row>
-    <row r="94" ht="120" customHeight="1" spans="2:5">
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26" t="s">
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="E94" s="26"/>
-    </row>
-    <row r="95" ht="157" customHeight="1" spans="2:4">
-      <c r="B95" s="26" t="s">
+      <c r="E57" s="31"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+    </row>
+    <row r="58" ht="80" customHeight="1" spans="1:8">
+      <c r="A58" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D95" s="26" t="s">
+      <c r="E58" s="31"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+    </row>
+    <row r="59" ht="98" customHeight="1" spans="1:8">
+      <c r="A59" s="25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="96" ht="115" customHeight="1" spans="2:5">
-      <c r="B96" s="26" t="s">
+      <c r="B59" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C96" s="26" t="s">
+      <c r="C59" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D96" s="26" t="s">
+      <c r="D59" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="E96" s="26"/>
-    </row>
-    <row r="97" ht="113" customHeight="1" spans="2:4">
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26" t="s">
+      <c r="E59" s="28"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" ht="98" customHeight="1" spans="1:8">
+      <c r="A60" s="25" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="98" ht="115" customHeight="1" spans="2:4">
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26" t="s">
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="27" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="99" ht="132" customHeight="1" spans="2:4">
-      <c r="B99" s="26" t="s">
+      <c r="E60" s="31"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" ht="98" customHeight="1" spans="1:8">
+      <c r="A61" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C99" s="26" t="s">
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D99" s="26" t="s">
+      <c r="E61" s="31"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" ht="98" customHeight="1" spans="1:8">
+      <c r="A62" s="25" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="100" ht="134" customHeight="1" spans="2:5">
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26" t="s">
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E100" s="26"/>
-    </row>
-    <row r="101" ht="147" customHeight="1" spans="2:4">
-      <c r="B101" s="26" t="s">
+      <c r="E62" s="31"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+    </row>
+    <row r="63" ht="98" customHeight="1" spans="1:8">
+      <c r="A63" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D101" s="26" t="s">
+      <c r="E63" s="31"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+    </row>
+    <row r="64" ht="98" customHeight="1" spans="1:8">
+      <c r="A64" s="25" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="102" ht="149" customHeight="1" spans="2:5">
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E102" s="26"/>
-    </row>
-    <row r="103" ht="177" customHeight="1" spans="2:7">
-      <c r="B103" s="26" t="s">
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="31"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+    </row>
+    <row r="65" ht="98" customHeight="1" spans="1:8">
+      <c r="A65" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C103" s="26" t="s">
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="31"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+    </row>
+    <row r="66" ht="98" customHeight="1" spans="1:8">
+      <c r="A66" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D103" s="26" t="s">
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="E103" s="26"/>
-      <c r="G103" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="104" ht="213" customHeight="1" spans="1:4">
-      <c r="A104" s="32"/>
-      <c r="B104" s="26" t="s">
+      <c r="E66" s="28"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+    </row>
+    <row r="67" ht="98" customHeight="1" spans="1:8">
+      <c r="A67" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C104" s="26" t="s">
+      <c r="B67" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="D104" s="26" t="s">
+      <c r="C67" s="27" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="105" ht="232" customHeight="1" spans="1:5">
-      <c r="A105" s="27"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26" t="s">
+      <c r="D67" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-    </row>
-    <row r="106" ht="224" customHeight="1" spans="1:5">
-      <c r="A106" s="27"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26" t="s">
+      <c r="E67" s="31"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+    </row>
+    <row r="68" ht="98" customHeight="1" spans="1:8">
+      <c r="A68" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-    </row>
-    <row r="107" ht="149" customHeight="1" spans="1:5">
-      <c r="A107" s="27"/>
-      <c r="B107" s="33" t="s">
+      <c r="B68" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C107" s="33" t="s">
+      <c r="C68" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D107" s="33" t="s">
+      <c r="E68" s="31"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+    </row>
+    <row r="69" ht="98" customHeight="1" spans="1:8">
+      <c r="A69" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E107" s="34"/>
-    </row>
-    <row r="108" ht="174" spans="2:4">
-      <c r="B108" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C108" s="26" t="s">
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+    </row>
+    <row r="70" ht="118" customHeight="1" spans="1:8">
+      <c r="A70" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="D108" s="26" t="s">
+      <c r="B70" s="27" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="109" ht="104" customHeight="1" spans="1:8">
-      <c r="A109" s="25"/>
-      <c r="B109" s="26" t="s">
+      <c r="C70" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C109" s="26" t="s">
+      <c r="D70" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D109" s="26" t="s">
+      <c r="E70" s="28"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+    </row>
+    <row r="71" ht="99" customHeight="1" spans="1:8">
+      <c r="A71" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="G109" t="s">
-        <v>60</v>
-      </c>
-      <c r="H109" s="28" t="s">
+      <c r="B71" s="27" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="110" ht="145" spans="2:4">
-      <c r="B110" s="26" t="s">
+      <c r="C71" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C110" s="26" t="s">
+      <c r="D71" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="D110" s="26" t="s">
+      <c r="E71" s="28"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+    </row>
+    <row r="72" ht="99" customHeight="1" spans="1:8">
+      <c r="A72" s="25" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="111" ht="159.5" spans="2:4">
-      <c r="B111" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C111" s="26" t="s">
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="D111" s="26" t="s">
+      <c r="E72" s="31"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+    </row>
+    <row r="73" ht="90" customHeight="1" spans="1:8">
+      <c r="A73" s="25" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="112" ht="145" spans="2:5">
-      <c r="B112" s="26"/>
-      <c r="C112" s="26" t="s">
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-    </row>
-    <row r="113" ht="145" spans="2:5">
-      <c r="B113" s="26"/>
-      <c r="C113" s="26" t="s">
+      <c r="E73" s="31"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+    </row>
+    <row r="74" ht="103" customHeight="1" spans="1:8">
+      <c r="A74" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-    </row>
-    <row r="114" ht="145" spans="2:5">
-      <c r="B114" s="26"/>
-      <c r="C114" s="26" t="s">
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-    </row>
-    <row r="115" ht="145" spans="2:5">
-      <c r="B115" s="26"/>
-      <c r="C115" s="26" t="s">
+      <c r="E74" s="31"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+    </row>
+    <row r="75" ht="107" customHeight="1" spans="1:8">
+      <c r="A75" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
-    </row>
-    <row r="116" ht="145" spans="2:5">
-      <c r="B116" s="26"/>
-      <c r="C116" s="26" t="s">
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
-    </row>
-    <row r="117" ht="130.5" spans="2:5">
-      <c r="B117" s="26"/>
-      <c r="C117" s="26" t="s">
+      <c r="E75" s="31"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+    </row>
+    <row r="76" ht="124" customHeight="1" spans="1:8">
+      <c r="A76" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-    </row>
-    <row r="118" ht="130.5" spans="2:5">
-      <c r="B118" s="26"/>
-      <c r="C118" s="26" t="s">
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
-    </row>
-    <row r="119" ht="145" spans="2:5">
-      <c r="B119" s="26"/>
-      <c r="C119" s="26" t="s">
+      <c r="E76" s="31"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+    </row>
+    <row r="77" ht="122" customHeight="1" spans="1:8">
+      <c r="A77" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="D119" s="26"/>
-      <c r="E119" s="26"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="23" t="s">
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="B120" s="24"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="23"/>
-      <c r="G120" s="23"/>
-      <c r="H120" s="23"/>
-    </row>
-    <row r="121" ht="116" spans="2:4">
-      <c r="B121" s="26" t="s">
+      <c r="E77" s="31"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+    </row>
+    <row r="78" ht="120" customHeight="1" spans="1:8">
+      <c r="A78" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="C121" s="26" t="s">
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D121" s="26" t="s">
+      <c r="E78" s="31"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+    </row>
+    <row r="79" ht="123" customHeight="1" spans="1:8">
+      <c r="A79" s="25" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="122" ht="130.5" spans="2:4">
-      <c r="B122" s="26" t="s">
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C122" s="26" t="s">
+      <c r="E79" s="31"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+    </row>
+    <row r="80" ht="126" customHeight="1" spans="1:8">
+      <c r="A80" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="D122" s="26" t="s">
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="27" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="123" ht="130.5" spans="3:3">
-      <c r="C123" s="26" t="s">
+      <c r="E80" s="31"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+    </row>
+    <row r="81" ht="128" customHeight="1" spans="1:8">
+      <c r="A81" s="25" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="124" ht="130.5" spans="3:3">
-      <c r="C124" s="26" t="s">
+      <c r="B81" s="27" t="s">
         <v>189</v>
       </c>
+      <c r="C81" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E81" s="28"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+    </row>
+    <row r="82" ht="130" customHeight="1" spans="1:8">
+      <c r="A82" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E82" s="28"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+    </row>
+    <row r="83" ht="121" customHeight="1" spans="1:8">
+      <c r="A83" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" s="31"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+    </row>
+    <row r="84" ht="119" customHeight="1" spans="1:8">
+      <c r="A84" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E84" s="31"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+    </row>
+    <row r="85" ht="117" customHeight="1" spans="1:8">
+      <c r="A85" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E85" s="31"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+    </row>
+    <row r="86" ht="129" customHeight="1" spans="1:8">
+      <c r="A86" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E86" s="31"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+    </row>
+    <row r="87" ht="131" customHeight="1" spans="1:8">
+      <c r="A87" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E87" s="31"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+    </row>
+    <row r="88" ht="129" customHeight="1" spans="1:8">
+      <c r="A88" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E88" s="31"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+    </row>
+    <row r="89" ht="141" customHeight="1" spans="1:8">
+      <c r="A89" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E89" s="31"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+    </row>
+    <row r="90" ht="124" customHeight="1" spans="1:8">
+      <c r="A90" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E90" s="28"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+    </row>
+    <row r="91" ht="106" customHeight="1" spans="1:8">
+      <c r="A91" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E91" s="28"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+    </row>
+    <row r="92" ht="104" customHeight="1" spans="1:8">
+      <c r="A92" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E92" s="31"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+    </row>
+    <row r="93" ht="127" customHeight="1" spans="1:8">
+      <c r="A93" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="E93" s="31"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+    </row>
+    <row r="94" ht="120" customHeight="1" spans="1:8">
+      <c r="A94" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="E94" s="31"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+    </row>
+    <row r="95" ht="157" customHeight="1" spans="1:8">
+      <c r="A95" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="E95" s="28"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+    </row>
+    <row r="96" ht="115" customHeight="1" spans="1:8">
+      <c r="A96" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="E96" s="31"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+    </row>
+    <row r="97" ht="113" customHeight="1" spans="1:8">
+      <c r="A97" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="E97" s="28"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+    </row>
+    <row r="98" ht="115" customHeight="1" spans="1:8">
+      <c r="A98" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="E98" s="28"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+    </row>
+    <row r="99" ht="132" customHeight="1" spans="1:8">
+      <c r="A99" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="E99" s="28"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+    </row>
+    <row r="100" ht="134" customHeight="1" spans="1:8">
+      <c r="A100" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="E100" s="31"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+    </row>
+    <row r="101" ht="147" customHeight="1" spans="1:8">
+      <c r="A101" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C101" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D101" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="E101" s="28"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+    </row>
+    <row r="102" ht="149" customHeight="1" spans="1:8">
+      <c r="A102" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="E102" s="31"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+    </row>
+    <row r="103" ht="177" customHeight="1" spans="1:8">
+      <c r="A103" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C103" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="D103" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E103" s="31"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H103" s="29"/>
+    </row>
+    <row r="104" ht="195" customHeight="1" spans="1:8">
+      <c r="A104" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="B104" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="E104" s="28"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+    </row>
+    <row r="105" ht="138" customHeight="1" spans="1:8">
+      <c r="A105" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D105" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="E105" s="31"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+    </row>
+    <row r="106" ht="138" customHeight="1" spans="1:8">
+      <c r="A106" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="E106" s="31"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+    </row>
+    <row r="107" ht="143" customHeight="1" spans="1:8">
+      <c r="A107" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="E107" s="31"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+    </row>
+    <row r="108" ht="180" customHeight="1" spans="1:8">
+      <c r="A108" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B108" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="C108" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D108" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="E108" s="39"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+    </row>
+    <row r="109" ht="195" spans="1:8">
+      <c r="A109" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B109" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C109" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="E109" s="28"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+    </row>
+    <row r="110" ht="104" customHeight="1" spans="1:8">
+      <c r="A110" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="B110" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E110" s="28"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H110" s="40" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="111" ht="128" customHeight="1" spans="1:8">
+      <c r="A111" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E111" s="28"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+    </row>
+    <row r="112" ht="131" customHeight="1" spans="1:8">
+      <c r="A112" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B112" s="31"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E112" s="31"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+    </row>
+    <row r="113" ht="130" customHeight="1" spans="1:8">
+      <c r="A113" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E113" s="31"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+    </row>
+    <row r="114" ht="143" customHeight="1" spans="1:8">
+      <c r="A114" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E114" s="31"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
+    </row>
+    <row r="115" ht="129" customHeight="1" spans="1:8">
+      <c r="A115" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="B115" s="31"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E115" s="31"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+    </row>
+    <row r="116" ht="145" customHeight="1" spans="1:8">
+      <c r="A116" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="B116" s="31"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E116" s="31"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+    </row>
+    <row r="117" ht="139" customHeight="1" spans="1:8">
+      <c r="A117" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="B117" s="31"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E117" s="31"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="29"/>
+    </row>
+    <row r="118" ht="136" customHeight="1" spans="1:8">
+      <c r="A118" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E118" s="31"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+    </row>
+    <row r="119" ht="146" customHeight="1" spans="1:8">
+      <c r="A119" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E119" s="31"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
+    </row>
+    <row r="120" ht="147" customHeight="1" spans="1:8">
+      <c r="A120" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B120" s="31"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E120" s="31"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+    </row>
+    <row r="121" ht="165" spans="1:8">
+      <c r="A121" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="C121" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="D121" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="E121" s="28"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+    </row>
+    <row r="122" ht="135" customHeight="1" spans="1:8">
+      <c r="A122" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="B122" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="C122" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="D122" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="E122" s="28"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+    </row>
+    <row r="123" ht="152" customHeight="1" spans="1:8">
+      <c r="A123" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="B123" s="31"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="E123" s="31"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+    </row>
+    <row r="124" ht="124" customHeight="1" spans="1:8">
+      <c r="A124" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="B124" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="C124" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="D124" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="E124" s="31"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="29"/>
+    </row>
+    <row r="125" ht="123" customHeight="1" spans="1:8">
+      <c r="A125" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="B125" s="31"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="E125" s="28"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
+    </row>
+    <row r="126" ht="130" customHeight="1" spans="1:8">
+      <c r="A126" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="B126" s="31"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="E126" s="28"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
+    </row>
+    <row r="127" ht="124" customHeight="1" spans="1:8">
+      <c r="A127" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="B127" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="C127" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D127" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="E127" s="31"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+    </row>
+    <row r="128" ht="113" customHeight="1" spans="1:8">
+      <c r="A128" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="E128" s="28"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+    </row>
+    <row r="129" ht="117" customHeight="1" spans="1:8">
+      <c r="A129" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="B129" s="31"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="E129" s="28"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+    </row>
+    <row r="130" ht="124" customHeight="1" spans="1:8">
+      <c r="A130" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="B130" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C130" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="D130" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="E130" s="31"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+    </row>
+    <row r="131" ht="169" customHeight="1" spans="1:8">
+      <c r="A131" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="B131" s="31"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="E131" s="28"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+    </row>
+    <row r="132" ht="130" customHeight="1" spans="1:8">
+      <c r="A132" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="B132" s="31"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="E132" s="28"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+    </row>
+    <row r="133" ht="103" customHeight="1" spans="1:8">
+      <c r="A133" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="B133" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C133" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="D133" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="E133" s="31"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+    </row>
+    <row r="134" ht="113" customHeight="1" spans="1:8">
+      <c r="A134" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B134" s="31"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="E134" s="31"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+    </row>
+    <row r="135" ht="143" customHeight="1" spans="1:8">
+      <c r="A135" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="B135" s="31"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E135" s="31"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+    </row>
+    <row r="136" ht="32" customHeight="1" spans="1:8">
+      <c r="A136" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="B136" s="36"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="36"/>
+      <c r="E136" s="36"/>
+      <c r="F136" s="36"/>
+      <c r="G136" s="36"/>
+      <c r="H136" s="36"/>
+    </row>
+    <row r="137" ht="150" spans="1:8">
+      <c r="A137" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="B137" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C137" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D137" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E137" s="28"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
+    </row>
+    <row r="138" ht="135" spans="1:8">
+      <c r="A138" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="C138" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="D138" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="E138" s="28"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+    </row>
+    <row r="139" ht="150" spans="1:8">
+      <c r="A139" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="B139" s="31"/>
+      <c r="C139" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D139" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="E139" s="28"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="29"/>
+    </row>
+    <row r="140" ht="135" spans="1:8">
+      <c r="A140" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="B140" s="31"/>
+      <c r="C140" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="D140" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="E140" s="28"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="158">
+  <mergeCells count="189">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
@@ -3859,7 +5161,7 @@
     <mergeCell ref="D117:E117"/>
     <mergeCell ref="D118:E118"/>
     <mergeCell ref="D119:E119"/>
-    <mergeCell ref="A120:H120"/>
+    <mergeCell ref="D120:E120"/>
     <mergeCell ref="D121:E121"/>
     <mergeCell ref="D122:E122"/>
     <mergeCell ref="D123:E123"/>
@@ -3875,7 +5177,23 @@
     <mergeCell ref="D133:E133"/>
     <mergeCell ref="D134:E134"/>
     <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="A136:H136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
     <mergeCell ref="B13:B21"/>
     <mergeCell ref="B22:B31"/>
     <mergeCell ref="B35:B36"/>
@@ -3889,6 +5207,14 @@
     <mergeCell ref="B96:B98"/>
     <mergeCell ref="B99:B100"/>
     <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B111:B120"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="B138:B140"/>
     <mergeCell ref="C13:C21"/>
     <mergeCell ref="C22:C31"/>
     <mergeCell ref="C35:C36"/>
@@ -3902,10 +5228,17 @@
     <mergeCell ref="C96:C98"/>
     <mergeCell ref="C99:C100"/>
     <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C111:C120"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="C133:C135"/>
     <mergeCell ref="A1:D2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11 G14 G15 G16 G21 G22 G23 G24 G25 G32 G35 G36 G37 G38 G39 G40 G41 G42 G43 G46 G47 G48 G59 G64 G65 G66 G67 G68 G81 G90 G95 G96 G97 G98 G99 G100 G101 G102 G103 G104 G105 G106 G107 G108 G109 G110 G111 G114 G118 G119 G121 G122 G12:G13 G17:G18 G19:G20 G26:G31 G33:G34 G44:G45 G49:G50 G51:G58 G60:G61 G62:G63 G70:G71 G72:G80 G82:G89 G91:G94 G112:G113 G115:G117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11 G14 G15 G16 G21 G22 G23 G24 G25 G32 G35 G36 G37 G38 G39 G40 G41 G42 G43 G46 G47 G48 G59 G64 G65 G66 G67 G68 G69 G81 G90 G95 G96 G97 G98 G99 G100 G101 G102 G103 G104 G105 G106 G107 G108 G109 G110 G111 G121 G122 G127 G128 G129 G130 G133 G134 G135 G136 G137 G138 G12:G13 G17:G18 G19:G20 G26:G31 G33:G34 G44:G45 G49:G50 G51:G58 G60:G61 G62:G63 G70:G71 G72:G80 G82:G89 G91:G94 G112:G120 G123:G124 G125:G126 G131:G132">
       <formula1>"Pass,Fail,Pending"</formula1>
     </dataValidation>
   </dataValidations>
